--- a/jpcore-r4/feature/swg3-practioner免許コードの追加/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/feature/swg3-practioner免許コードの追加/StructureDefinition-jp-practitioner.xlsx
@@ -1980,7 +1980,7 @@
   </si>
   <si>
     <t>Knowing which language a practitioner speaks can help in facilitating communication with patients.
-医療従事者がどの言語を話すかを知ることは、患者とのコミュニケーションを円滑にするのに役立る。</t>
+医療従事者がどの言語を話すかを知ることは、患者とのコミュニケーションを円滑にするのに役立つ。</t>
   </si>
   <si>
     <t>PID-15, NK1-20, LAN-2</t>

--- a/jpcore-r4/feature/swg3-practioner免許コードの追加/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/feature/swg3-practioner免許コードの追加/StructureDefinition-jp-practitioner.xlsx
@@ -1319,7 +1319,7 @@
     <t>Practitioner.qualification.issuer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Organization)
 </t>
   </si>
   <si>
@@ -1488,6 +1488,10 @@
   </si>
   <si>
     <t>Practitioner.qualification.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
   </si>
   <si>
     <t>Organization that issued id (may be just text)</t>
@@ -1957,14 +1961,6 @@
     <t>医籍登録番号</t>
   </si>
   <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicalLicenceCertificate_CS"/&gt;
-    &lt;code value="medical-registration"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
     <t>Practitioner.communication</t>
   </si>
   <si>
@@ -8716,16 +8712,16 @@
         <v>87</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8775,7 +8771,7 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8790,13 +8786,13 @@
         <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>76</v>
@@ -8833,7 +8829,7 @@
         <v>383</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8842,7 +8838,7 @@
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R59" t="s" s="2">
         <v>76</v>
@@ -8864,7 +8860,7 @@
       </c>
       <c r="X59" s="2"/>
       <c r="Y59" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>76</v>
@@ -8940,11 +8936,11 @@
         <v>391</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>76</v>
@@ -9045,13 +9041,13 @@
         <v>76</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>399</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9134,7 +9130,7 @@
         <v>360</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>76</v>
@@ -10174,7 +10170,7 @@
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="R71" t="s" s="2">
         <v>76</v>
@@ -10271,13 +10267,13 @@
         <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L72" t="s" s="2">
         <v>442</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10488,16 +10484,16 @@
         <v>87</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10547,7 +10543,7 @@
         <v>76</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10562,13 +10558,13 @@
         <v>98</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>76</v>
@@ -10605,7 +10601,7 @@
         <v>383</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10614,7 +10610,7 @@
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R75" t="s" s="2">
         <v>76</v>
@@ -10636,7 +10632,7 @@
       </c>
       <c r="X75" s="2"/>
       <c r="Y75" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>76</v>
@@ -10712,11 +10708,11 @@
         <v>391</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>76</v>
@@ -10817,13 +10813,13 @@
         <v>76</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>399</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10906,7 +10902,7 @@
         <v>360</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>76</v>
@@ -11946,7 +11942,7 @@
       </c>
       <c r="P87" s="2"/>
       <c r="Q87" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="R87" t="s" s="2">
         <v>76</v>
@@ -12043,13 +12039,13 @@
         <v>88</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L88" t="s" s="2">
         <v>442</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -12260,16 +12256,16 @@
         <v>87</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12319,7 +12315,7 @@
         <v>76</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12334,13 +12330,13 @@
         <v>98</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>76</v>
@@ -12377,7 +12373,7 @@
         <v>383</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12386,7 +12382,7 @@
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R91" t="s" s="2">
         <v>76</v>
@@ -12408,7 +12404,7 @@
       </c>
       <c r="X91" s="2"/>
       <c r="Y91" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>76</v>
@@ -12484,11 +12480,11 @@
         <v>391</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>76</v>
@@ -12589,13 +12585,13 @@
         <v>76</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K93" t="s" s="2">
         <v>399</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12678,7 +12674,7 @@
         <v>360</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C94" t="s" s="2">
         <v>76</v>
@@ -13718,7 +13714,7 @@
       </c>
       <c r="P103" s="2"/>
       <c r="Q103" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="R103" t="s" s="2">
         <v>76</v>
@@ -13815,13 +13811,13 @@
         <v>88</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L104" t="s" s="2">
         <v>442</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
@@ -14032,16 +14028,16 @@
         <v>87</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -14091,7 +14087,7 @@
         <v>76</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>77</v>
@@ -14106,13 +14102,13 @@
         <v>98</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>76</v>
@@ -14149,7 +14145,7 @@
         <v>383</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -14158,7 +14154,7 @@
       </c>
       <c r="P107" s="2"/>
       <c r="Q107" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R107" t="s" s="2">
         <v>76</v>
@@ -14180,7 +14176,7 @@
       </c>
       <c r="X107" s="2"/>
       <c r="Y107" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>76</v>
@@ -14256,11 +14252,11 @@
         <v>391</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>76</v>
@@ -14361,13 +14357,13 @@
         <v>76</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K109" t="s" s="2">
         <v>399</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -14450,7 +14446,7 @@
         <v>360</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C110" t="s" s="2">
         <v>76</v>
@@ -15490,7 +15486,7 @@
       </c>
       <c r="P119" s="2"/>
       <c r="Q119" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="R119" t="s" s="2">
         <v>76</v>
@@ -15587,13 +15583,13 @@
         <v>88</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L120" t="s" s="2">
         <v>442</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
@@ -15804,16 +15800,16 @@
         <v>87</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
@@ -15863,7 +15859,7 @@
         <v>76</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>77</v>
@@ -15878,13 +15874,13 @@
         <v>98</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>76</v>
@@ -15921,7 +15917,7 @@
         <v>383</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -15930,7 +15926,7 @@
       </c>
       <c r="P123" s="2"/>
       <c r="Q123" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R123" t="s" s="2">
         <v>76</v>
@@ -15952,7 +15948,7 @@
       </c>
       <c r="X123" s="2"/>
       <c r="Y123" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z123" t="s" s="2">
         <v>76</v>
@@ -16028,11 +16024,11 @@
         <v>391</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>76</v>
@@ -16133,13 +16129,13 @@
         <v>76</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K125" t="s" s="2">
         <v>399</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
@@ -16222,7 +16218,7 @@
         <v>360</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C126" t="s" s="2">
         <v>76</v>
@@ -17262,7 +17258,7 @@
       </c>
       <c r="P135" s="2"/>
       <c r="Q135" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="R135" t="s" s="2">
         <v>76</v>
@@ -17359,13 +17355,13 @@
         <v>88</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L136" t="s" s="2">
         <v>442</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
@@ -17576,16 +17572,16 @@
         <v>87</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
@@ -17635,7 +17631,7 @@
         <v>76</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>77</v>
@@ -17650,13 +17646,13 @@
         <v>98</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>76</v>
@@ -17693,7 +17689,7 @@
         <v>383</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
@@ -17702,7 +17698,7 @@
       </c>
       <c r="P139" s="2"/>
       <c r="Q139" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R139" t="s" s="2">
         <v>76</v>
@@ -17724,7 +17720,7 @@
       </c>
       <c r="X139" s="2"/>
       <c r="Y139" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z139" t="s" s="2">
         <v>76</v>
@@ -17800,11 +17796,11 @@
         <v>391</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>76</v>
@@ -17905,13 +17901,13 @@
         <v>76</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K141" t="s" s="2">
         <v>399</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -17994,7 +17990,7 @@
         <v>360</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C142" t="s" s="2">
         <v>76</v>
@@ -19034,7 +19030,7 @@
       </c>
       <c r="P151" s="2"/>
       <c r="Q151" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="R151" t="s" s="2">
         <v>76</v>
@@ -19131,13 +19127,13 @@
         <v>88</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L152" t="s" s="2">
         <v>442</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" t="s" s="2">
@@ -19348,16 +19344,16 @@
         <v>87</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" t="s" s="2">
@@ -19407,7 +19403,7 @@
         <v>76</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>77</v>
@@ -19422,13 +19418,13 @@
         <v>98</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM154" t="s" s="2">
         <v>76</v>
@@ -19465,7 +19461,7 @@
         <v>383</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M155" s="2"/>
       <c r="N155" s="2"/>
@@ -19474,7 +19470,7 @@
       </c>
       <c r="P155" s="2"/>
       <c r="Q155" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R155" t="s" s="2">
         <v>76</v>
@@ -19496,7 +19492,7 @@
       </c>
       <c r="X155" s="2"/>
       <c r="Y155" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z155" t="s" s="2">
         <v>76</v>
@@ -19572,11 +19568,11 @@
         <v>391</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M156" s="2"/>
       <c r="N156" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>76</v>
@@ -19677,13 +19673,13 @@
         <v>76</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K157" t="s" s="2">
         <v>399</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M157" s="2"/>
       <c r="N157" s="2"/>
@@ -19766,7 +19762,7 @@
         <v>360</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C158" t="s" s="2">
         <v>76</v>
@@ -20806,7 +20802,7 @@
       </c>
       <c r="P167" s="2"/>
       <c r="Q167" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="R167" t="s" s="2">
         <v>76</v>
@@ -20903,13 +20899,13 @@
         <v>88</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L168" t="s" s="2">
         <v>442</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" t="s" s="2">
@@ -21120,16 +21116,16 @@
         <v>87</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N170" s="2"/>
       <c r="O170" t="s" s="2">
@@ -21179,7 +21175,7 @@
         <v>76</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>77</v>
@@ -21194,13 +21190,13 @@
         <v>98</v>
       </c>
       <c r="AJ170" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK170" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL170" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM170" t="s" s="2">
         <v>76</v>
@@ -21237,7 +21233,7 @@
         <v>383</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M171" s="2"/>
       <c r="N171" s="2"/>
@@ -21246,7 +21242,7 @@
       </c>
       <c r="P171" s="2"/>
       <c r="Q171" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R171" t="s" s="2">
         <v>76</v>
@@ -21268,7 +21264,7 @@
       </c>
       <c r="X171" s="2"/>
       <c r="Y171" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z171" t="s" s="2">
         <v>76</v>
@@ -21344,11 +21340,11 @@
         <v>391</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M172" s="2"/>
       <c r="N172" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>76</v>
@@ -21449,13 +21445,13 @@
         <v>76</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K173" t="s" s="2">
         <v>399</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M173" s="2"/>
       <c r="N173" s="2"/>
@@ -21538,7 +21534,7 @@
         <v>360</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C174" t="s" s="2">
         <v>76</v>
@@ -22578,7 +22574,7 @@
       </c>
       <c r="P183" s="2"/>
       <c r="Q183" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="R183" t="s" s="2">
         <v>76</v>
@@ -22675,13 +22671,13 @@
         <v>88</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L184" t="s" s="2">
         <v>442</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N184" s="2"/>
       <c r="O184" t="s" s="2">
@@ -22892,16 +22888,16 @@
         <v>87</v>
       </c>
       <c r="J186" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N186" s="2"/>
       <c r="O186" t="s" s="2">
@@ -22951,7 +22947,7 @@
         <v>76</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>77</v>
@@ -22966,13 +22962,13 @@
         <v>98</v>
       </c>
       <c r="AJ186" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK186" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL186" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM186" t="s" s="2">
         <v>76</v>
@@ -23009,7 +23005,7 @@
         <v>383</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M187" s="2"/>
       <c r="N187" s="2"/>
@@ -23018,7 +23014,7 @@
       </c>
       <c r="P187" s="2"/>
       <c r="Q187" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R187" t="s" s="2">
         <v>76</v>
@@ -23040,7 +23036,7 @@
       </c>
       <c r="X187" s="2"/>
       <c r="Y187" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z187" t="s" s="2">
         <v>76</v>
@@ -23116,11 +23112,11 @@
         <v>391</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M188" s="2"/>
       <c r="N188" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>76</v>
@@ -23221,13 +23217,13 @@
         <v>76</v>
       </c>
       <c r="J189" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K189" t="s" s="2">
         <v>399</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M189" s="2"/>
       <c r="N189" s="2"/>
@@ -23310,7 +23306,7 @@
         <v>360</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C190" t="s" s="2">
         <v>76</v>
@@ -24350,7 +24346,7 @@
       </c>
       <c r="P199" s="2"/>
       <c r="Q199" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="R199" t="s" s="2">
         <v>76</v>
@@ -24447,13 +24443,13 @@
         <v>88</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="L200" t="s" s="2">
         <v>442</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N200" s="2"/>
       <c r="O200" t="s" s="2">
@@ -24664,16 +24660,16 @@
         <v>87</v>
       </c>
       <c r="J202" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N202" s="2"/>
       <c r="O202" t="s" s="2">
@@ -24723,7 +24719,7 @@
         <v>76</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF202" t="s" s="2">
         <v>77</v>
@@ -24738,13 +24734,13 @@
         <v>98</v>
       </c>
       <c r="AJ202" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK202" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL202" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM202" t="s" s="2">
         <v>76</v>
@@ -24781,7 +24777,7 @@
         <v>383</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M203" s="2"/>
       <c r="N203" s="2"/>
@@ -24790,7 +24786,7 @@
       </c>
       <c r="P203" s="2"/>
       <c r="Q203" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R203" t="s" s="2">
         <v>76</v>
@@ -24812,7 +24808,7 @@
       </c>
       <c r="X203" s="2"/>
       <c r="Y203" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z203" t="s" s="2">
         <v>76</v>
@@ -24888,11 +24884,11 @@
         <v>391</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M204" s="2"/>
       <c r="N204" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O204" t="s" s="2">
         <v>76</v>
@@ -24993,13 +24989,13 @@
         <v>76</v>
       </c>
       <c r="J205" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K205" t="s" s="2">
         <v>399</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M205" s="2"/>
       <c r="N205" s="2"/>
@@ -25082,7 +25078,7 @@
         <v>360</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C206" t="s" s="2">
         <v>76</v>
@@ -26122,7 +26118,7 @@
       </c>
       <c r="P215" s="2"/>
       <c r="Q215" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="R215" t="s" s="2">
         <v>76</v>
@@ -26219,13 +26215,13 @@
         <v>88</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L216" t="s" s="2">
         <v>442</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="N216" s="2"/>
       <c r="O216" t="s" s="2">
@@ -26436,16 +26432,16 @@
         <v>87</v>
       </c>
       <c r="J218" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N218" s="2"/>
       <c r="O218" t="s" s="2">
@@ -26495,7 +26491,7 @@
         <v>76</v>
       </c>
       <c r="AE218" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF218" t="s" s="2">
         <v>77</v>
@@ -26510,13 +26506,13 @@
         <v>98</v>
       </c>
       <c r="AJ218" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK218" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL218" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM218" t="s" s="2">
         <v>76</v>
@@ -26553,7 +26549,7 @@
         <v>383</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M219" s="2"/>
       <c r="N219" s="2"/>
@@ -26562,7 +26558,7 @@
       </c>
       <c r="P219" s="2"/>
       <c r="Q219" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R219" t="s" s="2">
         <v>76</v>
@@ -26584,7 +26580,7 @@
       </c>
       <c r="X219" s="2"/>
       <c r="Y219" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z219" t="s" s="2">
         <v>76</v>
@@ -26660,11 +26656,11 @@
         <v>391</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M220" s="2"/>
       <c r="N220" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O220" t="s" s="2">
         <v>76</v>
@@ -26765,13 +26761,13 @@
         <v>76</v>
       </c>
       <c r="J221" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K221" t="s" s="2">
         <v>399</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M221" s="2"/>
       <c r="N221" s="2"/>
@@ -26854,7 +26850,7 @@
         <v>360</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C222" t="s" s="2">
         <v>76</v>
@@ -27894,7 +27890,7 @@
       </c>
       <c r="P231" s="2"/>
       <c r="Q231" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="R231" t="s" s="2">
         <v>76</v>
@@ -27991,13 +27987,13 @@
         <v>88</v>
       </c>
       <c r="K232" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L232" t="s" s="2">
         <v>442</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N232" s="2"/>
       <c r="O232" t="s" s="2">
@@ -28208,16 +28204,16 @@
         <v>87</v>
       </c>
       <c r="J234" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N234" s="2"/>
       <c r="O234" t="s" s="2">
@@ -28267,7 +28263,7 @@
         <v>76</v>
       </c>
       <c r="AE234" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF234" t="s" s="2">
         <v>77</v>
@@ -28282,13 +28278,13 @@
         <v>98</v>
       </c>
       <c r="AJ234" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK234" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL234" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM234" t="s" s="2">
         <v>76</v>
@@ -28325,7 +28321,7 @@
         <v>383</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M235" s="2"/>
       <c r="N235" s="2"/>
@@ -28334,7 +28330,7 @@
       </c>
       <c r="P235" s="2"/>
       <c r="Q235" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R235" t="s" s="2">
         <v>76</v>
@@ -28356,7 +28352,7 @@
       </c>
       <c r="X235" s="2"/>
       <c r="Y235" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z235" t="s" s="2">
         <v>76</v>
@@ -28432,11 +28428,11 @@
         <v>391</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M236" s="2"/>
       <c r="N236" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O236" t="s" s="2">
         <v>76</v>
@@ -28537,13 +28533,13 @@
         <v>76</v>
       </c>
       <c r="J237" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K237" t="s" s="2">
         <v>399</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M237" s="2"/>
       <c r="N237" s="2"/>
@@ -28626,7 +28622,7 @@
         <v>360</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C238" t="s" s="2">
         <v>76</v>
@@ -29666,7 +29662,7 @@
       </c>
       <c r="P247" s="2"/>
       <c r="Q247" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="R247" t="s" s="2">
         <v>76</v>
@@ -29763,13 +29759,13 @@
         <v>88</v>
       </c>
       <c r="K248" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L248" t="s" s="2">
         <v>442</v>
       </c>
       <c r="M248" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N248" s="2"/>
       <c r="O248" t="s" s="2">
@@ -29980,16 +29976,16 @@
         <v>87</v>
       </c>
       <c r="J250" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K250" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M250" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N250" s="2"/>
       <c r="O250" t="s" s="2">
@@ -30039,7 +30035,7 @@
         <v>76</v>
       </c>
       <c r="AE250" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF250" t="s" s="2">
         <v>77</v>
@@ -30054,13 +30050,13 @@
         <v>98</v>
       </c>
       <c r="AJ250" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK250" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL250" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM250" t="s" s="2">
         <v>76</v>
@@ -30097,7 +30093,7 @@
         <v>383</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M251" s="2"/>
       <c r="N251" s="2"/>
@@ -30106,7 +30102,7 @@
       </c>
       <c r="P251" s="2"/>
       <c r="Q251" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R251" t="s" s="2">
         <v>76</v>
@@ -30128,7 +30124,7 @@
       </c>
       <c r="X251" s="2"/>
       <c r="Y251" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z251" t="s" s="2">
         <v>76</v>
@@ -30204,11 +30200,11 @@
         <v>391</v>
       </c>
       <c r="L252" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M252" s="2"/>
       <c r="N252" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O252" t="s" s="2">
         <v>76</v>
@@ -30309,13 +30305,13 @@
         <v>76</v>
       </c>
       <c r="J253" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K253" t="s" s="2">
         <v>399</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M253" s="2"/>
       <c r="N253" s="2"/>
@@ -30398,7 +30394,7 @@
         <v>360</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C254" t="s" s="2">
         <v>76</v>
@@ -31438,7 +31434,7 @@
       </c>
       <c r="P263" s="2"/>
       <c r="Q263" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="R263" t="s" s="2">
         <v>76</v>
@@ -31535,13 +31531,13 @@
         <v>88</v>
       </c>
       <c r="K264" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L264" t="s" s="2">
         <v>442</v>
       </c>
       <c r="M264" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N264" s="2"/>
       <c r="O264" t="s" s="2">
@@ -31752,16 +31748,16 @@
         <v>87</v>
       </c>
       <c r="J266" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K266" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M266" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N266" s="2"/>
       <c r="O266" t="s" s="2">
@@ -31811,7 +31807,7 @@
         <v>76</v>
       </c>
       <c r="AE266" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF266" t="s" s="2">
         <v>77</v>
@@ -31826,13 +31822,13 @@
         <v>98</v>
       </c>
       <c r="AJ266" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK266" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL266" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM266" t="s" s="2">
         <v>76</v>
@@ -31869,7 +31865,7 @@
         <v>383</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M267" s="2"/>
       <c r="N267" s="2"/>
@@ -31878,7 +31874,7 @@
       </c>
       <c r="P267" s="2"/>
       <c r="Q267" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R267" t="s" s="2">
         <v>76</v>
@@ -31900,7 +31896,7 @@
       </c>
       <c r="X267" s="2"/>
       <c r="Y267" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z267" t="s" s="2">
         <v>76</v>
@@ -31976,11 +31972,11 @@
         <v>391</v>
       </c>
       <c r="L268" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M268" s="2"/>
       <c r="N268" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O268" t="s" s="2">
         <v>76</v>
@@ -32081,13 +32077,13 @@
         <v>76</v>
       </c>
       <c r="J269" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K269" t="s" s="2">
         <v>399</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M269" s="2"/>
       <c r="N269" s="2"/>
@@ -32170,7 +32166,7 @@
         <v>360</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C270" t="s" s="2">
         <v>76</v>
@@ -33210,7 +33206,7 @@
       </c>
       <c r="P279" s="2"/>
       <c r="Q279" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="R279" t="s" s="2">
         <v>76</v>
@@ -33307,13 +33303,13 @@
         <v>88</v>
       </c>
       <c r="K280" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L280" t="s" s="2">
         <v>442</v>
       </c>
       <c r="M280" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="N280" s="2"/>
       <c r="O280" t="s" s="2">
@@ -33524,16 +33520,16 @@
         <v>87</v>
       </c>
       <c r="J282" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K282" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M282" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N282" s="2"/>
       <c r="O282" t="s" s="2">
@@ -33583,7 +33579,7 @@
         <v>76</v>
       </c>
       <c r="AE282" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF282" t="s" s="2">
         <v>77</v>
@@ -33598,13 +33594,13 @@
         <v>98</v>
       </c>
       <c r="AJ282" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK282" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL282" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM282" t="s" s="2">
         <v>76</v>
@@ -33641,7 +33637,7 @@
         <v>383</v>
       </c>
       <c r="L283" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M283" s="2"/>
       <c r="N283" s="2"/>
@@ -33650,7 +33646,7 @@
       </c>
       <c r="P283" s="2"/>
       <c r="Q283" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R283" t="s" s="2">
         <v>76</v>
@@ -33672,7 +33668,7 @@
       </c>
       <c r="X283" s="2"/>
       <c r="Y283" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z283" t="s" s="2">
         <v>76</v>
@@ -33748,11 +33744,11 @@
         <v>391</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M284" s="2"/>
       <c r="N284" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O284" t="s" s="2">
         <v>76</v>
@@ -33853,13 +33849,13 @@
         <v>76</v>
       </c>
       <c r="J285" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K285" t="s" s="2">
         <v>399</v>
       </c>
       <c r="L285" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M285" s="2"/>
       <c r="N285" s="2"/>
@@ -33942,7 +33938,7 @@
         <v>360</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C286" t="s" s="2">
         <v>76</v>
@@ -34982,7 +34978,7 @@
       </c>
       <c r="P295" s="2"/>
       <c r="Q295" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="R295" t="s" s="2">
         <v>76</v>
@@ -35079,13 +35075,13 @@
         <v>88</v>
       </c>
       <c r="K296" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L296" t="s" s="2">
         <v>442</v>
       </c>
       <c r="M296" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N296" s="2"/>
       <c r="O296" t="s" s="2">
@@ -35296,16 +35292,16 @@
         <v>87</v>
       </c>
       <c r="J298" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K298" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L298" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M298" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N298" s="2"/>
       <c r="O298" t="s" s="2">
@@ -35355,7 +35351,7 @@
         <v>76</v>
       </c>
       <c r="AE298" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF298" t="s" s="2">
         <v>77</v>
@@ -35370,13 +35366,13 @@
         <v>98</v>
       </c>
       <c r="AJ298" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK298" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL298" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM298" t="s" s="2">
         <v>76</v>
@@ -35413,7 +35409,7 @@
         <v>383</v>
       </c>
       <c r="L299" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M299" s="2"/>
       <c r="N299" s="2"/>
@@ -35422,7 +35418,7 @@
       </c>
       <c r="P299" s="2"/>
       <c r="Q299" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R299" t="s" s="2">
         <v>76</v>
@@ -35444,7 +35440,7 @@
       </c>
       <c r="X299" s="2"/>
       <c r="Y299" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z299" t="s" s="2">
         <v>76</v>
@@ -35520,11 +35516,11 @@
         <v>391</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M300" s="2"/>
       <c r="N300" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O300" t="s" s="2">
         <v>76</v>
@@ -35625,13 +35621,13 @@
         <v>76</v>
       </c>
       <c r="J301" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K301" t="s" s="2">
         <v>399</v>
       </c>
       <c r="L301" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M301" s="2"/>
       <c r="N301" s="2"/>
@@ -35714,7 +35710,7 @@
         <v>360</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C302" t="s" s="2">
         <v>76</v>
@@ -36754,7 +36750,7 @@
       </c>
       <c r="P311" s="2"/>
       <c r="Q311" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="R311" t="s" s="2">
         <v>76</v>
@@ -36851,13 +36847,13 @@
         <v>88</v>
       </c>
       <c r="K312" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L312" t="s" s="2">
         <v>442</v>
       </c>
       <c r="M312" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="N312" s="2"/>
       <c r="O312" t="s" s="2">
@@ -37068,16 +37064,16 @@
         <v>87</v>
       </c>
       <c r="J314" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K314" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L314" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M314" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N314" s="2"/>
       <c r="O314" t="s" s="2">
@@ -37127,7 +37123,7 @@
         <v>76</v>
       </c>
       <c r="AE314" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF314" t="s" s="2">
         <v>77</v>
@@ -37142,13 +37138,13 @@
         <v>98</v>
       </c>
       <c r="AJ314" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK314" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL314" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM314" t="s" s="2">
         <v>76</v>
@@ -37185,7 +37181,7 @@
         <v>383</v>
       </c>
       <c r="L315" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M315" s="2"/>
       <c r="N315" s="2"/>
@@ -37194,7 +37190,7 @@
       </c>
       <c r="P315" s="2"/>
       <c r="Q315" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R315" t="s" s="2">
         <v>76</v>
@@ -37216,7 +37212,7 @@
       </c>
       <c r="X315" s="2"/>
       <c r="Y315" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z315" t="s" s="2">
         <v>76</v>
@@ -37292,11 +37288,11 @@
         <v>391</v>
       </c>
       <c r="L316" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M316" s="2"/>
       <c r="N316" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O316" t="s" s="2">
         <v>76</v>
@@ -37397,13 +37393,13 @@
         <v>76</v>
       </c>
       <c r="J317" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K317" t="s" s="2">
         <v>399</v>
       </c>
       <c r="L317" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M317" s="2"/>
       <c r="N317" s="2"/>
@@ -37486,7 +37482,7 @@
         <v>360</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C318" t="s" s="2">
         <v>76</v>
@@ -38526,7 +38522,7 @@
       </c>
       <c r="P327" s="2"/>
       <c r="Q327" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="R327" t="s" s="2">
         <v>76</v>
@@ -38623,13 +38619,13 @@
         <v>88</v>
       </c>
       <c r="K328" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L328" t="s" s="2">
         <v>442</v>
       </c>
       <c r="M328" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N328" s="2"/>
       <c r="O328" t="s" s="2">
@@ -38840,16 +38836,16 @@
         <v>87</v>
       </c>
       <c r="J330" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K330" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L330" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M330" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N330" s="2"/>
       <c r="O330" t="s" s="2">
@@ -38899,7 +38895,7 @@
         <v>76</v>
       </c>
       <c r="AE330" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF330" t="s" s="2">
         <v>77</v>
@@ -38914,13 +38910,13 @@
         <v>98</v>
       </c>
       <c r="AJ330" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK330" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL330" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM330" t="s" s="2">
         <v>76</v>
@@ -38957,7 +38953,7 @@
         <v>383</v>
       </c>
       <c r="L331" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M331" s="2"/>
       <c r="N331" s="2"/>
@@ -38966,7 +38962,7 @@
       </c>
       <c r="P331" s="2"/>
       <c r="Q331" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R331" t="s" s="2">
         <v>76</v>
@@ -38988,7 +38984,7 @@
       </c>
       <c r="X331" s="2"/>
       <c r="Y331" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z331" t="s" s="2">
         <v>76</v>
@@ -39064,11 +39060,11 @@
         <v>391</v>
       </c>
       <c r="L332" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M332" s="2"/>
       <c r="N332" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O332" t="s" s="2">
         <v>76</v>
@@ -39169,13 +39165,13 @@
         <v>76</v>
       </c>
       <c r="J333" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K333" t="s" s="2">
         <v>399</v>
       </c>
       <c r="L333" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M333" s="2"/>
       <c r="N333" s="2"/>
@@ -39258,7 +39254,7 @@
         <v>360</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C334" t="s" s="2">
         <v>76</v>
@@ -40298,7 +40294,7 @@
       </c>
       <c r="P343" s="2"/>
       <c r="Q343" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="R343" t="s" s="2">
         <v>76</v>
@@ -40395,13 +40391,13 @@
         <v>88</v>
       </c>
       <c r="K344" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L344" t="s" s="2">
         <v>442</v>
       </c>
       <c r="M344" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="N344" s="2"/>
       <c r="O344" t="s" s="2">
@@ -40612,16 +40608,16 @@
         <v>87</v>
       </c>
       <c r="J346" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K346" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L346" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M346" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N346" s="2"/>
       <c r="O346" t="s" s="2">
@@ -40671,7 +40667,7 @@
         <v>76</v>
       </c>
       <c r="AE346" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF346" t="s" s="2">
         <v>77</v>
@@ -40686,13 +40682,13 @@
         <v>98</v>
       </c>
       <c r="AJ346" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK346" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL346" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM346" t="s" s="2">
         <v>76</v>
@@ -40729,7 +40725,7 @@
         <v>383</v>
       </c>
       <c r="L347" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M347" s="2"/>
       <c r="N347" s="2"/>
@@ -40738,7 +40734,7 @@
       </c>
       <c r="P347" s="2"/>
       <c r="Q347" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R347" t="s" s="2">
         <v>76</v>
@@ -40760,7 +40756,7 @@
       </c>
       <c r="X347" s="2"/>
       <c r="Y347" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z347" t="s" s="2">
         <v>76</v>
@@ -40836,11 +40832,11 @@
         <v>391</v>
       </c>
       <c r="L348" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M348" s="2"/>
       <c r="N348" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O348" t="s" s="2">
         <v>76</v>
@@ -40941,13 +40937,13 @@
         <v>76</v>
       </c>
       <c r="J349" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K349" t="s" s="2">
         <v>399</v>
       </c>
       <c r="L349" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M349" s="2"/>
       <c r="N349" s="2"/>
@@ -41030,7 +41026,7 @@
         <v>360</v>
       </c>
       <c r="B350" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C350" t="s" s="2">
         <v>76</v>
@@ -42070,7 +42066,7 @@
       </c>
       <c r="P359" s="2"/>
       <c r="Q359" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="R359" t="s" s="2">
         <v>76</v>
@@ -42167,13 +42163,13 @@
         <v>88</v>
       </c>
       <c r="K360" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L360" t="s" s="2">
         <v>442</v>
       </c>
       <c r="M360" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="N360" s="2"/>
       <c r="O360" t="s" s="2">
@@ -42384,16 +42380,16 @@
         <v>87</v>
       </c>
       <c r="J362" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K362" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L362" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M362" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N362" s="2"/>
       <c r="O362" t="s" s="2">
@@ -42443,7 +42439,7 @@
         <v>76</v>
       </c>
       <c r="AE362" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF362" t="s" s="2">
         <v>77</v>
@@ -42458,13 +42454,13 @@
         <v>98</v>
       </c>
       <c r="AJ362" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK362" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL362" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM362" t="s" s="2">
         <v>76</v>
@@ -42501,7 +42497,7 @@
         <v>383</v>
       </c>
       <c r="L363" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M363" s="2"/>
       <c r="N363" s="2"/>
@@ -42510,7 +42506,7 @@
       </c>
       <c r="P363" s="2"/>
       <c r="Q363" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R363" t="s" s="2">
         <v>76</v>
@@ -42532,7 +42528,7 @@
       </c>
       <c r="X363" s="2"/>
       <c r="Y363" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z363" t="s" s="2">
         <v>76</v>
@@ -42608,11 +42604,11 @@
         <v>391</v>
       </c>
       <c r="L364" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M364" s="2"/>
       <c r="N364" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O364" t="s" s="2">
         <v>76</v>
@@ -42713,13 +42709,13 @@
         <v>76</v>
       </c>
       <c r="J365" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K365" t="s" s="2">
         <v>399</v>
       </c>
       <c r="L365" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M365" s="2"/>
       <c r="N365" s="2"/>
@@ -42802,7 +42798,7 @@
         <v>360</v>
       </c>
       <c r="B366" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C366" t="s" s="2">
         <v>76</v>
@@ -43842,7 +43838,7 @@
       </c>
       <c r="P375" s="2"/>
       <c r="Q375" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="R375" t="s" s="2">
         <v>76</v>
@@ -43939,13 +43935,13 @@
         <v>88</v>
       </c>
       <c r="K376" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L376" t="s" s="2">
         <v>442</v>
       </c>
       <c r="M376" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N376" s="2"/>
       <c r="O376" t="s" s="2">
@@ -44156,16 +44152,16 @@
         <v>87</v>
       </c>
       <c r="J378" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K378" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L378" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M378" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N378" s="2"/>
       <c r="O378" t="s" s="2">
@@ -44215,7 +44211,7 @@
         <v>76</v>
       </c>
       <c r="AE378" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF378" t="s" s="2">
         <v>77</v>
@@ -44230,13 +44226,13 @@
         <v>98</v>
       </c>
       <c r="AJ378" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK378" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL378" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM378" t="s" s="2">
         <v>76</v>
@@ -44273,7 +44269,7 @@
         <v>383</v>
       </c>
       <c r="L379" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M379" s="2"/>
       <c r="N379" s="2"/>
@@ -44282,7 +44278,7 @@
       </c>
       <c r="P379" s="2"/>
       <c r="Q379" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R379" t="s" s="2">
         <v>76</v>
@@ -44304,7 +44300,7 @@
       </c>
       <c r="X379" s="2"/>
       <c r="Y379" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z379" t="s" s="2">
         <v>76</v>
@@ -44380,11 +44376,11 @@
         <v>391</v>
       </c>
       <c r="L380" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M380" s="2"/>
       <c r="N380" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O380" t="s" s="2">
         <v>76</v>
@@ -44485,13 +44481,13 @@
         <v>76</v>
       </c>
       <c r="J381" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K381" t="s" s="2">
         <v>399</v>
       </c>
       <c r="L381" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M381" s="2"/>
       <c r="N381" s="2"/>
@@ -44574,7 +44570,7 @@
         <v>360</v>
       </c>
       <c r="B382" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C382" t="s" s="2">
         <v>76</v>
@@ -45614,7 +45610,7 @@
       </c>
       <c r="P391" s="2"/>
       <c r="Q391" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="R391" t="s" s="2">
         <v>76</v>
@@ -45711,13 +45707,13 @@
         <v>88</v>
       </c>
       <c r="K392" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L392" t="s" s="2">
         <v>442</v>
       </c>
       <c r="M392" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="N392" s="2"/>
       <c r="O392" t="s" s="2">
@@ -45928,16 +45924,16 @@
         <v>87</v>
       </c>
       <c r="J394" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K394" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L394" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M394" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N394" s="2"/>
       <c r="O394" t="s" s="2">
@@ -45987,7 +45983,7 @@
         <v>76</v>
       </c>
       <c r="AE394" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF394" t="s" s="2">
         <v>77</v>
@@ -46002,13 +45998,13 @@
         <v>98</v>
       </c>
       <c r="AJ394" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK394" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL394" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM394" t="s" s="2">
         <v>76</v>
@@ -46045,7 +46041,7 @@
         <v>383</v>
       </c>
       <c r="L395" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M395" s="2"/>
       <c r="N395" s="2"/>
@@ -46054,7 +46050,7 @@
       </c>
       <c r="P395" s="2"/>
       <c r="Q395" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R395" t="s" s="2">
         <v>76</v>
@@ -46076,7 +46072,7 @@
       </c>
       <c r="X395" s="2"/>
       <c r="Y395" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z395" t="s" s="2">
         <v>76</v>
@@ -46152,11 +46148,11 @@
         <v>391</v>
       </c>
       <c r="L396" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M396" s="2"/>
       <c r="N396" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O396" t="s" s="2">
         <v>76</v>
@@ -46257,13 +46253,13 @@
         <v>76</v>
       </c>
       <c r="J397" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K397" t="s" s="2">
         <v>399</v>
       </c>
       <c r="L397" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M397" s="2"/>
       <c r="N397" s="2"/>
@@ -46346,7 +46342,7 @@
         <v>360</v>
       </c>
       <c r="B398" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C398" t="s" s="2">
         <v>76</v>
@@ -47386,7 +47382,7 @@
       </c>
       <c r="P407" s="2"/>
       <c r="Q407" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="R407" t="s" s="2">
         <v>76</v>
@@ -47483,13 +47479,13 @@
         <v>88</v>
       </c>
       <c r="K408" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L408" t="s" s="2">
         <v>442</v>
       </c>
       <c r="M408" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N408" s="2"/>
       <c r="O408" t="s" s="2">
@@ -47700,16 +47696,16 @@
         <v>87</v>
       </c>
       <c r="J410" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K410" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L410" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M410" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N410" s="2"/>
       <c r="O410" t="s" s="2">
@@ -47759,7 +47755,7 @@
         <v>76</v>
       </c>
       <c r="AE410" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF410" t="s" s="2">
         <v>77</v>
@@ -47774,13 +47770,13 @@
         <v>98</v>
       </c>
       <c r="AJ410" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK410" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL410" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM410" t="s" s="2">
         <v>76</v>
@@ -47817,7 +47813,7 @@
         <v>383</v>
       </c>
       <c r="L411" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M411" s="2"/>
       <c r="N411" s="2"/>
@@ -47826,7 +47822,7 @@
       </c>
       <c r="P411" s="2"/>
       <c r="Q411" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R411" t="s" s="2">
         <v>76</v>
@@ -47848,7 +47844,7 @@
       </c>
       <c r="X411" s="2"/>
       <c r="Y411" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z411" t="s" s="2">
         <v>76</v>
@@ -47924,11 +47920,11 @@
         <v>391</v>
       </c>
       <c r="L412" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M412" s="2"/>
       <c r="N412" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O412" t="s" s="2">
         <v>76</v>
@@ -48029,13 +48025,13 @@
         <v>76</v>
       </c>
       <c r="J413" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K413" t="s" s="2">
         <v>399</v>
       </c>
       <c r="L413" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M413" s="2"/>
       <c r="N413" s="2"/>
@@ -48118,7 +48114,7 @@
         <v>360</v>
       </c>
       <c r="B414" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C414" t="s" s="2">
         <v>76</v>
@@ -49158,7 +49154,7 @@
       </c>
       <c r="P423" s="2"/>
       <c r="Q423" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="R423" t="s" s="2">
         <v>76</v>
@@ -49255,13 +49251,13 @@
         <v>88</v>
       </c>
       <c r="K424" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L424" t="s" s="2">
         <v>442</v>
       </c>
       <c r="M424" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="N424" s="2"/>
       <c r="O424" t="s" s="2">
@@ -49472,16 +49468,16 @@
         <v>87</v>
       </c>
       <c r="J426" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K426" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L426" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M426" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N426" s="2"/>
       <c r="O426" t="s" s="2">
@@ -49531,7 +49527,7 @@
         <v>76</v>
       </c>
       <c r="AE426" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF426" t="s" s="2">
         <v>77</v>
@@ -49546,13 +49542,13 @@
         <v>98</v>
       </c>
       <c r="AJ426" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK426" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL426" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM426" t="s" s="2">
         <v>76</v>
@@ -49589,7 +49585,7 @@
         <v>383</v>
       </c>
       <c r="L427" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M427" s="2"/>
       <c r="N427" s="2"/>
@@ -49598,7 +49594,7 @@
       </c>
       <c r="P427" s="2"/>
       <c r="Q427" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R427" t="s" s="2">
         <v>76</v>
@@ -49620,7 +49616,7 @@
       </c>
       <c r="X427" s="2"/>
       <c r="Y427" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z427" t="s" s="2">
         <v>76</v>
@@ -49696,11 +49692,11 @@
         <v>391</v>
       </c>
       <c r="L428" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M428" s="2"/>
       <c r="N428" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O428" t="s" s="2">
         <v>76</v>
@@ -49801,13 +49797,13 @@
         <v>76</v>
       </c>
       <c r="J429" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K429" t="s" s="2">
         <v>399</v>
       </c>
       <c r="L429" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M429" s="2"/>
       <c r="N429" s="2"/>
@@ -49890,7 +49886,7 @@
         <v>360</v>
       </c>
       <c r="B430" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C430" t="s" s="2">
         <v>76</v>
@@ -50930,7 +50926,7 @@
       </c>
       <c r="P439" s="2"/>
       <c r="Q439" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="R439" t="s" s="2">
         <v>76</v>
@@ -51027,13 +51023,13 @@
         <v>88</v>
       </c>
       <c r="K440" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L440" t="s" s="2">
         <v>442</v>
       </c>
       <c r="M440" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="N440" s="2"/>
       <c r="O440" t="s" s="2">
@@ -51244,16 +51240,16 @@
         <v>87</v>
       </c>
       <c r="J442" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K442" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L442" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M442" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N442" s="2"/>
       <c r="O442" t="s" s="2">
@@ -51303,7 +51299,7 @@
         <v>76</v>
       </c>
       <c r="AE442" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF442" t="s" s="2">
         <v>77</v>
@@ -51318,13 +51314,13 @@
         <v>98</v>
       </c>
       <c r="AJ442" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK442" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL442" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM442" t="s" s="2">
         <v>76</v>
@@ -51361,7 +51357,7 @@
         <v>383</v>
       </c>
       <c r="L443" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M443" s="2"/>
       <c r="N443" s="2"/>
@@ -51370,7 +51366,7 @@
       </c>
       <c r="P443" s="2"/>
       <c r="Q443" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R443" t="s" s="2">
         <v>76</v>
@@ -51392,7 +51388,7 @@
       </c>
       <c r="X443" s="2"/>
       <c r="Y443" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z443" t="s" s="2">
         <v>76</v>
@@ -51468,11 +51464,11 @@
         <v>391</v>
       </c>
       <c r="L444" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M444" s="2"/>
       <c r="N444" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O444" t="s" s="2">
         <v>76</v>
@@ -51573,13 +51569,13 @@
         <v>76</v>
       </c>
       <c r="J445" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K445" t="s" s="2">
         <v>399</v>
       </c>
       <c r="L445" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M445" s="2"/>
       <c r="N445" s="2"/>
@@ -51662,7 +51658,7 @@
         <v>360</v>
       </c>
       <c r="B446" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C446" t="s" s="2">
         <v>76</v>
@@ -52702,7 +52698,7 @@
       </c>
       <c r="P455" s="2"/>
       <c r="Q455" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="R455" t="s" s="2">
         <v>76</v>
@@ -52799,13 +52795,13 @@
         <v>88</v>
       </c>
       <c r="K456" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="L456" t="s" s="2">
         <v>442</v>
       </c>
       <c r="M456" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N456" s="2"/>
       <c r="O456" t="s" s="2">
@@ -53016,16 +53012,16 @@
         <v>87</v>
       </c>
       <c r="J458" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K458" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L458" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M458" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N458" s="2"/>
       <c r="O458" t="s" s="2">
@@ -53075,7 +53071,7 @@
         <v>76</v>
       </c>
       <c r="AE458" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF458" t="s" s="2">
         <v>77</v>
@@ -53090,13 +53086,13 @@
         <v>98</v>
       </c>
       <c r="AJ458" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK458" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL458" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM458" t="s" s="2">
         <v>76</v>
@@ -53133,7 +53129,7 @@
         <v>383</v>
       </c>
       <c r="L459" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M459" s="2"/>
       <c r="N459" s="2"/>
@@ -53142,7 +53138,7 @@
       </c>
       <c r="P459" s="2"/>
       <c r="Q459" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R459" t="s" s="2">
         <v>76</v>
@@ -53164,7 +53160,7 @@
       </c>
       <c r="X459" s="2"/>
       <c r="Y459" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z459" t="s" s="2">
         <v>76</v>
@@ -53240,11 +53236,11 @@
         <v>391</v>
       </c>
       <c r="L460" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M460" s="2"/>
       <c r="N460" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O460" t="s" s="2">
         <v>76</v>
@@ -53345,13 +53341,13 @@
         <v>76</v>
       </c>
       <c r="J461" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K461" t="s" s="2">
         <v>399</v>
       </c>
       <c r="L461" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M461" s="2"/>
       <c r="N461" s="2"/>
@@ -53434,7 +53430,7 @@
         <v>360</v>
       </c>
       <c r="B462" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C462" t="s" s="2">
         <v>76</v>
@@ -54474,7 +54470,7 @@
       </c>
       <c r="P471" s="2"/>
       <c r="Q471" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="R471" t="s" s="2">
         <v>76</v>
@@ -54571,13 +54567,13 @@
         <v>88</v>
       </c>
       <c r="K472" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L472" t="s" s="2">
         <v>442</v>
       </c>
       <c r="M472" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N472" s="2"/>
       <c r="O472" t="s" s="2">
@@ -54788,16 +54784,16 @@
         <v>87</v>
       </c>
       <c r="J474" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K474" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L474" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M474" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N474" s="2"/>
       <c r="O474" t="s" s="2">
@@ -54847,7 +54843,7 @@
         <v>76</v>
       </c>
       <c r="AE474" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF474" t="s" s="2">
         <v>77</v>
@@ -54862,13 +54858,13 @@
         <v>98</v>
       </c>
       <c r="AJ474" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK474" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL474" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM474" t="s" s="2">
         <v>76</v>
@@ -54905,7 +54901,7 @@
         <v>383</v>
       </c>
       <c r="L475" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M475" s="2"/>
       <c r="N475" s="2"/>
@@ -54914,7 +54910,7 @@
       </c>
       <c r="P475" s="2"/>
       <c r="Q475" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R475" t="s" s="2">
         <v>76</v>
@@ -54936,7 +54932,7 @@
       </c>
       <c r="X475" s="2"/>
       <c r="Y475" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z475" t="s" s="2">
         <v>76</v>
@@ -55012,11 +55008,11 @@
         <v>391</v>
       </c>
       <c r="L476" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M476" s="2"/>
       <c r="N476" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O476" t="s" s="2">
         <v>76</v>
@@ -55117,13 +55113,13 @@
         <v>76</v>
       </c>
       <c r="J477" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K477" t="s" s="2">
         <v>399</v>
       </c>
       <c r="L477" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M477" s="2"/>
       <c r="N477" s="2"/>
@@ -55206,7 +55202,7 @@
         <v>360</v>
       </c>
       <c r="B478" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C478" t="s" s="2">
         <v>76</v>
@@ -56246,7 +56242,7 @@
       </c>
       <c r="P487" s="2"/>
       <c r="Q487" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="R487" t="s" s="2">
         <v>76</v>
@@ -56343,13 +56339,13 @@
         <v>88</v>
       </c>
       <c r="K488" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L488" t="s" s="2">
         <v>442</v>
       </c>
       <c r="M488" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="N488" s="2"/>
       <c r="O488" t="s" s="2">
@@ -56560,16 +56556,16 @@
         <v>87</v>
       </c>
       <c r="J490" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K490" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L490" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M490" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N490" s="2"/>
       <c r="O490" t="s" s="2">
@@ -56619,7 +56615,7 @@
         <v>76</v>
       </c>
       <c r="AE490" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF490" t="s" s="2">
         <v>77</v>
@@ -56634,13 +56630,13 @@
         <v>98</v>
       </c>
       <c r="AJ490" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK490" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL490" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM490" t="s" s="2">
         <v>76</v>
@@ -56677,7 +56673,7 @@
         <v>383</v>
       </c>
       <c r="L491" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M491" s="2"/>
       <c r="N491" s="2"/>
@@ -56686,7 +56682,7 @@
       </c>
       <c r="P491" s="2"/>
       <c r="Q491" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R491" t="s" s="2">
         <v>76</v>
@@ -56708,7 +56704,7 @@
       </c>
       <c r="X491" s="2"/>
       <c r="Y491" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z491" t="s" s="2">
         <v>76</v>
@@ -56784,11 +56780,11 @@
         <v>391</v>
       </c>
       <c r="L492" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M492" s="2"/>
       <c r="N492" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O492" t="s" s="2">
         <v>76</v>
@@ -56889,13 +56885,13 @@
         <v>76</v>
       </c>
       <c r="J493" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K493" t="s" s="2">
         <v>399</v>
       </c>
       <c r="L493" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M493" s="2"/>
       <c r="N493" s="2"/>
@@ -56978,7 +56974,7 @@
         <v>360</v>
       </c>
       <c r="B494" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C494" t="s" s="2">
         <v>76</v>
@@ -58018,7 +58014,7 @@
       </c>
       <c r="P503" s="2"/>
       <c r="Q503" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="R503" t="s" s="2">
         <v>76</v>
@@ -58115,13 +58111,13 @@
         <v>88</v>
       </c>
       <c r="K504" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L504" t="s" s="2">
         <v>442</v>
       </c>
       <c r="M504" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N504" s="2"/>
       <c r="O504" t="s" s="2">
@@ -58332,16 +58328,16 @@
         <v>87</v>
       </c>
       <c r="J506" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K506" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L506" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M506" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N506" s="2"/>
       <c r="O506" t="s" s="2">
@@ -58391,7 +58387,7 @@
         <v>76</v>
       </c>
       <c r="AE506" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF506" t="s" s="2">
         <v>77</v>
@@ -58406,13 +58402,13 @@
         <v>98</v>
       </c>
       <c r="AJ506" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK506" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL506" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM506" t="s" s="2">
         <v>76</v>
@@ -58449,7 +58445,7 @@
         <v>383</v>
       </c>
       <c r="L507" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M507" s="2"/>
       <c r="N507" s="2"/>
@@ -58458,7 +58454,7 @@
       </c>
       <c r="P507" s="2"/>
       <c r="Q507" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R507" t="s" s="2">
         <v>76</v>
@@ -58480,7 +58476,7 @@
       </c>
       <c r="X507" s="2"/>
       <c r="Y507" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z507" t="s" s="2">
         <v>76</v>
@@ -58556,11 +58552,11 @@
         <v>391</v>
       </c>
       <c r="L508" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M508" s="2"/>
       <c r="N508" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O508" t="s" s="2">
         <v>76</v>
@@ -58661,13 +58657,13 @@
         <v>76</v>
       </c>
       <c r="J509" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K509" t="s" s="2">
         <v>399</v>
       </c>
       <c r="L509" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M509" s="2"/>
       <c r="N509" s="2"/>
@@ -58750,7 +58746,7 @@
         <v>360</v>
       </c>
       <c r="B510" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C510" t="s" s="2">
         <v>76</v>
@@ -59790,7 +59786,7 @@
       </c>
       <c r="P519" s="2"/>
       <c r="Q519" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="R519" t="s" s="2">
         <v>76</v>
@@ -59887,13 +59883,13 @@
         <v>88</v>
       </c>
       <c r="K520" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L520" t="s" s="2">
         <v>442</v>
       </c>
       <c r="M520" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N520" s="2"/>
       <c r="O520" t="s" s="2">
@@ -60104,16 +60100,16 @@
         <v>87</v>
       </c>
       <c r="J522" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K522" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L522" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M522" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N522" s="2"/>
       <c r="O522" t="s" s="2">
@@ -60163,7 +60159,7 @@
         <v>76</v>
       </c>
       <c r="AE522" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF522" t="s" s="2">
         <v>77</v>
@@ -60178,13 +60174,13 @@
         <v>98</v>
       </c>
       <c r="AJ522" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK522" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL522" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM522" t="s" s="2">
         <v>76</v>
@@ -60221,7 +60217,7 @@
         <v>383</v>
       </c>
       <c r="L523" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M523" s="2"/>
       <c r="N523" s="2"/>
@@ -60230,7 +60226,7 @@
       </c>
       <c r="P523" s="2"/>
       <c r="Q523" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R523" t="s" s="2">
         <v>76</v>
@@ -60252,7 +60248,7 @@
       </c>
       <c r="X523" s="2"/>
       <c r="Y523" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z523" t="s" s="2">
         <v>76</v>
@@ -60328,11 +60324,11 @@
         <v>391</v>
       </c>
       <c r="L524" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M524" s="2"/>
       <c r="N524" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O524" t="s" s="2">
         <v>76</v>
@@ -60433,13 +60429,13 @@
         <v>76</v>
       </c>
       <c r="J525" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K525" t="s" s="2">
         <v>399</v>
       </c>
       <c r="L525" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M525" s="2"/>
       <c r="N525" s="2"/>
@@ -60522,7 +60518,7 @@
         <v>360</v>
       </c>
       <c r="B526" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C526" t="s" s="2">
         <v>76</v>
@@ -61562,7 +61558,7 @@
       </c>
       <c r="P535" s="2"/>
       <c r="Q535" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="R535" t="s" s="2">
         <v>76</v>
@@ -61659,13 +61655,13 @@
         <v>88</v>
       </c>
       <c r="K536" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="L536" t="s" s="2">
         <v>442</v>
       </c>
       <c r="M536" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N536" s="2"/>
       <c r="O536" t="s" s="2">
@@ -61876,16 +61872,16 @@
         <v>87</v>
       </c>
       <c r="J538" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K538" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L538" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M538" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N538" s="2"/>
       <c r="O538" t="s" s="2">
@@ -61935,7 +61931,7 @@
         <v>76</v>
       </c>
       <c r="AE538" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF538" t="s" s="2">
         <v>77</v>
@@ -61950,13 +61946,13 @@
         <v>98</v>
       </c>
       <c r="AJ538" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK538" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL538" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM538" t="s" s="2">
         <v>76</v>
@@ -61993,7 +61989,7 @@
         <v>383</v>
       </c>
       <c r="L539" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M539" s="2"/>
       <c r="N539" s="2"/>
@@ -62002,7 +61998,7 @@
       </c>
       <c r="P539" s="2"/>
       <c r="Q539" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R539" t="s" s="2">
         <v>76</v>
@@ -62024,7 +62020,7 @@
       </c>
       <c r="X539" s="2"/>
       <c r="Y539" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z539" t="s" s="2">
         <v>76</v>
@@ -62100,11 +62096,11 @@
         <v>391</v>
       </c>
       <c r="L540" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M540" s="2"/>
       <c r="N540" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O540" t="s" s="2">
         <v>76</v>
@@ -62205,13 +62201,13 @@
         <v>76</v>
       </c>
       <c r="J541" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K541" t="s" s="2">
         <v>399</v>
       </c>
       <c r="L541" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M541" s="2"/>
       <c r="N541" s="2"/>
@@ -62294,7 +62290,7 @@
         <v>360</v>
       </c>
       <c r="B542" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C542" t="s" s="2">
         <v>76</v>
@@ -63334,7 +63330,7 @@
       </c>
       <c r="P551" s="2"/>
       <c r="Q551" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="R551" t="s" s="2">
         <v>76</v>
@@ -63431,13 +63427,13 @@
         <v>88</v>
       </c>
       <c r="K552" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L552" t="s" s="2">
         <v>442</v>
       </c>
       <c r="M552" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="N552" s="2"/>
       <c r="O552" t="s" s="2">
@@ -63648,16 +63644,16 @@
         <v>87</v>
       </c>
       <c r="J554" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K554" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L554" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M554" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N554" s="2"/>
       <c r="O554" t="s" s="2">
@@ -63707,7 +63703,7 @@
         <v>76</v>
       </c>
       <c r="AE554" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF554" t="s" s="2">
         <v>77</v>
@@ -63722,13 +63718,13 @@
         <v>98</v>
       </c>
       <c r="AJ554" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK554" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL554" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM554" t="s" s="2">
         <v>76</v>
@@ -63765,7 +63761,7 @@
         <v>383</v>
       </c>
       <c r="L555" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M555" s="2"/>
       <c r="N555" s="2"/>
@@ -63774,7 +63770,7 @@
       </c>
       <c r="P555" s="2"/>
       <c r="Q555" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R555" t="s" s="2">
         <v>76</v>
@@ -63796,7 +63792,7 @@
       </c>
       <c r="X555" s="2"/>
       <c r="Y555" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z555" t="s" s="2">
         <v>76</v>
@@ -63872,11 +63868,11 @@
         <v>391</v>
       </c>
       <c r="L556" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M556" s="2"/>
       <c r="N556" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O556" t="s" s="2">
         <v>76</v>
@@ -63977,13 +63973,13 @@
         <v>76</v>
       </c>
       <c r="J557" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K557" t="s" s="2">
         <v>399</v>
       </c>
       <c r="L557" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M557" s="2"/>
       <c r="N557" s="2"/>
@@ -64066,7 +64062,7 @@
         <v>360</v>
       </c>
       <c r="B558" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C558" t="s" s="2">
         <v>76</v>
@@ -65106,7 +65102,7 @@
       </c>
       <c r="P567" s="2"/>
       <c r="Q567" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="R567" t="s" s="2">
         <v>76</v>
@@ -65203,13 +65199,13 @@
         <v>88</v>
       </c>
       <c r="K568" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="L568" t="s" s="2">
         <v>442</v>
       </c>
       <c r="M568" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="N568" s="2"/>
       <c r="O568" t="s" s="2">
@@ -65420,16 +65416,16 @@
         <v>87</v>
       </c>
       <c r="J570" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K570" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L570" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M570" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N570" s="2"/>
       <c r="O570" t="s" s="2">
@@ -65479,7 +65475,7 @@
         <v>76</v>
       </c>
       <c r="AE570" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF570" t="s" s="2">
         <v>77</v>
@@ -65494,13 +65490,13 @@
         <v>98</v>
       </c>
       <c r="AJ570" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK570" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL570" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM570" t="s" s="2">
         <v>76</v>
@@ -65537,7 +65533,7 @@
         <v>383</v>
       </c>
       <c r="L571" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M571" s="2"/>
       <c r="N571" s="2"/>
@@ -65546,7 +65542,7 @@
       </c>
       <c r="P571" s="2"/>
       <c r="Q571" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R571" t="s" s="2">
         <v>76</v>
@@ -65568,7 +65564,7 @@
       </c>
       <c r="X571" s="2"/>
       <c r="Y571" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z571" t="s" s="2">
         <v>76</v>
@@ -65644,11 +65640,11 @@
         <v>391</v>
       </c>
       <c r="L572" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M572" s="2"/>
       <c r="N572" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O572" t="s" s="2">
         <v>76</v>
@@ -65749,13 +65745,13 @@
         <v>76</v>
       </c>
       <c r="J573" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K573" t="s" s="2">
         <v>399</v>
       </c>
       <c r="L573" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M573" s="2"/>
       <c r="N573" s="2"/>
@@ -65838,7 +65834,7 @@
         <v>360</v>
       </c>
       <c r="B574" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C574" t="s" s="2">
         <v>76</v>
@@ -66878,7 +66874,7 @@
       </c>
       <c r="P583" s="2"/>
       <c r="Q583" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="R583" t="s" s="2">
         <v>76</v>
@@ -66975,13 +66971,13 @@
         <v>88</v>
       </c>
       <c r="K584" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L584" t="s" s="2">
         <v>442</v>
       </c>
       <c r="M584" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="N584" s="2"/>
       <c r="O584" t="s" s="2">
@@ -67192,16 +67188,16 @@
         <v>87</v>
       </c>
       <c r="J586" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K586" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L586" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M586" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N586" s="2"/>
       <c r="O586" t="s" s="2">
@@ -67251,7 +67247,7 @@
         <v>76</v>
       </c>
       <c r="AE586" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF586" t="s" s="2">
         <v>77</v>
@@ -67266,13 +67262,13 @@
         <v>98</v>
       </c>
       <c r="AJ586" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK586" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL586" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM586" t="s" s="2">
         <v>76</v>
@@ -67309,7 +67305,7 @@
         <v>383</v>
       </c>
       <c r="L587" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M587" s="2"/>
       <c r="N587" s="2"/>
@@ -67318,7 +67314,7 @@
       </c>
       <c r="P587" s="2"/>
       <c r="Q587" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R587" t="s" s="2">
         <v>76</v>
@@ -67340,7 +67336,7 @@
       </c>
       <c r="X587" s="2"/>
       <c r="Y587" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z587" t="s" s="2">
         <v>76</v>
@@ -67416,11 +67412,11 @@
         <v>391</v>
       </c>
       <c r="L588" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M588" s="2"/>
       <c r="N588" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O588" t="s" s="2">
         <v>76</v>
@@ -67521,13 +67517,13 @@
         <v>76</v>
       </c>
       <c r="J589" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K589" t="s" s="2">
         <v>399</v>
       </c>
       <c r="L589" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M589" s="2"/>
       <c r="N589" s="2"/>
@@ -67610,7 +67606,7 @@
         <v>360</v>
       </c>
       <c r="B590" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C590" t="s" s="2">
         <v>76</v>
@@ -68650,7 +68646,7 @@
       </c>
       <c r="P599" s="2"/>
       <c r="Q599" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="R599" t="s" s="2">
         <v>76</v>
@@ -68747,13 +68743,13 @@
         <v>88</v>
       </c>
       <c r="K600" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L600" t="s" s="2">
         <v>442</v>
       </c>
       <c r="M600" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="N600" s="2"/>
       <c r="O600" t="s" s="2">
@@ -68964,16 +68960,16 @@
         <v>87</v>
       </c>
       <c r="J602" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K602" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L602" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M602" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N602" s="2"/>
       <c r="O602" t="s" s="2">
@@ -69023,7 +69019,7 @@
         <v>76</v>
       </c>
       <c r="AE602" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF602" t="s" s="2">
         <v>77</v>
@@ -69038,13 +69034,13 @@
         <v>98</v>
       </c>
       <c r="AJ602" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK602" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL602" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM602" t="s" s="2">
         <v>76</v>
@@ -69081,7 +69077,7 @@
         <v>383</v>
       </c>
       <c r="L603" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M603" s="2"/>
       <c r="N603" s="2"/>
@@ -69090,7 +69086,7 @@
       </c>
       <c r="P603" s="2"/>
       <c r="Q603" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R603" t="s" s="2">
         <v>76</v>
@@ -69112,7 +69108,7 @@
       </c>
       <c r="X603" s="2"/>
       <c r="Y603" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z603" t="s" s="2">
         <v>76</v>
@@ -69188,11 +69184,11 @@
         <v>391</v>
       </c>
       <c r="L604" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M604" s="2"/>
       <c r="N604" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O604" t="s" s="2">
         <v>76</v>
@@ -69293,13 +69289,13 @@
         <v>76</v>
       </c>
       <c r="J605" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K605" t="s" s="2">
         <v>399</v>
       </c>
       <c r="L605" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M605" s="2"/>
       <c r="N605" s="2"/>
@@ -69382,7 +69378,7 @@
         <v>360</v>
       </c>
       <c r="B606" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C606" t="s" s="2">
         <v>76</v>
@@ -70422,7 +70418,7 @@
       </c>
       <c r="P615" s="2"/>
       <c r="Q615" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="R615" t="s" s="2">
         <v>76</v>
@@ -70519,13 +70515,13 @@
         <v>88</v>
       </c>
       <c r="K616" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="L616" t="s" s="2">
         <v>442</v>
       </c>
       <c r="M616" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N616" s="2"/>
       <c r="O616" t="s" s="2">
@@ -70736,16 +70732,16 @@
         <v>87</v>
       </c>
       <c r="J618" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K618" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L618" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M618" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N618" s="2"/>
       <c r="O618" t="s" s="2">
@@ -70795,7 +70791,7 @@
         <v>76</v>
       </c>
       <c r="AE618" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF618" t="s" s="2">
         <v>77</v>
@@ -70810,13 +70806,13 @@
         <v>98</v>
       </c>
       <c r="AJ618" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK618" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL618" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM618" t="s" s="2">
         <v>76</v>
@@ -70853,7 +70849,7 @@
         <v>383</v>
       </c>
       <c r="L619" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M619" s="2"/>
       <c r="N619" s="2"/>
@@ -70862,7 +70858,7 @@
       </c>
       <c r="P619" s="2"/>
       <c r="Q619" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R619" t="s" s="2">
         <v>76</v>
@@ -70884,7 +70880,7 @@
       </c>
       <c r="X619" s="2"/>
       <c r="Y619" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z619" t="s" s="2">
         <v>76</v>
@@ -70960,11 +70956,11 @@
         <v>391</v>
       </c>
       <c r="L620" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M620" s="2"/>
       <c r="N620" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O620" t="s" s="2">
         <v>76</v>
@@ -71065,13 +71061,13 @@
         <v>76</v>
       </c>
       <c r="J621" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K621" t="s" s="2">
         <v>399</v>
       </c>
       <c r="L621" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M621" s="2"/>
       <c r="N621" s="2"/>
@@ -71154,7 +71150,7 @@
         <v>360</v>
       </c>
       <c r="B622" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C622" t="s" s="2">
         <v>76</v>
@@ -72194,7 +72190,7 @@
       </c>
       <c r="P631" s="2"/>
       <c r="Q631" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="R631" t="s" s="2">
         <v>76</v>
@@ -72291,13 +72287,13 @@
         <v>88</v>
       </c>
       <c r="K632" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="L632" t="s" s="2">
         <v>442</v>
       </c>
       <c r="M632" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="N632" s="2"/>
       <c r="O632" t="s" s="2">
@@ -72508,16 +72504,16 @@
         <v>87</v>
       </c>
       <c r="J634" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K634" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L634" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M634" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N634" s="2"/>
       <c r="O634" t="s" s="2">
@@ -72567,7 +72563,7 @@
         <v>76</v>
       </c>
       <c r="AE634" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF634" t="s" s="2">
         <v>77</v>
@@ -72582,13 +72578,13 @@
         <v>98</v>
       </c>
       <c r="AJ634" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK634" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL634" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM634" t="s" s="2">
         <v>76</v>
@@ -72625,7 +72621,7 @@
         <v>383</v>
       </c>
       <c r="L635" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M635" s="2"/>
       <c r="N635" s="2"/>
@@ -72634,7 +72630,7 @@
       </c>
       <c r="P635" s="2"/>
       <c r="Q635" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R635" t="s" s="2">
         <v>76</v>
@@ -72656,7 +72652,7 @@
       </c>
       <c r="X635" s="2"/>
       <c r="Y635" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z635" t="s" s="2">
         <v>76</v>
@@ -72732,11 +72728,11 @@
         <v>391</v>
       </c>
       <c r="L636" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M636" s="2"/>
       <c r="N636" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O636" t="s" s="2">
         <v>76</v>
@@ -72837,13 +72833,13 @@
         <v>76</v>
       </c>
       <c r="J637" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K637" t="s" s="2">
         <v>399</v>
       </c>
       <c r="L637" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M637" s="2"/>
       <c r="N637" s="2"/>
@@ -72926,7 +72922,7 @@
         <v>360</v>
       </c>
       <c r="B638" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C638" t="s" s="2">
         <v>76</v>
@@ -73966,7 +73962,7 @@
       </c>
       <c r="P647" s="2"/>
       <c r="Q647" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="R647" t="s" s="2">
         <v>76</v>
@@ -74063,13 +74059,13 @@
         <v>88</v>
       </c>
       <c r="K648" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L648" t="s" s="2">
         <v>442</v>
       </c>
       <c r="M648" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="N648" s="2"/>
       <c r="O648" t="s" s="2">
@@ -74280,16 +74276,16 @@
         <v>87</v>
       </c>
       <c r="J650" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K650" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L650" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M650" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N650" s="2"/>
       <c r="O650" t="s" s="2">
@@ -74339,7 +74335,7 @@
         <v>76</v>
       </c>
       <c r="AE650" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF650" t="s" s="2">
         <v>77</v>
@@ -74354,13 +74350,13 @@
         <v>98</v>
       </c>
       <c r="AJ650" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK650" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL650" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM650" t="s" s="2">
         <v>76</v>
@@ -74397,7 +74393,7 @@
         <v>383</v>
       </c>
       <c r="L651" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M651" s="2"/>
       <c r="N651" s="2"/>
@@ -74406,7 +74402,7 @@
       </c>
       <c r="P651" s="2"/>
       <c r="Q651" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R651" t="s" s="2">
         <v>76</v>
@@ -74428,7 +74424,7 @@
       </c>
       <c r="X651" s="2"/>
       <c r="Y651" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z651" t="s" s="2">
         <v>76</v>
@@ -74504,11 +74500,11 @@
         <v>391</v>
       </c>
       <c r="L652" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M652" s="2"/>
       <c r="N652" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O652" t="s" s="2">
         <v>76</v>
@@ -74609,13 +74605,13 @@
         <v>76</v>
       </c>
       <c r="J653" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K653" t="s" s="2">
         <v>399</v>
       </c>
       <c r="L653" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M653" s="2"/>
       <c r="N653" s="2"/>
@@ -74698,7 +74694,7 @@
         <v>360</v>
       </c>
       <c r="B654" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C654" t="s" s="2">
         <v>76</v>
@@ -75738,7 +75734,7 @@
       </c>
       <c r="P663" s="2"/>
       <c r="Q663" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="R663" t="s" s="2">
         <v>76</v>
@@ -75835,13 +75831,13 @@
         <v>88</v>
       </c>
       <c r="K664" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="L664" t="s" s="2">
         <v>442</v>
       </c>
       <c r="M664" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="N664" s="2"/>
       <c r="O664" t="s" s="2">
@@ -76052,16 +76048,16 @@
         <v>87</v>
       </c>
       <c r="J666" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K666" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L666" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M666" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N666" s="2"/>
       <c r="O666" t="s" s="2">
@@ -76111,7 +76107,7 @@
         <v>76</v>
       </c>
       <c r="AE666" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF666" t="s" s="2">
         <v>77</v>
@@ -76126,13 +76122,13 @@
         <v>98</v>
       </c>
       <c r="AJ666" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK666" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL666" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM666" t="s" s="2">
         <v>76</v>
@@ -76169,7 +76165,7 @@
         <v>383</v>
       </c>
       <c r="L667" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M667" s="2"/>
       <c r="N667" s="2"/>
@@ -76178,7 +76174,7 @@
       </c>
       <c r="P667" s="2"/>
       <c r="Q667" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R667" t="s" s="2">
         <v>76</v>
@@ -76200,7 +76196,7 @@
       </c>
       <c r="X667" s="2"/>
       <c r="Y667" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z667" t="s" s="2">
         <v>76</v>
@@ -76276,11 +76272,11 @@
         <v>391</v>
       </c>
       <c r="L668" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M668" s="2"/>
       <c r="N668" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O668" t="s" s="2">
         <v>76</v>
@@ -76381,13 +76377,13 @@
         <v>76</v>
       </c>
       <c r="J669" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K669" t="s" s="2">
         <v>399</v>
       </c>
       <c r="L669" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M669" s="2"/>
       <c r="N669" s="2"/>
@@ -76470,7 +76466,7 @@
         <v>360</v>
       </c>
       <c r="B670" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C670" t="s" s="2">
         <v>76</v>
@@ -77510,7 +77506,7 @@
       </c>
       <c r="P679" s="2"/>
       <c r="Q679" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="R679" t="s" s="2">
         <v>76</v>
@@ -77607,13 +77603,13 @@
         <v>88</v>
       </c>
       <c r="K680" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="L680" t="s" s="2">
         <v>442</v>
       </c>
       <c r="M680" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="N680" s="2"/>
       <c r="O680" t="s" s="2">
@@ -77824,16 +77820,16 @@
         <v>87</v>
       </c>
       <c r="J682" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K682" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L682" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M682" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N682" s="2"/>
       <c r="O682" t="s" s="2">
@@ -77883,7 +77879,7 @@
         <v>76</v>
       </c>
       <c r="AE682" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF682" t="s" s="2">
         <v>77</v>
@@ -77898,13 +77894,13 @@
         <v>98</v>
       </c>
       <c r="AJ682" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK682" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL682" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM682" t="s" s="2">
         <v>76</v>
@@ -77941,7 +77937,7 @@
         <v>383</v>
       </c>
       <c r="L683" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M683" s="2"/>
       <c r="N683" s="2"/>
@@ -77950,7 +77946,7 @@
       </c>
       <c r="P683" s="2"/>
       <c r="Q683" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R683" t="s" s="2">
         <v>76</v>
@@ -77972,7 +77968,7 @@
       </c>
       <c r="X683" s="2"/>
       <c r="Y683" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z683" t="s" s="2">
         <v>76</v>
@@ -78048,11 +78044,11 @@
         <v>391</v>
       </c>
       <c r="L684" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M684" s="2"/>
       <c r="N684" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O684" t="s" s="2">
         <v>76</v>
@@ -78153,13 +78149,13 @@
         <v>76</v>
       </c>
       <c r="J685" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K685" t="s" s="2">
         <v>399</v>
       </c>
       <c r="L685" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M685" s="2"/>
       <c r="N685" s="2"/>
@@ -78242,7 +78238,7 @@
         <v>360</v>
       </c>
       <c r="B686" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C686" t="s" s="2">
         <v>76</v>
@@ -79282,7 +79278,7 @@
       </c>
       <c r="P695" s="2"/>
       <c r="Q695" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="R695" t="s" s="2">
         <v>76</v>
@@ -79379,13 +79375,13 @@
         <v>88</v>
       </c>
       <c r="K696" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L696" t="s" s="2">
         <v>442</v>
       </c>
       <c r="M696" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="N696" s="2"/>
       <c r="O696" t="s" s="2">
@@ -79596,16 +79592,16 @@
         <v>87</v>
       </c>
       <c r="J698" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K698" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L698" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M698" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N698" s="2"/>
       <c r="O698" t="s" s="2">
@@ -79655,7 +79651,7 @@
         <v>76</v>
       </c>
       <c r="AE698" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF698" t="s" s="2">
         <v>77</v>
@@ -79670,13 +79666,13 @@
         <v>98</v>
       </c>
       <c r="AJ698" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK698" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL698" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM698" t="s" s="2">
         <v>76</v>
@@ -79713,7 +79709,7 @@
         <v>383</v>
       </c>
       <c r="L699" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M699" s="2"/>
       <c r="N699" s="2"/>
@@ -79722,7 +79718,7 @@
       </c>
       <c r="P699" s="2"/>
       <c r="Q699" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R699" t="s" s="2">
         <v>76</v>
@@ -79744,7 +79740,7 @@
       </c>
       <c r="X699" s="2"/>
       <c r="Y699" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z699" t="s" s="2">
         <v>76</v>
@@ -79820,11 +79816,11 @@
         <v>391</v>
       </c>
       <c r="L700" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M700" s="2"/>
       <c r="N700" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O700" t="s" s="2">
         <v>76</v>
@@ -79925,13 +79921,13 @@
         <v>76</v>
       </c>
       <c r="J701" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K701" t="s" s="2">
         <v>399</v>
       </c>
       <c r="L701" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M701" s="2"/>
       <c r="N701" s="2"/>
@@ -80014,7 +80010,7 @@
         <v>360</v>
       </c>
       <c r="B702" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C702" t="s" s="2">
         <v>76</v>
@@ -81054,7 +81050,7 @@
       </c>
       <c r="P711" s="2"/>
       <c r="Q711" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="R711" t="s" s="2">
         <v>76</v>
@@ -81151,13 +81147,13 @@
         <v>88</v>
       </c>
       <c r="K712" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L712" t="s" s="2">
         <v>442</v>
       </c>
       <c r="M712" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="N712" s="2"/>
       <c r="O712" t="s" s="2">
@@ -81368,16 +81364,16 @@
         <v>87</v>
       </c>
       <c r="J714" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K714" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L714" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M714" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N714" s="2"/>
       <c r="O714" t="s" s="2">
@@ -81427,7 +81423,7 @@
         <v>76</v>
       </c>
       <c r="AE714" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF714" t="s" s="2">
         <v>77</v>
@@ -81442,13 +81438,13 @@
         <v>98</v>
       </c>
       <c r="AJ714" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK714" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL714" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM714" t="s" s="2">
         <v>76</v>
@@ -81485,7 +81481,7 @@
         <v>383</v>
       </c>
       <c r="L715" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M715" s="2"/>
       <c r="N715" s="2"/>
@@ -81494,7 +81490,7 @@
       </c>
       <c r="P715" s="2"/>
       <c r="Q715" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R715" t="s" s="2">
         <v>76</v>
@@ -81516,7 +81512,7 @@
       </c>
       <c r="X715" s="2"/>
       <c r="Y715" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z715" t="s" s="2">
         <v>76</v>
@@ -81592,11 +81588,11 @@
         <v>391</v>
       </c>
       <c r="L716" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M716" s="2"/>
       <c r="N716" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O716" t="s" s="2">
         <v>76</v>
@@ -81697,13 +81693,13 @@
         <v>76</v>
       </c>
       <c r="J717" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K717" t="s" s="2">
         <v>399</v>
       </c>
       <c r="L717" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M717" s="2"/>
       <c r="N717" s="2"/>
@@ -81786,7 +81782,7 @@
         <v>360</v>
       </c>
       <c r="B718" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C718" t="s" s="2">
         <v>76</v>
@@ -82826,7 +82822,7 @@
       </c>
       <c r="P727" s="2"/>
       <c r="Q727" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="R727" t="s" s="2">
         <v>76</v>
@@ -82923,13 +82919,13 @@
         <v>88</v>
       </c>
       <c r="K728" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="L728" t="s" s="2">
         <v>442</v>
       </c>
       <c r="M728" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N728" s="2"/>
       <c r="O728" t="s" s="2">
@@ -83140,16 +83136,16 @@
         <v>87</v>
       </c>
       <c r="J730" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K730" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L730" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M730" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N730" s="2"/>
       <c r="O730" t="s" s="2">
@@ -83199,7 +83195,7 @@
         <v>76</v>
       </c>
       <c r="AE730" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF730" t="s" s="2">
         <v>77</v>
@@ -83214,13 +83210,13 @@
         <v>98</v>
       </c>
       <c r="AJ730" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK730" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL730" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM730" t="s" s="2">
         <v>76</v>
@@ -83257,7 +83253,7 @@
         <v>383</v>
       </c>
       <c r="L731" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M731" s="2"/>
       <c r="N731" s="2"/>
@@ -83266,7 +83262,7 @@
       </c>
       <c r="P731" s="2"/>
       <c r="Q731" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R731" t="s" s="2">
         <v>76</v>
@@ -83288,7 +83284,7 @@
       </c>
       <c r="X731" s="2"/>
       <c r="Y731" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z731" t="s" s="2">
         <v>76</v>
@@ -83364,11 +83360,11 @@
         <v>391</v>
       </c>
       <c r="L732" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M732" s="2"/>
       <c r="N732" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O732" t="s" s="2">
         <v>76</v>
@@ -83469,13 +83465,13 @@
         <v>76</v>
       </c>
       <c r="J733" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K733" t="s" s="2">
         <v>399</v>
       </c>
       <c r="L733" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M733" s="2"/>
       <c r="N733" s="2"/>
@@ -83558,7 +83554,7 @@
         <v>360</v>
       </c>
       <c r="B734" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C734" t="s" s="2">
         <v>76</v>
@@ -84598,7 +84594,7 @@
       </c>
       <c r="P743" s="2"/>
       <c r="Q743" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="R743" t="s" s="2">
         <v>76</v>
@@ -84695,13 +84691,13 @@
         <v>88</v>
       </c>
       <c r="K744" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="L744" t="s" s="2">
         <v>442</v>
       </c>
       <c r="M744" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="N744" s="2"/>
       <c r="O744" t="s" s="2">
@@ -84912,16 +84908,16 @@
         <v>87</v>
       </c>
       <c r="J746" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K746" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L746" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M746" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N746" s="2"/>
       <c r="O746" t="s" s="2">
@@ -84971,7 +84967,7 @@
         <v>76</v>
       </c>
       <c r="AE746" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF746" t="s" s="2">
         <v>77</v>
@@ -84986,13 +84982,13 @@
         <v>98</v>
       </c>
       <c r="AJ746" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK746" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL746" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM746" t="s" s="2">
         <v>76</v>
@@ -85029,7 +85025,7 @@
         <v>383</v>
       </c>
       <c r="L747" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M747" s="2"/>
       <c r="N747" s="2"/>
@@ -85038,7 +85034,7 @@
       </c>
       <c r="P747" s="2"/>
       <c r="Q747" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R747" t="s" s="2">
         <v>76</v>
@@ -85060,7 +85056,7 @@
       </c>
       <c r="X747" s="2"/>
       <c r="Y747" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z747" t="s" s="2">
         <v>76</v>
@@ -85136,11 +85132,11 @@
         <v>391</v>
       </c>
       <c r="L748" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M748" s="2"/>
       <c r="N748" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O748" t="s" s="2">
         <v>76</v>
@@ -85241,13 +85237,13 @@
         <v>76</v>
       </c>
       <c r="J749" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K749" t="s" s="2">
         <v>399</v>
       </c>
       <c r="L749" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M749" s="2"/>
       <c r="N749" s="2"/>
@@ -85330,7 +85326,7 @@
         <v>360</v>
       </c>
       <c r="B750" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C750" t="s" s="2">
         <v>76</v>
@@ -86370,7 +86366,7 @@
       </c>
       <c r="P759" s="2"/>
       <c r="Q759" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="R759" t="s" s="2">
         <v>76</v>
@@ -86467,13 +86463,13 @@
         <v>88</v>
       </c>
       <c r="K760" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="L760" t="s" s="2">
         <v>442</v>
       </c>
       <c r="M760" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="N760" s="2"/>
       <c r="O760" t="s" s="2">
@@ -86684,16 +86680,16 @@
         <v>87</v>
       </c>
       <c r="J762" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K762" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L762" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M762" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N762" s="2"/>
       <c r="O762" t="s" s="2">
@@ -86743,7 +86739,7 @@
         <v>76</v>
       </c>
       <c r="AE762" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF762" t="s" s="2">
         <v>77</v>
@@ -86758,13 +86754,13 @@
         <v>98</v>
       </c>
       <c r="AJ762" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK762" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL762" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM762" t="s" s="2">
         <v>76</v>
@@ -86801,7 +86797,7 @@
         <v>383</v>
       </c>
       <c r="L763" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M763" s="2"/>
       <c r="N763" s="2"/>
@@ -86810,7 +86806,7 @@
       </c>
       <c r="P763" s="2"/>
       <c r="Q763" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R763" t="s" s="2">
         <v>76</v>
@@ -86832,7 +86828,7 @@
       </c>
       <c r="X763" s="2"/>
       <c r="Y763" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z763" t="s" s="2">
         <v>76</v>
@@ -86908,11 +86904,11 @@
         <v>391</v>
       </c>
       <c r="L764" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M764" s="2"/>
       <c r="N764" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O764" t="s" s="2">
         <v>76</v>
@@ -87013,13 +87009,13 @@
         <v>76</v>
       </c>
       <c r="J765" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K765" t="s" s="2">
         <v>399</v>
       </c>
       <c r="L765" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M765" s="2"/>
       <c r="N765" s="2"/>
@@ -87102,7 +87098,7 @@
         <v>360</v>
       </c>
       <c r="B766" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C766" t="s" s="2">
         <v>76</v>
@@ -88142,7 +88138,7 @@
       </c>
       <c r="P775" s="2"/>
       <c r="Q775" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="R775" t="s" s="2">
         <v>76</v>
@@ -88239,13 +88235,13 @@
         <v>88</v>
       </c>
       <c r="K776" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="L776" t="s" s="2">
         <v>442</v>
       </c>
       <c r="M776" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="N776" s="2"/>
       <c r="O776" t="s" s="2">
@@ -88456,16 +88452,16 @@
         <v>87</v>
       </c>
       <c r="J778" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K778" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L778" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M778" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N778" s="2"/>
       <c r="O778" t="s" s="2">
@@ -88515,7 +88511,7 @@
         <v>76</v>
       </c>
       <c r="AE778" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF778" t="s" s="2">
         <v>77</v>
@@ -88530,13 +88526,13 @@
         <v>98</v>
       </c>
       <c r="AJ778" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK778" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL778" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM778" t="s" s="2">
         <v>76</v>
@@ -88573,7 +88569,7 @@
         <v>383</v>
       </c>
       <c r="L779" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M779" s="2"/>
       <c r="N779" s="2"/>
@@ -88582,7 +88578,7 @@
       </c>
       <c r="P779" s="2"/>
       <c r="Q779" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R779" t="s" s="2">
         <v>76</v>
@@ -88604,7 +88600,7 @@
       </c>
       <c r="X779" s="2"/>
       <c r="Y779" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z779" t="s" s="2">
         <v>76</v>
@@ -88680,11 +88676,11 @@
         <v>391</v>
       </c>
       <c r="L780" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M780" s="2"/>
       <c r="N780" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O780" t="s" s="2">
         <v>76</v>
@@ -88785,13 +88781,13 @@
         <v>76</v>
       </c>
       <c r="J781" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K781" t="s" s="2">
         <v>399</v>
       </c>
       <c r="L781" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M781" s="2"/>
       <c r="N781" s="2"/>
@@ -88874,7 +88870,7 @@
         <v>360</v>
       </c>
       <c r="B782" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C782" t="s" s="2">
         <v>76</v>
@@ -89914,7 +89910,7 @@
       </c>
       <c r="P791" s="2"/>
       <c r="Q791" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="R791" t="s" s="2">
         <v>76</v>
@@ -90011,13 +90007,13 @@
         <v>88</v>
       </c>
       <c r="K792" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="L792" t="s" s="2">
         <v>442</v>
       </c>
       <c r="M792" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="N792" s="2"/>
       <c r="O792" t="s" s="2">
@@ -90228,16 +90224,16 @@
         <v>87</v>
       </c>
       <c r="J794" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K794" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L794" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M794" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N794" s="2"/>
       <c r="O794" t="s" s="2">
@@ -90287,7 +90283,7 @@
         <v>76</v>
       </c>
       <c r="AE794" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF794" t="s" s="2">
         <v>77</v>
@@ -90302,13 +90298,13 @@
         <v>98</v>
       </c>
       <c r="AJ794" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK794" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL794" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM794" t="s" s="2">
         <v>76</v>
@@ -90345,7 +90341,7 @@
         <v>383</v>
       </c>
       <c r="L795" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M795" s="2"/>
       <c r="N795" s="2"/>
@@ -90354,7 +90350,7 @@
       </c>
       <c r="P795" s="2"/>
       <c r="Q795" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R795" t="s" s="2">
         <v>76</v>
@@ -90376,7 +90372,7 @@
       </c>
       <c r="X795" s="2"/>
       <c r="Y795" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z795" t="s" s="2">
         <v>76</v>
@@ -90452,11 +90448,11 @@
         <v>391</v>
       </c>
       <c r="L796" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M796" s="2"/>
       <c r="N796" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O796" t="s" s="2">
         <v>76</v>
@@ -90557,13 +90553,13 @@
         <v>76</v>
       </c>
       <c r="J797" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K797" t="s" s="2">
         <v>399</v>
       </c>
       <c r="L797" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M797" s="2"/>
       <c r="N797" s="2"/>
@@ -90646,7 +90642,7 @@
         <v>360</v>
       </c>
       <c r="B798" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C798" t="s" s="2">
         <v>76</v>
@@ -91686,7 +91682,7 @@
       </c>
       <c r="P807" s="2"/>
       <c r="Q807" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="R807" t="s" s="2">
         <v>76</v>
@@ -91783,13 +91779,13 @@
         <v>88</v>
       </c>
       <c r="K808" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="L808" t="s" s="2">
         <v>442</v>
       </c>
       <c r="M808" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="N808" s="2"/>
       <c r="O808" t="s" s="2">
@@ -92000,16 +91996,16 @@
         <v>87</v>
       </c>
       <c r="J810" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K810" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L810" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M810" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N810" s="2"/>
       <c r="O810" t="s" s="2">
@@ -92059,7 +92055,7 @@
         <v>76</v>
       </c>
       <c r="AE810" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF810" t="s" s="2">
         <v>77</v>
@@ -92074,13 +92070,13 @@
         <v>98</v>
       </c>
       <c r="AJ810" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK810" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL810" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM810" t="s" s="2">
         <v>76</v>
@@ -92117,7 +92113,7 @@
         <v>383</v>
       </c>
       <c r="L811" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M811" s="2"/>
       <c r="N811" s="2"/>
@@ -92126,7 +92122,7 @@
       </c>
       <c r="P811" s="2"/>
       <c r="Q811" t="s" s="2">
-        <v>608</v>
+        <v>76</v>
       </c>
       <c r="R811" t="s" s="2">
         <v>76</v>
@@ -92148,7 +92144,7 @@
       </c>
       <c r="X811" s="2"/>
       <c r="Y811" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z811" t="s" s="2">
         <v>76</v>
@@ -92224,11 +92220,11 @@
         <v>391</v>
       </c>
       <c r="L812" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M812" s="2"/>
       <c r="N812" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O812" t="s" s="2">
         <v>76</v>
@@ -92329,13 +92325,13 @@
         <v>76</v>
       </c>
       <c r="J813" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K813" t="s" s="2">
         <v>399</v>
       </c>
       <c r="L813" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M813" s="2"/>
       <c r="N813" s="2"/>

--- a/jpcore-r4/feature/swg3-practioner免許コードの追加/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/feature/swg3-practioner免許コードの追加/StructureDefinition-jp-practitioner.xlsx
@@ -1490,10 +1490,6 @@
     <t>Practitioner.qualification.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
     <t>Organization that issued id (may be just text)</t>
   </si>
   <si>
@@ -1533,6 +1529,10 @@
   </si>
   <si>
     <t>Qualifications are often for a limited period of time, and can be revoked.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
   </si>
   <si>
     <t>Organization that regulates and issues the qualification.</t>
@@ -8712,16 +8712,16 @@
         <v>87</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8771,7 +8771,7 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8786,13 +8786,13 @@
         <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK58" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK58" t="s" s="2">
+      <c r="AL58" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>76</v>
@@ -8829,7 +8829,7 @@
         <v>383</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8838,7 +8838,7 @@
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R59" t="s" s="2">
         <v>76</v>
@@ -8860,7 +8860,7 @@
       </c>
       <c r="X59" s="2"/>
       <c r="Y59" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>76</v>
@@ -8936,11 +8936,11 @@
         <v>391</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>76</v>
@@ -9041,7 +9041,7 @@
         <v>76</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>399</v>
@@ -10484,16 +10484,16 @@
         <v>87</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10543,7 +10543,7 @@
         <v>76</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10558,13 +10558,13 @@
         <v>98</v>
       </c>
       <c r="AJ74" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK74" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK74" t="s" s="2">
+      <c r="AL74" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>76</v>
@@ -10601,7 +10601,7 @@
         <v>383</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10610,7 +10610,7 @@
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R75" t="s" s="2">
         <v>76</v>
@@ -10632,7 +10632,7 @@
       </c>
       <c r="X75" s="2"/>
       <c r="Y75" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>76</v>
@@ -10708,11 +10708,11 @@
         <v>391</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>76</v>
@@ -10813,7 +10813,7 @@
         <v>76</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>399</v>
@@ -12256,16 +12256,16 @@
         <v>87</v>
       </c>
       <c r="J90" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K90" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K90" t="s" s="2">
+      <c r="L90" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12315,7 +12315,7 @@
         <v>76</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12330,13 +12330,13 @@
         <v>98</v>
       </c>
       <c r="AJ90" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK90" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK90" t="s" s="2">
+      <c r="AL90" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>76</v>
@@ -12373,7 +12373,7 @@
         <v>383</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12382,7 +12382,7 @@
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R91" t="s" s="2">
         <v>76</v>
@@ -12404,7 +12404,7 @@
       </c>
       <c r="X91" s="2"/>
       <c r="Y91" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>76</v>
@@ -12480,11 +12480,11 @@
         <v>391</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>76</v>
@@ -12585,7 +12585,7 @@
         <v>76</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="K93" t="s" s="2">
         <v>399</v>
@@ -14028,16 +14028,16 @@
         <v>87</v>
       </c>
       <c r="J106" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K106" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K106" t="s" s="2">
+      <c r="L106" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L106" t="s" s="2">
+      <c r="M106" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -14087,7 +14087,7 @@
         <v>76</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>77</v>
@@ -14102,13 +14102,13 @@
         <v>98</v>
       </c>
       <c r="AJ106" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK106" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK106" t="s" s="2">
+      <c r="AL106" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>76</v>
@@ -14145,7 +14145,7 @@
         <v>383</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -14154,7 +14154,7 @@
       </c>
       <c r="P107" s="2"/>
       <c r="Q107" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R107" t="s" s="2">
         <v>76</v>
@@ -14176,7 +14176,7 @@
       </c>
       <c r="X107" s="2"/>
       <c r="Y107" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>76</v>
@@ -14252,11 +14252,11 @@
         <v>391</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>76</v>
@@ -14357,7 +14357,7 @@
         <v>76</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="K109" t="s" s="2">
         <v>399</v>
@@ -15800,16 +15800,16 @@
         <v>87</v>
       </c>
       <c r="J122" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K122" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K122" t="s" s="2">
+      <c r="L122" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L122" t="s" s="2">
+      <c r="M122" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
@@ -15859,7 +15859,7 @@
         <v>76</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>77</v>
@@ -15874,13 +15874,13 @@
         <v>98</v>
       </c>
       <c r="AJ122" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK122" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK122" t="s" s="2">
+      <c r="AL122" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL122" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>76</v>
@@ -15917,7 +15917,7 @@
         <v>383</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -15926,7 +15926,7 @@
       </c>
       <c r="P123" s="2"/>
       <c r="Q123" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R123" t="s" s="2">
         <v>76</v>
@@ -15948,7 +15948,7 @@
       </c>
       <c r="X123" s="2"/>
       <c r="Y123" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z123" t="s" s="2">
         <v>76</v>
@@ -16024,11 +16024,11 @@
         <v>391</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>76</v>
@@ -16129,7 +16129,7 @@
         <v>76</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="K125" t="s" s="2">
         <v>399</v>
@@ -17572,16 +17572,16 @@
         <v>87</v>
       </c>
       <c r="J138" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K138" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K138" t="s" s="2">
+      <c r="L138" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L138" t="s" s="2">
+      <c r="M138" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M138" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
@@ -17631,7 +17631,7 @@
         <v>76</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>77</v>
@@ -17646,13 +17646,13 @@
         <v>98</v>
       </c>
       <c r="AJ138" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK138" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK138" t="s" s="2">
+      <c r="AL138" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL138" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>76</v>
@@ -17689,7 +17689,7 @@
         <v>383</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
@@ -17698,7 +17698,7 @@
       </c>
       <c r="P139" s="2"/>
       <c r="Q139" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R139" t="s" s="2">
         <v>76</v>
@@ -17720,7 +17720,7 @@
       </c>
       <c r="X139" s="2"/>
       <c r="Y139" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z139" t="s" s="2">
         <v>76</v>
@@ -17796,11 +17796,11 @@
         <v>391</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>76</v>
@@ -17901,7 +17901,7 @@
         <v>76</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="K141" t="s" s="2">
         <v>399</v>
@@ -19344,16 +19344,16 @@
         <v>87</v>
       </c>
       <c r="J154" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K154" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K154" t="s" s="2">
+      <c r="L154" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L154" t="s" s="2">
+      <c r="M154" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M154" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" t="s" s="2">
@@ -19403,7 +19403,7 @@
         <v>76</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>77</v>
@@ -19418,13 +19418,13 @@
         <v>98</v>
       </c>
       <c r="AJ154" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK154" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK154" t="s" s="2">
+      <c r="AL154" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL154" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AM154" t="s" s="2">
         <v>76</v>
@@ -19461,7 +19461,7 @@
         <v>383</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M155" s="2"/>
       <c r="N155" s="2"/>
@@ -19470,7 +19470,7 @@
       </c>
       <c r="P155" s="2"/>
       <c r="Q155" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R155" t="s" s="2">
         <v>76</v>
@@ -19492,7 +19492,7 @@
       </c>
       <c r="X155" s="2"/>
       <c r="Y155" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z155" t="s" s="2">
         <v>76</v>
@@ -19568,11 +19568,11 @@
         <v>391</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M156" s="2"/>
       <c r="N156" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>76</v>
@@ -19673,7 +19673,7 @@
         <v>76</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="K157" t="s" s="2">
         <v>399</v>
@@ -21116,16 +21116,16 @@
         <v>87</v>
       </c>
       <c r="J170" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K170" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K170" t="s" s="2">
+      <c r="L170" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L170" t="s" s="2">
+      <c r="M170" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M170" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N170" s="2"/>
       <c r="O170" t="s" s="2">
@@ -21175,7 +21175,7 @@
         <v>76</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>77</v>
@@ -21190,13 +21190,13 @@
         <v>98</v>
       </c>
       <c r="AJ170" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK170" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK170" t="s" s="2">
+      <c r="AL170" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL170" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AM170" t="s" s="2">
         <v>76</v>
@@ -21233,7 +21233,7 @@
         <v>383</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M171" s="2"/>
       <c r="N171" s="2"/>
@@ -21242,7 +21242,7 @@
       </c>
       <c r="P171" s="2"/>
       <c r="Q171" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R171" t="s" s="2">
         <v>76</v>
@@ -21264,7 +21264,7 @@
       </c>
       <c r="X171" s="2"/>
       <c r="Y171" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z171" t="s" s="2">
         <v>76</v>
@@ -21340,11 +21340,11 @@
         <v>391</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M172" s="2"/>
       <c r="N172" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>76</v>
@@ -21445,7 +21445,7 @@
         <v>76</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="K173" t="s" s="2">
         <v>399</v>
@@ -22888,16 +22888,16 @@
         <v>87</v>
       </c>
       <c r="J186" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K186" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K186" t="s" s="2">
+      <c r="L186" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L186" t="s" s="2">
+      <c r="M186" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M186" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N186" s="2"/>
       <c r="O186" t="s" s="2">
@@ -22947,7 +22947,7 @@
         <v>76</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>77</v>
@@ -22962,13 +22962,13 @@
         <v>98</v>
       </c>
       <c r="AJ186" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK186" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK186" t="s" s="2">
+      <c r="AL186" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL186" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AM186" t="s" s="2">
         <v>76</v>
@@ -23005,7 +23005,7 @@
         <v>383</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M187" s="2"/>
       <c r="N187" s="2"/>
@@ -23014,7 +23014,7 @@
       </c>
       <c r="P187" s="2"/>
       <c r="Q187" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R187" t="s" s="2">
         <v>76</v>
@@ -23036,7 +23036,7 @@
       </c>
       <c r="X187" s="2"/>
       <c r="Y187" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z187" t="s" s="2">
         <v>76</v>
@@ -23112,11 +23112,11 @@
         <v>391</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M188" s="2"/>
       <c r="N188" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>76</v>
@@ -23217,7 +23217,7 @@
         <v>76</v>
       </c>
       <c r="J189" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="K189" t="s" s="2">
         <v>399</v>
@@ -24660,16 +24660,16 @@
         <v>87</v>
       </c>
       <c r="J202" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K202" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K202" t="s" s="2">
+      <c r="L202" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L202" t="s" s="2">
+      <c r="M202" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M202" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N202" s="2"/>
       <c r="O202" t="s" s="2">
@@ -24719,7 +24719,7 @@
         <v>76</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF202" t="s" s="2">
         <v>77</v>
@@ -24734,13 +24734,13 @@
         <v>98</v>
       </c>
       <c r="AJ202" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK202" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK202" t="s" s="2">
+      <c r="AL202" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL202" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AM202" t="s" s="2">
         <v>76</v>
@@ -24777,7 +24777,7 @@
         <v>383</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M203" s="2"/>
       <c r="N203" s="2"/>
@@ -24786,7 +24786,7 @@
       </c>
       <c r="P203" s="2"/>
       <c r="Q203" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R203" t="s" s="2">
         <v>76</v>
@@ -24808,7 +24808,7 @@
       </c>
       <c r="X203" s="2"/>
       <c r="Y203" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z203" t="s" s="2">
         <v>76</v>
@@ -24884,11 +24884,11 @@
         <v>391</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M204" s="2"/>
       <c r="N204" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O204" t="s" s="2">
         <v>76</v>
@@ -24989,7 +24989,7 @@
         <v>76</v>
       </c>
       <c r="J205" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="K205" t="s" s="2">
         <v>399</v>
@@ -26432,16 +26432,16 @@
         <v>87</v>
       </c>
       <c r="J218" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K218" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K218" t="s" s="2">
+      <c r="L218" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L218" t="s" s="2">
+      <c r="M218" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M218" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N218" s="2"/>
       <c r="O218" t="s" s="2">
@@ -26491,7 +26491,7 @@
         <v>76</v>
       </c>
       <c r="AE218" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF218" t="s" s="2">
         <v>77</v>
@@ -26506,13 +26506,13 @@
         <v>98</v>
       </c>
       <c r="AJ218" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK218" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK218" t="s" s="2">
+      <c r="AL218" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL218" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AM218" t="s" s="2">
         <v>76</v>
@@ -26549,7 +26549,7 @@
         <v>383</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M219" s="2"/>
       <c r="N219" s="2"/>
@@ -26558,7 +26558,7 @@
       </c>
       <c r="P219" s="2"/>
       <c r="Q219" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R219" t="s" s="2">
         <v>76</v>
@@ -26580,7 +26580,7 @@
       </c>
       <c r="X219" s="2"/>
       <c r="Y219" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z219" t="s" s="2">
         <v>76</v>
@@ -26656,11 +26656,11 @@
         <v>391</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M220" s="2"/>
       <c r="N220" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O220" t="s" s="2">
         <v>76</v>
@@ -26761,7 +26761,7 @@
         <v>76</v>
       </c>
       <c r="J221" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="K221" t="s" s="2">
         <v>399</v>
@@ -28204,16 +28204,16 @@
         <v>87</v>
       </c>
       <c r="J234" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K234" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K234" t="s" s="2">
+      <c r="L234" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L234" t="s" s="2">
+      <c r="M234" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M234" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N234" s="2"/>
       <c r="O234" t="s" s="2">
@@ -28263,7 +28263,7 @@
         <v>76</v>
       </c>
       <c r="AE234" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF234" t="s" s="2">
         <v>77</v>
@@ -28278,13 +28278,13 @@
         <v>98</v>
       </c>
       <c r="AJ234" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK234" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK234" t="s" s="2">
+      <c r="AL234" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL234" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AM234" t="s" s="2">
         <v>76</v>
@@ -28321,7 +28321,7 @@
         <v>383</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M235" s="2"/>
       <c r="N235" s="2"/>
@@ -28330,7 +28330,7 @@
       </c>
       <c r="P235" s="2"/>
       <c r="Q235" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R235" t="s" s="2">
         <v>76</v>
@@ -28352,7 +28352,7 @@
       </c>
       <c r="X235" s="2"/>
       <c r="Y235" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z235" t="s" s="2">
         <v>76</v>
@@ -28428,11 +28428,11 @@
         <v>391</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M236" s="2"/>
       <c r="N236" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O236" t="s" s="2">
         <v>76</v>
@@ -28533,7 +28533,7 @@
         <v>76</v>
       </c>
       <c r="J237" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="K237" t="s" s="2">
         <v>399</v>
@@ -29976,16 +29976,16 @@
         <v>87</v>
       </c>
       <c r="J250" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K250" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K250" t="s" s="2">
+      <c r="L250" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L250" t="s" s="2">
+      <c r="M250" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M250" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N250" s="2"/>
       <c r="O250" t="s" s="2">
@@ -30035,7 +30035,7 @@
         <v>76</v>
       </c>
       <c r="AE250" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF250" t="s" s="2">
         <v>77</v>
@@ -30050,13 +30050,13 @@
         <v>98</v>
       </c>
       <c r="AJ250" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK250" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK250" t="s" s="2">
+      <c r="AL250" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL250" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AM250" t="s" s="2">
         <v>76</v>
@@ -30093,7 +30093,7 @@
         <v>383</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M251" s="2"/>
       <c r="N251" s="2"/>
@@ -30102,7 +30102,7 @@
       </c>
       <c r="P251" s="2"/>
       <c r="Q251" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R251" t="s" s="2">
         <v>76</v>
@@ -30124,7 +30124,7 @@
       </c>
       <c r="X251" s="2"/>
       <c r="Y251" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z251" t="s" s="2">
         <v>76</v>
@@ -30200,11 +30200,11 @@
         <v>391</v>
       </c>
       <c r="L252" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M252" s="2"/>
       <c r="N252" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O252" t="s" s="2">
         <v>76</v>
@@ -30305,7 +30305,7 @@
         <v>76</v>
       </c>
       <c r="J253" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="K253" t="s" s="2">
         <v>399</v>
@@ -31748,16 +31748,16 @@
         <v>87</v>
       </c>
       <c r="J266" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K266" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K266" t="s" s="2">
+      <c r="L266" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L266" t="s" s="2">
+      <c r="M266" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M266" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N266" s="2"/>
       <c r="O266" t="s" s="2">
@@ -31807,7 +31807,7 @@
         <v>76</v>
       </c>
       <c r="AE266" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF266" t="s" s="2">
         <v>77</v>
@@ -31822,13 +31822,13 @@
         <v>98</v>
       </c>
       <c r="AJ266" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK266" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK266" t="s" s="2">
+      <c r="AL266" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL266" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AM266" t="s" s="2">
         <v>76</v>
@@ -31865,7 +31865,7 @@
         <v>383</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M267" s="2"/>
       <c r="N267" s="2"/>
@@ -31874,7 +31874,7 @@
       </c>
       <c r="P267" s="2"/>
       <c r="Q267" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R267" t="s" s="2">
         <v>76</v>
@@ -31896,7 +31896,7 @@
       </c>
       <c r="X267" s="2"/>
       <c r="Y267" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z267" t="s" s="2">
         <v>76</v>
@@ -31972,11 +31972,11 @@
         <v>391</v>
       </c>
       <c r="L268" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M268" s="2"/>
       <c r="N268" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O268" t="s" s="2">
         <v>76</v>
@@ -32077,7 +32077,7 @@
         <v>76</v>
       </c>
       <c r="J269" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="K269" t="s" s="2">
         <v>399</v>
@@ -33520,16 +33520,16 @@
         <v>87</v>
       </c>
       <c r="J282" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K282" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K282" t="s" s="2">
+      <c r="L282" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L282" t="s" s="2">
+      <c r="M282" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M282" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N282" s="2"/>
       <c r="O282" t="s" s="2">
@@ -33579,7 +33579,7 @@
         <v>76</v>
       </c>
       <c r="AE282" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF282" t="s" s="2">
         <v>77</v>
@@ -33594,13 +33594,13 @@
         <v>98</v>
       </c>
       <c r="AJ282" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK282" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK282" t="s" s="2">
+      <c r="AL282" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL282" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AM282" t="s" s="2">
         <v>76</v>
@@ -33637,7 +33637,7 @@
         <v>383</v>
       </c>
       <c r="L283" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M283" s="2"/>
       <c r="N283" s="2"/>
@@ -33646,7 +33646,7 @@
       </c>
       <c r="P283" s="2"/>
       <c r="Q283" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R283" t="s" s="2">
         <v>76</v>
@@ -33668,7 +33668,7 @@
       </c>
       <c r="X283" s="2"/>
       <c r="Y283" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z283" t="s" s="2">
         <v>76</v>
@@ -33744,11 +33744,11 @@
         <v>391</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M284" s="2"/>
       <c r="N284" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O284" t="s" s="2">
         <v>76</v>
@@ -33849,7 +33849,7 @@
         <v>76</v>
       </c>
       <c r="J285" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="K285" t="s" s="2">
         <v>399</v>
@@ -35292,16 +35292,16 @@
         <v>87</v>
       </c>
       <c r="J298" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K298" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K298" t="s" s="2">
+      <c r="L298" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L298" t="s" s="2">
+      <c r="M298" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M298" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N298" s="2"/>
       <c r="O298" t="s" s="2">
@@ -35351,7 +35351,7 @@
         <v>76</v>
       </c>
       <c r="AE298" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF298" t="s" s="2">
         <v>77</v>
@@ -35366,13 +35366,13 @@
         <v>98</v>
       </c>
       <c r="AJ298" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK298" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK298" t="s" s="2">
+      <c r="AL298" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL298" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AM298" t="s" s="2">
         <v>76</v>
@@ -35409,7 +35409,7 @@
         <v>383</v>
       </c>
       <c r="L299" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M299" s="2"/>
       <c r="N299" s="2"/>
@@ -35418,7 +35418,7 @@
       </c>
       <c r="P299" s="2"/>
       <c r="Q299" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R299" t="s" s="2">
         <v>76</v>
@@ -35440,7 +35440,7 @@
       </c>
       <c r="X299" s="2"/>
       <c r="Y299" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z299" t="s" s="2">
         <v>76</v>
@@ -35516,11 +35516,11 @@
         <v>391</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M300" s="2"/>
       <c r="N300" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O300" t="s" s="2">
         <v>76</v>
@@ -35621,7 +35621,7 @@
         <v>76</v>
       </c>
       <c r="J301" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="K301" t="s" s="2">
         <v>399</v>
@@ -37064,16 +37064,16 @@
         <v>87</v>
       </c>
       <c r="J314" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K314" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K314" t="s" s="2">
+      <c r="L314" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L314" t="s" s="2">
+      <c r="M314" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M314" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N314" s="2"/>
       <c r="O314" t="s" s="2">
@@ -37123,7 +37123,7 @@
         <v>76</v>
       </c>
       <c r="AE314" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF314" t="s" s="2">
         <v>77</v>
@@ -37138,13 +37138,13 @@
         <v>98</v>
       </c>
       <c r="AJ314" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK314" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK314" t="s" s="2">
+      <c r="AL314" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL314" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AM314" t="s" s="2">
         <v>76</v>
@@ -37181,7 +37181,7 @@
         <v>383</v>
       </c>
       <c r="L315" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M315" s="2"/>
       <c r="N315" s="2"/>
@@ -37190,7 +37190,7 @@
       </c>
       <c r="P315" s="2"/>
       <c r="Q315" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R315" t="s" s="2">
         <v>76</v>
@@ -37212,7 +37212,7 @@
       </c>
       <c r="X315" s="2"/>
       <c r="Y315" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z315" t="s" s="2">
         <v>76</v>
@@ -37288,11 +37288,11 @@
         <v>391</v>
       </c>
       <c r="L316" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M316" s="2"/>
       <c r="N316" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O316" t="s" s="2">
         <v>76</v>
@@ -37393,7 +37393,7 @@
         <v>76</v>
       </c>
       <c r="J317" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="K317" t="s" s="2">
         <v>399</v>
@@ -38836,16 +38836,16 @@
         <v>87</v>
       </c>
       <c r="J330" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K330" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K330" t="s" s="2">
+      <c r="L330" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L330" t="s" s="2">
+      <c r="M330" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M330" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N330" s="2"/>
       <c r="O330" t="s" s="2">
@@ -38895,7 +38895,7 @@
         <v>76</v>
       </c>
       <c r="AE330" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF330" t="s" s="2">
         <v>77</v>
@@ -38910,13 +38910,13 @@
         <v>98</v>
       </c>
       <c r="AJ330" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK330" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK330" t="s" s="2">
+      <c r="AL330" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL330" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AM330" t="s" s="2">
         <v>76</v>
@@ -38953,7 +38953,7 @@
         <v>383</v>
       </c>
       <c r="L331" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M331" s="2"/>
       <c r="N331" s="2"/>
@@ -38962,7 +38962,7 @@
       </c>
       <c r="P331" s="2"/>
       <c r="Q331" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R331" t="s" s="2">
         <v>76</v>
@@ -38984,7 +38984,7 @@
       </c>
       <c r="X331" s="2"/>
       <c r="Y331" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z331" t="s" s="2">
         <v>76</v>
@@ -39060,11 +39060,11 @@
         <v>391</v>
       </c>
       <c r="L332" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M332" s="2"/>
       <c r="N332" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O332" t="s" s="2">
         <v>76</v>
@@ -39165,7 +39165,7 @@
         <v>76</v>
       </c>
       <c r="J333" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="K333" t="s" s="2">
         <v>399</v>
@@ -40608,16 +40608,16 @@
         <v>87</v>
       </c>
       <c r="J346" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K346" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K346" t="s" s="2">
+      <c r="L346" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L346" t="s" s="2">
+      <c r="M346" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M346" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N346" s="2"/>
       <c r="O346" t="s" s="2">
@@ -40667,7 +40667,7 @@
         <v>76</v>
       </c>
       <c r="AE346" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF346" t="s" s="2">
         <v>77</v>
@@ -40682,13 +40682,13 @@
         <v>98</v>
       </c>
       <c r="AJ346" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK346" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK346" t="s" s="2">
+      <c r="AL346" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL346" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AM346" t="s" s="2">
         <v>76</v>
@@ -40725,7 +40725,7 @@
         <v>383</v>
       </c>
       <c r="L347" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M347" s="2"/>
       <c r="N347" s="2"/>
@@ -40734,7 +40734,7 @@
       </c>
       <c r="P347" s="2"/>
       <c r="Q347" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R347" t="s" s="2">
         <v>76</v>
@@ -40756,7 +40756,7 @@
       </c>
       <c r="X347" s="2"/>
       <c r="Y347" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z347" t="s" s="2">
         <v>76</v>
@@ -40832,11 +40832,11 @@
         <v>391</v>
       </c>
       <c r="L348" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M348" s="2"/>
       <c r="N348" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O348" t="s" s="2">
         <v>76</v>
@@ -40937,7 +40937,7 @@
         <v>76</v>
       </c>
       <c r="J349" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="K349" t="s" s="2">
         <v>399</v>
@@ -42380,16 +42380,16 @@
         <v>87</v>
       </c>
       <c r="J362" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K362" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K362" t="s" s="2">
+      <c r="L362" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L362" t="s" s="2">
+      <c r="M362" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M362" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N362" s="2"/>
       <c r="O362" t="s" s="2">
@@ -42439,7 +42439,7 @@
         <v>76</v>
       </c>
       <c r="AE362" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF362" t="s" s="2">
         <v>77</v>
@@ -42454,13 +42454,13 @@
         <v>98</v>
       </c>
       <c r="AJ362" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK362" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK362" t="s" s="2">
+      <c r="AL362" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL362" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AM362" t="s" s="2">
         <v>76</v>
@@ -42497,7 +42497,7 @@
         <v>383</v>
       </c>
       <c r="L363" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M363" s="2"/>
       <c r="N363" s="2"/>
@@ -42506,7 +42506,7 @@
       </c>
       <c r="P363" s="2"/>
       <c r="Q363" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R363" t="s" s="2">
         <v>76</v>
@@ -42528,7 +42528,7 @@
       </c>
       <c r="X363" s="2"/>
       <c r="Y363" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z363" t="s" s="2">
         <v>76</v>
@@ -42604,11 +42604,11 @@
         <v>391</v>
       </c>
       <c r="L364" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M364" s="2"/>
       <c r="N364" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O364" t="s" s="2">
         <v>76</v>
@@ -42709,7 +42709,7 @@
         <v>76</v>
       </c>
       <c r="J365" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="K365" t="s" s="2">
         <v>399</v>
@@ -44152,16 +44152,16 @@
         <v>87</v>
       </c>
       <c r="J378" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K378" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K378" t="s" s="2">
+      <c r="L378" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L378" t="s" s="2">
+      <c r="M378" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M378" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N378" s="2"/>
       <c r="O378" t="s" s="2">
@@ -44211,7 +44211,7 @@
         <v>76</v>
       </c>
       <c r="AE378" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF378" t="s" s="2">
         <v>77</v>
@@ -44226,13 +44226,13 @@
         <v>98</v>
       </c>
       <c r="AJ378" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK378" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK378" t="s" s="2">
+      <c r="AL378" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL378" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AM378" t="s" s="2">
         <v>76</v>
@@ -44269,7 +44269,7 @@
         <v>383</v>
       </c>
       <c r="L379" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M379" s="2"/>
       <c r="N379" s="2"/>
@@ -44278,7 +44278,7 @@
       </c>
       <c r="P379" s="2"/>
       <c r="Q379" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R379" t="s" s="2">
         <v>76</v>
@@ -44300,7 +44300,7 @@
       </c>
       <c r="X379" s="2"/>
       <c r="Y379" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z379" t="s" s="2">
         <v>76</v>
@@ -44376,11 +44376,11 @@
         <v>391</v>
       </c>
       <c r="L380" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M380" s="2"/>
       <c r="N380" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O380" t="s" s="2">
         <v>76</v>
@@ -44481,7 +44481,7 @@
         <v>76</v>
       </c>
       <c r="J381" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="K381" t="s" s="2">
         <v>399</v>
@@ -45924,16 +45924,16 @@
         <v>87</v>
       </c>
       <c r="J394" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K394" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K394" t="s" s="2">
+      <c r="L394" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L394" t="s" s="2">
+      <c r="M394" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M394" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N394" s="2"/>
       <c r="O394" t="s" s="2">
@@ -45983,7 +45983,7 @@
         <v>76</v>
       </c>
       <c r="AE394" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF394" t="s" s="2">
         <v>77</v>
@@ -45998,13 +45998,13 @@
         <v>98</v>
       </c>
       <c r="AJ394" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK394" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK394" t="s" s="2">
+      <c r="AL394" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL394" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AM394" t="s" s="2">
         <v>76</v>
@@ -46041,7 +46041,7 @@
         <v>383</v>
       </c>
       <c r="L395" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M395" s="2"/>
       <c r="N395" s="2"/>
@@ -46050,7 +46050,7 @@
       </c>
       <c r="P395" s="2"/>
       <c r="Q395" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R395" t="s" s="2">
         <v>76</v>
@@ -46072,7 +46072,7 @@
       </c>
       <c r="X395" s="2"/>
       <c r="Y395" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z395" t="s" s="2">
         <v>76</v>
@@ -46148,11 +46148,11 @@
         <v>391</v>
       </c>
       <c r="L396" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M396" s="2"/>
       <c r="N396" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O396" t="s" s="2">
         <v>76</v>
@@ -46253,7 +46253,7 @@
         <v>76</v>
       </c>
       <c r="J397" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="K397" t="s" s="2">
         <v>399</v>
@@ -47696,16 +47696,16 @@
         <v>87</v>
       </c>
       <c r="J410" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K410" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K410" t="s" s="2">
+      <c r="L410" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L410" t="s" s="2">
+      <c r="M410" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M410" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N410" s="2"/>
       <c r="O410" t="s" s="2">
@@ -47755,7 +47755,7 @@
         <v>76</v>
       </c>
       <c r="AE410" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF410" t="s" s="2">
         <v>77</v>
@@ -47770,13 +47770,13 @@
         <v>98</v>
       </c>
       <c r="AJ410" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK410" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK410" t="s" s="2">
+      <c r="AL410" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL410" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AM410" t="s" s="2">
         <v>76</v>
@@ -47813,7 +47813,7 @@
         <v>383</v>
       </c>
       <c r="L411" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M411" s="2"/>
       <c r="N411" s="2"/>
@@ -47822,7 +47822,7 @@
       </c>
       <c r="P411" s="2"/>
       <c r="Q411" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R411" t="s" s="2">
         <v>76</v>
@@ -47844,7 +47844,7 @@
       </c>
       <c r="X411" s="2"/>
       <c r="Y411" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z411" t="s" s="2">
         <v>76</v>
@@ -47920,11 +47920,11 @@
         <v>391</v>
       </c>
       <c r="L412" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M412" s="2"/>
       <c r="N412" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O412" t="s" s="2">
         <v>76</v>
@@ -48025,7 +48025,7 @@
         <v>76</v>
       </c>
       <c r="J413" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="K413" t="s" s="2">
         <v>399</v>
@@ -49468,16 +49468,16 @@
         <v>87</v>
       </c>
       <c r="J426" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K426" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K426" t="s" s="2">
+      <c r="L426" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L426" t="s" s="2">
+      <c r="M426" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M426" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N426" s="2"/>
       <c r="O426" t="s" s="2">
@@ -49527,7 +49527,7 @@
         <v>76</v>
       </c>
       <c r="AE426" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF426" t="s" s="2">
         <v>77</v>
@@ -49542,13 +49542,13 @@
         <v>98</v>
       </c>
       <c r="AJ426" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK426" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK426" t="s" s="2">
+      <c r="AL426" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL426" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AM426" t="s" s="2">
         <v>76</v>
@@ -49585,7 +49585,7 @@
         <v>383</v>
       </c>
       <c r="L427" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M427" s="2"/>
       <c r="N427" s="2"/>
@@ -49594,7 +49594,7 @@
       </c>
       <c r="P427" s="2"/>
       <c r="Q427" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R427" t="s" s="2">
         <v>76</v>
@@ -49616,7 +49616,7 @@
       </c>
       <c r="X427" s="2"/>
       <c r="Y427" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z427" t="s" s="2">
         <v>76</v>
@@ -49692,11 +49692,11 @@
         <v>391</v>
       </c>
       <c r="L428" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M428" s="2"/>
       <c r="N428" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O428" t="s" s="2">
         <v>76</v>
@@ -49797,7 +49797,7 @@
         <v>76</v>
       </c>
       <c r="J429" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="K429" t="s" s="2">
         <v>399</v>
@@ -51240,16 +51240,16 @@
         <v>87</v>
       </c>
       <c r="J442" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K442" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K442" t="s" s="2">
+      <c r="L442" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L442" t="s" s="2">
+      <c r="M442" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M442" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N442" s="2"/>
       <c r="O442" t="s" s="2">
@@ -51299,7 +51299,7 @@
         <v>76</v>
       </c>
       <c r="AE442" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF442" t="s" s="2">
         <v>77</v>
@@ -51314,13 +51314,13 @@
         <v>98</v>
       </c>
       <c r="AJ442" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK442" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK442" t="s" s="2">
+      <c r="AL442" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL442" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AM442" t="s" s="2">
         <v>76</v>
@@ -51357,7 +51357,7 @@
         <v>383</v>
       </c>
       <c r="L443" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M443" s="2"/>
       <c r="N443" s="2"/>
@@ -51366,7 +51366,7 @@
       </c>
       <c r="P443" s="2"/>
       <c r="Q443" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R443" t="s" s="2">
         <v>76</v>
@@ -51388,7 +51388,7 @@
       </c>
       <c r="X443" s="2"/>
       <c r="Y443" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z443" t="s" s="2">
         <v>76</v>
@@ -51464,11 +51464,11 @@
         <v>391</v>
       </c>
       <c r="L444" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M444" s="2"/>
       <c r="N444" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O444" t="s" s="2">
         <v>76</v>
@@ -51569,7 +51569,7 @@
         <v>76</v>
       </c>
       <c r="J445" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="K445" t="s" s="2">
         <v>399</v>
@@ -53012,16 +53012,16 @@
         <v>87</v>
       </c>
       <c r="J458" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K458" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K458" t="s" s="2">
+      <c r="L458" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L458" t="s" s="2">
+      <c r="M458" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M458" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N458" s="2"/>
       <c r="O458" t="s" s="2">
@@ -53071,7 +53071,7 @@
         <v>76</v>
       </c>
       <c r="AE458" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF458" t="s" s="2">
         <v>77</v>
@@ -53086,13 +53086,13 @@
         <v>98</v>
       </c>
       <c r="AJ458" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK458" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK458" t="s" s="2">
+      <c r="AL458" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL458" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AM458" t="s" s="2">
         <v>76</v>
@@ -53129,7 +53129,7 @@
         <v>383</v>
       </c>
       <c r="L459" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M459" s="2"/>
       <c r="N459" s="2"/>
@@ -53138,7 +53138,7 @@
       </c>
       <c r="P459" s="2"/>
       <c r="Q459" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R459" t="s" s="2">
         <v>76</v>
@@ -53160,7 +53160,7 @@
       </c>
       <c r="X459" s="2"/>
       <c r="Y459" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z459" t="s" s="2">
         <v>76</v>
@@ -53236,11 +53236,11 @@
         <v>391</v>
       </c>
       <c r="L460" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M460" s="2"/>
       <c r="N460" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O460" t="s" s="2">
         <v>76</v>
@@ -53341,7 +53341,7 @@
         <v>76</v>
       </c>
       <c r="J461" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="K461" t="s" s="2">
         <v>399</v>
@@ -54784,16 +54784,16 @@
         <v>87</v>
       </c>
       <c r="J474" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K474" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K474" t="s" s="2">
+      <c r="L474" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L474" t="s" s="2">
+      <c r="M474" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M474" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N474" s="2"/>
       <c r="O474" t="s" s="2">
@@ -54843,7 +54843,7 @@
         <v>76</v>
       </c>
       <c r="AE474" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF474" t="s" s="2">
         <v>77</v>
@@ -54858,13 +54858,13 @@
         <v>98</v>
       </c>
       <c r="AJ474" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK474" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK474" t="s" s="2">
+      <c r="AL474" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL474" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AM474" t="s" s="2">
         <v>76</v>
@@ -54901,7 +54901,7 @@
         <v>383</v>
       </c>
       <c r="L475" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M475" s="2"/>
       <c r="N475" s="2"/>
@@ -54910,7 +54910,7 @@
       </c>
       <c r="P475" s="2"/>
       <c r="Q475" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R475" t="s" s="2">
         <v>76</v>
@@ -54932,7 +54932,7 @@
       </c>
       <c r="X475" s="2"/>
       <c r="Y475" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z475" t="s" s="2">
         <v>76</v>
@@ -55008,11 +55008,11 @@
         <v>391</v>
       </c>
       <c r="L476" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M476" s="2"/>
       <c r="N476" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O476" t="s" s="2">
         <v>76</v>
@@ -55113,7 +55113,7 @@
         <v>76</v>
       </c>
       <c r="J477" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="K477" t="s" s="2">
         <v>399</v>
@@ -56556,16 +56556,16 @@
         <v>87</v>
       </c>
       <c r="J490" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K490" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K490" t="s" s="2">
+      <c r="L490" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L490" t="s" s="2">
+      <c r="M490" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M490" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N490" s="2"/>
       <c r="O490" t="s" s="2">
@@ -56615,7 +56615,7 @@
         <v>76</v>
       </c>
       <c r="AE490" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF490" t="s" s="2">
         <v>77</v>
@@ -56630,13 +56630,13 @@
         <v>98</v>
       </c>
       <c r="AJ490" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK490" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK490" t="s" s="2">
+      <c r="AL490" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL490" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AM490" t="s" s="2">
         <v>76</v>
@@ -56673,7 +56673,7 @@
         <v>383</v>
       </c>
       <c r="L491" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M491" s="2"/>
       <c r="N491" s="2"/>
@@ -56682,7 +56682,7 @@
       </c>
       <c r="P491" s="2"/>
       <c r="Q491" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R491" t="s" s="2">
         <v>76</v>
@@ -56704,7 +56704,7 @@
       </c>
       <c r="X491" s="2"/>
       <c r="Y491" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z491" t="s" s="2">
         <v>76</v>
@@ -56780,11 +56780,11 @@
         <v>391</v>
       </c>
       <c r="L492" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M492" s="2"/>
       <c r="N492" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O492" t="s" s="2">
         <v>76</v>
@@ -56885,7 +56885,7 @@
         <v>76</v>
       </c>
       <c r="J493" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="K493" t="s" s="2">
         <v>399</v>
@@ -58328,16 +58328,16 @@
         <v>87</v>
       </c>
       <c r="J506" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K506" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K506" t="s" s="2">
+      <c r="L506" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L506" t="s" s="2">
+      <c r="M506" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M506" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N506" s="2"/>
       <c r="O506" t="s" s="2">
@@ -58387,7 +58387,7 @@
         <v>76</v>
       </c>
       <c r="AE506" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF506" t="s" s="2">
         <v>77</v>
@@ -58402,13 +58402,13 @@
         <v>98</v>
       </c>
       <c r="AJ506" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK506" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK506" t="s" s="2">
+      <c r="AL506" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL506" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AM506" t="s" s="2">
         <v>76</v>
@@ -58445,7 +58445,7 @@
         <v>383</v>
       </c>
       <c r="L507" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M507" s="2"/>
       <c r="N507" s="2"/>
@@ -58454,7 +58454,7 @@
       </c>
       <c r="P507" s="2"/>
       <c r="Q507" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R507" t="s" s="2">
         <v>76</v>
@@ -58476,7 +58476,7 @@
       </c>
       <c r="X507" s="2"/>
       <c r="Y507" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z507" t="s" s="2">
         <v>76</v>
@@ -58552,11 +58552,11 @@
         <v>391</v>
       </c>
       <c r="L508" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M508" s="2"/>
       <c r="N508" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O508" t="s" s="2">
         <v>76</v>
@@ -58657,7 +58657,7 @@
         <v>76</v>
       </c>
       <c r="J509" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="K509" t="s" s="2">
         <v>399</v>
@@ -60100,16 +60100,16 @@
         <v>87</v>
       </c>
       <c r="J522" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K522" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K522" t="s" s="2">
+      <c r="L522" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L522" t="s" s="2">
+      <c r="M522" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M522" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N522" s="2"/>
       <c r="O522" t="s" s="2">
@@ -60159,7 +60159,7 @@
         <v>76</v>
       </c>
       <c r="AE522" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF522" t="s" s="2">
         <v>77</v>
@@ -60174,13 +60174,13 @@
         <v>98</v>
       </c>
       <c r="AJ522" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK522" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK522" t="s" s="2">
+      <c r="AL522" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL522" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AM522" t="s" s="2">
         <v>76</v>
@@ -60217,7 +60217,7 @@
         <v>383</v>
       </c>
       <c r="L523" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M523" s="2"/>
       <c r="N523" s="2"/>
@@ -60226,7 +60226,7 @@
       </c>
       <c r="P523" s="2"/>
       <c r="Q523" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R523" t="s" s="2">
         <v>76</v>
@@ -60248,7 +60248,7 @@
       </c>
       <c r="X523" s="2"/>
       <c r="Y523" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z523" t="s" s="2">
         <v>76</v>
@@ -60324,11 +60324,11 @@
         <v>391</v>
       </c>
       <c r="L524" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M524" s="2"/>
       <c r="N524" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O524" t="s" s="2">
         <v>76</v>
@@ -60429,7 +60429,7 @@
         <v>76</v>
       </c>
       <c r="J525" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="K525" t="s" s="2">
         <v>399</v>
@@ -61872,16 +61872,16 @@
         <v>87</v>
       </c>
       <c r="J538" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K538" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K538" t="s" s="2">
+      <c r="L538" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L538" t="s" s="2">
+      <c r="M538" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M538" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N538" s="2"/>
       <c r="O538" t="s" s="2">
@@ -61931,7 +61931,7 @@
         <v>76</v>
       </c>
       <c r="AE538" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF538" t="s" s="2">
         <v>77</v>
@@ -61946,13 +61946,13 @@
         <v>98</v>
       </c>
       <c r="AJ538" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK538" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK538" t="s" s="2">
+      <c r="AL538" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL538" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AM538" t="s" s="2">
         <v>76</v>
@@ -61989,7 +61989,7 @@
         <v>383</v>
       </c>
       <c r="L539" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M539" s="2"/>
       <c r="N539" s="2"/>
@@ -61998,7 +61998,7 @@
       </c>
       <c r="P539" s="2"/>
       <c r="Q539" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R539" t="s" s="2">
         <v>76</v>
@@ -62020,7 +62020,7 @@
       </c>
       <c r="X539" s="2"/>
       <c r="Y539" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z539" t="s" s="2">
         <v>76</v>
@@ -62096,11 +62096,11 @@
         <v>391</v>
       </c>
       <c r="L540" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M540" s="2"/>
       <c r="N540" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O540" t="s" s="2">
         <v>76</v>
@@ -62201,7 +62201,7 @@
         <v>76</v>
       </c>
       <c r="J541" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="K541" t="s" s="2">
         <v>399</v>
@@ -63644,16 +63644,16 @@
         <v>87</v>
       </c>
       <c r="J554" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K554" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K554" t="s" s="2">
+      <c r="L554" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L554" t="s" s="2">
+      <c r="M554" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M554" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N554" s="2"/>
       <c r="O554" t="s" s="2">
@@ -63703,7 +63703,7 @@
         <v>76</v>
       </c>
       <c r="AE554" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF554" t="s" s="2">
         <v>77</v>
@@ -63718,13 +63718,13 @@
         <v>98</v>
       </c>
       <c r="AJ554" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK554" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK554" t="s" s="2">
+      <c r="AL554" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL554" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AM554" t="s" s="2">
         <v>76</v>
@@ -63761,7 +63761,7 @@
         <v>383</v>
       </c>
       <c r="L555" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M555" s="2"/>
       <c r="N555" s="2"/>
@@ -63770,7 +63770,7 @@
       </c>
       <c r="P555" s="2"/>
       <c r="Q555" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R555" t="s" s="2">
         <v>76</v>
@@ -63792,7 +63792,7 @@
       </c>
       <c r="X555" s="2"/>
       <c r="Y555" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z555" t="s" s="2">
         <v>76</v>
@@ -63868,11 +63868,11 @@
         <v>391</v>
       </c>
       <c r="L556" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M556" s="2"/>
       <c r="N556" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O556" t="s" s="2">
         <v>76</v>
@@ -63973,7 +63973,7 @@
         <v>76</v>
       </c>
       <c r="J557" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="K557" t="s" s="2">
         <v>399</v>
@@ -65416,16 +65416,16 @@
         <v>87</v>
       </c>
       <c r="J570" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K570" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K570" t="s" s="2">
+      <c r="L570" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L570" t="s" s="2">
+      <c r="M570" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M570" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N570" s="2"/>
       <c r="O570" t="s" s="2">
@@ -65475,7 +65475,7 @@
         <v>76</v>
       </c>
       <c r="AE570" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF570" t="s" s="2">
         <v>77</v>
@@ -65490,13 +65490,13 @@
         <v>98</v>
       </c>
       <c r="AJ570" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK570" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK570" t="s" s="2">
+      <c r="AL570" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL570" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AM570" t="s" s="2">
         <v>76</v>
@@ -65533,7 +65533,7 @@
         <v>383</v>
       </c>
       <c r="L571" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M571" s="2"/>
       <c r="N571" s="2"/>
@@ -65542,7 +65542,7 @@
       </c>
       <c r="P571" s="2"/>
       <c r="Q571" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R571" t="s" s="2">
         <v>76</v>
@@ -65564,7 +65564,7 @@
       </c>
       <c r="X571" s="2"/>
       <c r="Y571" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z571" t="s" s="2">
         <v>76</v>
@@ -65640,11 +65640,11 @@
         <v>391</v>
       </c>
       <c r="L572" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M572" s="2"/>
       <c r="N572" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O572" t="s" s="2">
         <v>76</v>
@@ -65745,7 +65745,7 @@
         <v>76</v>
       </c>
       <c r="J573" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="K573" t="s" s="2">
         <v>399</v>
@@ -67188,16 +67188,16 @@
         <v>87</v>
       </c>
       <c r="J586" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K586" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K586" t="s" s="2">
+      <c r="L586" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L586" t="s" s="2">
+      <c r="M586" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M586" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N586" s="2"/>
       <c r="O586" t="s" s="2">
@@ -67247,7 +67247,7 @@
         <v>76</v>
       </c>
       <c r="AE586" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF586" t="s" s="2">
         <v>77</v>
@@ -67262,13 +67262,13 @@
         <v>98</v>
       </c>
       <c r="AJ586" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK586" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK586" t="s" s="2">
+      <c r="AL586" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL586" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AM586" t="s" s="2">
         <v>76</v>
@@ -67305,7 +67305,7 @@
         <v>383</v>
       </c>
       <c r="L587" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M587" s="2"/>
       <c r="N587" s="2"/>
@@ -67314,7 +67314,7 @@
       </c>
       <c r="P587" s="2"/>
       <c r="Q587" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R587" t="s" s="2">
         <v>76</v>
@@ -67336,7 +67336,7 @@
       </c>
       <c r="X587" s="2"/>
       <c r="Y587" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z587" t="s" s="2">
         <v>76</v>
@@ -67412,11 +67412,11 @@
         <v>391</v>
       </c>
       <c r="L588" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M588" s="2"/>
       <c r="N588" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O588" t="s" s="2">
         <v>76</v>
@@ -67517,7 +67517,7 @@
         <v>76</v>
       </c>
       <c r="J589" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="K589" t="s" s="2">
         <v>399</v>
@@ -68960,16 +68960,16 @@
         <v>87</v>
       </c>
       <c r="J602" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K602" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K602" t="s" s="2">
+      <c r="L602" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L602" t="s" s="2">
+      <c r="M602" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M602" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N602" s="2"/>
       <c r="O602" t="s" s="2">
@@ -69019,7 +69019,7 @@
         <v>76</v>
       </c>
       <c r="AE602" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF602" t="s" s="2">
         <v>77</v>
@@ -69034,13 +69034,13 @@
         <v>98</v>
       </c>
       <c r="AJ602" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK602" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK602" t="s" s="2">
+      <c r="AL602" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL602" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AM602" t="s" s="2">
         <v>76</v>
@@ -69077,7 +69077,7 @@
         <v>383</v>
       </c>
       <c r="L603" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M603" s="2"/>
       <c r="N603" s="2"/>
@@ -69086,7 +69086,7 @@
       </c>
       <c r="P603" s="2"/>
       <c r="Q603" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R603" t="s" s="2">
         <v>76</v>
@@ -69108,7 +69108,7 @@
       </c>
       <c r="X603" s="2"/>
       <c r="Y603" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z603" t="s" s="2">
         <v>76</v>
@@ -69184,11 +69184,11 @@
         <v>391</v>
       </c>
       <c r="L604" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M604" s="2"/>
       <c r="N604" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O604" t="s" s="2">
         <v>76</v>
@@ -69289,7 +69289,7 @@
         <v>76</v>
       </c>
       <c r="J605" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="K605" t="s" s="2">
         <v>399</v>
@@ -70732,16 +70732,16 @@
         <v>87</v>
       </c>
       <c r="J618" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K618" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K618" t="s" s="2">
+      <c r="L618" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L618" t="s" s="2">
+      <c r="M618" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M618" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N618" s="2"/>
       <c r="O618" t="s" s="2">
@@ -70791,7 +70791,7 @@
         <v>76</v>
       </c>
       <c r="AE618" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF618" t="s" s="2">
         <v>77</v>
@@ -70806,13 +70806,13 @@
         <v>98</v>
       </c>
       <c r="AJ618" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK618" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK618" t="s" s="2">
+      <c r="AL618" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL618" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AM618" t="s" s="2">
         <v>76</v>
@@ -70849,7 +70849,7 @@
         <v>383</v>
       </c>
       <c r="L619" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M619" s="2"/>
       <c r="N619" s="2"/>
@@ -70858,7 +70858,7 @@
       </c>
       <c r="P619" s="2"/>
       <c r="Q619" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R619" t="s" s="2">
         <v>76</v>
@@ -70880,7 +70880,7 @@
       </c>
       <c r="X619" s="2"/>
       <c r="Y619" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z619" t="s" s="2">
         <v>76</v>
@@ -70956,11 +70956,11 @@
         <v>391</v>
       </c>
       <c r="L620" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M620" s="2"/>
       <c r="N620" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O620" t="s" s="2">
         <v>76</v>
@@ -71061,7 +71061,7 @@
         <v>76</v>
       </c>
       <c r="J621" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="K621" t="s" s="2">
         <v>399</v>
@@ -72504,16 +72504,16 @@
         <v>87</v>
       </c>
       <c r="J634" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K634" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K634" t="s" s="2">
+      <c r="L634" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L634" t="s" s="2">
+      <c r="M634" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M634" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N634" s="2"/>
       <c r="O634" t="s" s="2">
@@ -72563,7 +72563,7 @@
         <v>76</v>
       </c>
       <c r="AE634" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF634" t="s" s="2">
         <v>77</v>
@@ -72578,13 +72578,13 @@
         <v>98</v>
       </c>
       <c r="AJ634" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK634" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK634" t="s" s="2">
+      <c r="AL634" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL634" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AM634" t="s" s="2">
         <v>76</v>
@@ -72621,7 +72621,7 @@
         <v>383</v>
       </c>
       <c r="L635" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M635" s="2"/>
       <c r="N635" s="2"/>
@@ -72630,7 +72630,7 @@
       </c>
       <c r="P635" s="2"/>
       <c r="Q635" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R635" t="s" s="2">
         <v>76</v>
@@ -72652,7 +72652,7 @@
       </c>
       <c r="X635" s="2"/>
       <c r="Y635" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z635" t="s" s="2">
         <v>76</v>
@@ -72728,11 +72728,11 @@
         <v>391</v>
       </c>
       <c r="L636" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M636" s="2"/>
       <c r="N636" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O636" t="s" s="2">
         <v>76</v>
@@ -72833,7 +72833,7 @@
         <v>76</v>
       </c>
       <c r="J637" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="K637" t="s" s="2">
         <v>399</v>
@@ -74276,16 +74276,16 @@
         <v>87</v>
       </c>
       <c r="J650" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K650" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K650" t="s" s="2">
+      <c r="L650" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L650" t="s" s="2">
+      <c r="M650" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M650" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N650" s="2"/>
       <c r="O650" t="s" s="2">
@@ -74335,7 +74335,7 @@
         <v>76</v>
       </c>
       <c r="AE650" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF650" t="s" s="2">
         <v>77</v>
@@ -74350,13 +74350,13 @@
         <v>98</v>
       </c>
       <c r="AJ650" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK650" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK650" t="s" s="2">
+      <c r="AL650" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL650" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AM650" t="s" s="2">
         <v>76</v>
@@ -74393,7 +74393,7 @@
         <v>383</v>
       </c>
       <c r="L651" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M651" s="2"/>
       <c r="N651" s="2"/>
@@ -74402,7 +74402,7 @@
       </c>
       <c r="P651" s="2"/>
       <c r="Q651" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R651" t="s" s="2">
         <v>76</v>
@@ -74424,7 +74424,7 @@
       </c>
       <c r="X651" s="2"/>
       <c r="Y651" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z651" t="s" s="2">
         <v>76</v>
@@ -74500,11 +74500,11 @@
         <v>391</v>
       </c>
       <c r="L652" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M652" s="2"/>
       <c r="N652" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O652" t="s" s="2">
         <v>76</v>
@@ -74605,7 +74605,7 @@
         <v>76</v>
       </c>
       <c r="J653" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="K653" t="s" s="2">
         <v>399</v>
@@ -76048,16 +76048,16 @@
         <v>87</v>
       </c>
       <c r="J666" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K666" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K666" t="s" s="2">
+      <c r="L666" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L666" t="s" s="2">
+      <c r="M666" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M666" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N666" s="2"/>
       <c r="O666" t="s" s="2">
@@ -76107,7 +76107,7 @@
         <v>76</v>
       </c>
       <c r="AE666" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF666" t="s" s="2">
         <v>77</v>
@@ -76122,13 +76122,13 @@
         <v>98</v>
       </c>
       <c r="AJ666" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK666" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK666" t="s" s="2">
+      <c r="AL666" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL666" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AM666" t="s" s="2">
         <v>76</v>
@@ -76165,7 +76165,7 @@
         <v>383</v>
       </c>
       <c r="L667" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M667" s="2"/>
       <c r="N667" s="2"/>
@@ -76174,7 +76174,7 @@
       </c>
       <c r="P667" s="2"/>
       <c r="Q667" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R667" t="s" s="2">
         <v>76</v>
@@ -76196,7 +76196,7 @@
       </c>
       <c r="X667" s="2"/>
       <c r="Y667" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z667" t="s" s="2">
         <v>76</v>
@@ -76272,11 +76272,11 @@
         <v>391</v>
       </c>
       <c r="L668" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M668" s="2"/>
       <c r="N668" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O668" t="s" s="2">
         <v>76</v>
@@ -76377,7 +76377,7 @@
         <v>76</v>
       </c>
       <c r="J669" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="K669" t="s" s="2">
         <v>399</v>
@@ -77820,16 +77820,16 @@
         <v>87</v>
       </c>
       <c r="J682" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K682" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K682" t="s" s="2">
+      <c r="L682" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L682" t="s" s="2">
+      <c r="M682" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M682" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N682" s="2"/>
       <c r="O682" t="s" s="2">
@@ -77879,7 +77879,7 @@
         <v>76</v>
       </c>
       <c r="AE682" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF682" t="s" s="2">
         <v>77</v>
@@ -77894,13 +77894,13 @@
         <v>98</v>
       </c>
       <c r="AJ682" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK682" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK682" t="s" s="2">
+      <c r="AL682" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL682" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AM682" t="s" s="2">
         <v>76</v>
@@ -77937,7 +77937,7 @@
         <v>383</v>
       </c>
       <c r="L683" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M683" s="2"/>
       <c r="N683" s="2"/>
@@ -77946,7 +77946,7 @@
       </c>
       <c r="P683" s="2"/>
       <c r="Q683" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R683" t="s" s="2">
         <v>76</v>
@@ -77968,7 +77968,7 @@
       </c>
       <c r="X683" s="2"/>
       <c r="Y683" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z683" t="s" s="2">
         <v>76</v>
@@ -78044,11 +78044,11 @@
         <v>391</v>
       </c>
       <c r="L684" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M684" s="2"/>
       <c r="N684" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O684" t="s" s="2">
         <v>76</v>
@@ -78149,7 +78149,7 @@
         <v>76</v>
       </c>
       <c r="J685" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="K685" t="s" s="2">
         <v>399</v>
@@ -79592,16 +79592,16 @@
         <v>87</v>
       </c>
       <c r="J698" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K698" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K698" t="s" s="2">
+      <c r="L698" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L698" t="s" s="2">
+      <c r="M698" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M698" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N698" s="2"/>
       <c r="O698" t="s" s="2">
@@ -79651,7 +79651,7 @@
         <v>76</v>
       </c>
       <c r="AE698" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF698" t="s" s="2">
         <v>77</v>
@@ -79666,13 +79666,13 @@
         <v>98</v>
       </c>
       <c r="AJ698" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK698" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK698" t="s" s="2">
+      <c r="AL698" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL698" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AM698" t="s" s="2">
         <v>76</v>
@@ -79709,7 +79709,7 @@
         <v>383</v>
       </c>
       <c r="L699" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M699" s="2"/>
       <c r="N699" s="2"/>
@@ -79718,7 +79718,7 @@
       </c>
       <c r="P699" s="2"/>
       <c r="Q699" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R699" t="s" s="2">
         <v>76</v>
@@ -79740,7 +79740,7 @@
       </c>
       <c r="X699" s="2"/>
       <c r="Y699" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z699" t="s" s="2">
         <v>76</v>
@@ -79816,11 +79816,11 @@
         <v>391</v>
       </c>
       <c r="L700" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M700" s="2"/>
       <c r="N700" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O700" t="s" s="2">
         <v>76</v>
@@ -79921,7 +79921,7 @@
         <v>76</v>
       </c>
       <c r="J701" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="K701" t="s" s="2">
         <v>399</v>
@@ -81364,16 +81364,16 @@
         <v>87</v>
       </c>
       <c r="J714" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K714" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K714" t="s" s="2">
+      <c r="L714" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L714" t="s" s="2">
+      <c r="M714" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M714" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N714" s="2"/>
       <c r="O714" t="s" s="2">
@@ -81423,7 +81423,7 @@
         <v>76</v>
       </c>
       <c r="AE714" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF714" t="s" s="2">
         <v>77</v>
@@ -81438,13 +81438,13 @@
         <v>98</v>
       </c>
       <c r="AJ714" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK714" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK714" t="s" s="2">
+      <c r="AL714" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL714" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AM714" t="s" s="2">
         <v>76</v>
@@ -81481,7 +81481,7 @@
         <v>383</v>
       </c>
       <c r="L715" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M715" s="2"/>
       <c r="N715" s="2"/>
@@ -81490,7 +81490,7 @@
       </c>
       <c r="P715" s="2"/>
       <c r="Q715" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R715" t="s" s="2">
         <v>76</v>
@@ -81512,7 +81512,7 @@
       </c>
       <c r="X715" s="2"/>
       <c r="Y715" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z715" t="s" s="2">
         <v>76</v>
@@ -81588,11 +81588,11 @@
         <v>391</v>
       </c>
       <c r="L716" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M716" s="2"/>
       <c r="N716" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O716" t="s" s="2">
         <v>76</v>
@@ -81693,7 +81693,7 @@
         <v>76</v>
       </c>
       <c r="J717" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="K717" t="s" s="2">
         <v>399</v>
@@ -83136,16 +83136,16 @@
         <v>87</v>
       </c>
       <c r="J730" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K730" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K730" t="s" s="2">
+      <c r="L730" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L730" t="s" s="2">
+      <c r="M730" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M730" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N730" s="2"/>
       <c r="O730" t="s" s="2">
@@ -83195,7 +83195,7 @@
         <v>76</v>
       </c>
       <c r="AE730" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF730" t="s" s="2">
         <v>77</v>
@@ -83210,13 +83210,13 @@
         <v>98</v>
       </c>
       <c r="AJ730" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK730" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK730" t="s" s="2">
+      <c r="AL730" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL730" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AM730" t="s" s="2">
         <v>76</v>
@@ -83253,7 +83253,7 @@
         <v>383</v>
       </c>
       <c r="L731" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M731" s="2"/>
       <c r="N731" s="2"/>
@@ -83262,7 +83262,7 @@
       </c>
       <c r="P731" s="2"/>
       <c r="Q731" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R731" t="s" s="2">
         <v>76</v>
@@ -83284,7 +83284,7 @@
       </c>
       <c r="X731" s="2"/>
       <c r="Y731" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z731" t="s" s="2">
         <v>76</v>
@@ -83360,11 +83360,11 @@
         <v>391</v>
       </c>
       <c r="L732" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M732" s="2"/>
       <c r="N732" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O732" t="s" s="2">
         <v>76</v>
@@ -83465,7 +83465,7 @@
         <v>76</v>
       </c>
       <c r="J733" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="K733" t="s" s="2">
         <v>399</v>
@@ -84908,16 +84908,16 @@
         <v>87</v>
       </c>
       <c r="J746" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K746" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K746" t="s" s="2">
+      <c r="L746" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L746" t="s" s="2">
+      <c r="M746" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M746" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N746" s="2"/>
       <c r="O746" t="s" s="2">
@@ -84967,7 +84967,7 @@
         <v>76</v>
       </c>
       <c r="AE746" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF746" t="s" s="2">
         <v>77</v>
@@ -84982,13 +84982,13 @@
         <v>98</v>
       </c>
       <c r="AJ746" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK746" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK746" t="s" s="2">
+      <c r="AL746" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL746" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AM746" t="s" s="2">
         <v>76</v>
@@ -85025,7 +85025,7 @@
         <v>383</v>
       </c>
       <c r="L747" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M747" s="2"/>
       <c r="N747" s="2"/>
@@ -85034,7 +85034,7 @@
       </c>
       <c r="P747" s="2"/>
       <c r="Q747" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R747" t="s" s="2">
         <v>76</v>
@@ -85056,7 +85056,7 @@
       </c>
       <c r="X747" s="2"/>
       <c r="Y747" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z747" t="s" s="2">
         <v>76</v>
@@ -85132,11 +85132,11 @@
         <v>391</v>
       </c>
       <c r="L748" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M748" s="2"/>
       <c r="N748" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O748" t="s" s="2">
         <v>76</v>
@@ -85237,7 +85237,7 @@
         <v>76</v>
       </c>
       <c r="J749" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="K749" t="s" s="2">
         <v>399</v>
@@ -86680,16 +86680,16 @@
         <v>87</v>
       </c>
       <c r="J762" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K762" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K762" t="s" s="2">
+      <c r="L762" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L762" t="s" s="2">
+      <c r="M762" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M762" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N762" s="2"/>
       <c r="O762" t="s" s="2">
@@ -86739,7 +86739,7 @@
         <v>76</v>
       </c>
       <c r="AE762" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF762" t="s" s="2">
         <v>77</v>
@@ -86754,13 +86754,13 @@
         <v>98</v>
       </c>
       <c r="AJ762" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK762" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK762" t="s" s="2">
+      <c r="AL762" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL762" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AM762" t="s" s="2">
         <v>76</v>
@@ -86797,7 +86797,7 @@
         <v>383</v>
       </c>
       <c r="L763" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M763" s="2"/>
       <c r="N763" s="2"/>
@@ -86806,7 +86806,7 @@
       </c>
       <c r="P763" s="2"/>
       <c r="Q763" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R763" t="s" s="2">
         <v>76</v>
@@ -86828,7 +86828,7 @@
       </c>
       <c r="X763" s="2"/>
       <c r="Y763" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z763" t="s" s="2">
         <v>76</v>
@@ -86904,11 +86904,11 @@
         <v>391</v>
       </c>
       <c r="L764" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M764" s="2"/>
       <c r="N764" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O764" t="s" s="2">
         <v>76</v>
@@ -87009,7 +87009,7 @@
         <v>76</v>
       </c>
       <c r="J765" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="K765" t="s" s="2">
         <v>399</v>
@@ -88452,16 +88452,16 @@
         <v>87</v>
       </c>
       <c r="J778" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K778" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K778" t="s" s="2">
+      <c r="L778" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L778" t="s" s="2">
+      <c r="M778" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M778" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N778" s="2"/>
       <c r="O778" t="s" s="2">
@@ -88511,7 +88511,7 @@
         <v>76</v>
       </c>
       <c r="AE778" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF778" t="s" s="2">
         <v>77</v>
@@ -88526,13 +88526,13 @@
         <v>98</v>
       </c>
       <c r="AJ778" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK778" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK778" t="s" s="2">
+      <c r="AL778" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL778" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AM778" t="s" s="2">
         <v>76</v>
@@ -88569,7 +88569,7 @@
         <v>383</v>
       </c>
       <c r="L779" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M779" s="2"/>
       <c r="N779" s="2"/>
@@ -88578,7 +88578,7 @@
       </c>
       <c r="P779" s="2"/>
       <c r="Q779" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R779" t="s" s="2">
         <v>76</v>
@@ -88600,7 +88600,7 @@
       </c>
       <c r="X779" s="2"/>
       <c r="Y779" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z779" t="s" s="2">
         <v>76</v>
@@ -88676,11 +88676,11 @@
         <v>391</v>
       </c>
       <c r="L780" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M780" s="2"/>
       <c r="N780" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O780" t="s" s="2">
         <v>76</v>
@@ -88781,7 +88781,7 @@
         <v>76</v>
       </c>
       <c r="J781" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="K781" t="s" s="2">
         <v>399</v>
@@ -90224,16 +90224,16 @@
         <v>87</v>
       </c>
       <c r="J794" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K794" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K794" t="s" s="2">
+      <c r="L794" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L794" t="s" s="2">
+      <c r="M794" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M794" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N794" s="2"/>
       <c r="O794" t="s" s="2">
@@ -90283,7 +90283,7 @@
         <v>76</v>
       </c>
       <c r="AE794" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF794" t="s" s="2">
         <v>77</v>
@@ -90298,13 +90298,13 @@
         <v>98</v>
       </c>
       <c r="AJ794" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK794" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK794" t="s" s="2">
+      <c r="AL794" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL794" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AM794" t="s" s="2">
         <v>76</v>
@@ -90341,7 +90341,7 @@
         <v>383</v>
       </c>
       <c r="L795" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M795" s="2"/>
       <c r="N795" s="2"/>
@@ -90350,7 +90350,7 @@
       </c>
       <c r="P795" s="2"/>
       <c r="Q795" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R795" t="s" s="2">
         <v>76</v>
@@ -90372,7 +90372,7 @@
       </c>
       <c r="X795" s="2"/>
       <c r="Y795" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z795" t="s" s="2">
         <v>76</v>
@@ -90448,11 +90448,11 @@
         <v>391</v>
       </c>
       <c r="L796" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M796" s="2"/>
       <c r="N796" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O796" t="s" s="2">
         <v>76</v>
@@ -90553,7 +90553,7 @@
         <v>76</v>
       </c>
       <c r="J797" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="K797" t="s" s="2">
         <v>399</v>
@@ -91996,16 +91996,16 @@
         <v>87</v>
       </c>
       <c r="J810" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K810" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K810" t="s" s="2">
+      <c r="L810" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L810" t="s" s="2">
+      <c r="M810" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M810" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N810" s="2"/>
       <c r="O810" t="s" s="2">
@@ -92055,7 +92055,7 @@
         <v>76</v>
       </c>
       <c r="AE810" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF810" t="s" s="2">
         <v>77</v>
@@ -92070,13 +92070,13 @@
         <v>98</v>
       </c>
       <c r="AJ810" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK810" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK810" t="s" s="2">
+      <c r="AL810" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL810" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AM810" t="s" s="2">
         <v>76</v>
@@ -92113,7 +92113,7 @@
         <v>383</v>
       </c>
       <c r="L811" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M811" s="2"/>
       <c r="N811" s="2"/>
@@ -92144,7 +92144,7 @@
       </c>
       <c r="X811" s="2"/>
       <c r="Y811" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z811" t="s" s="2">
         <v>76</v>
@@ -92220,11 +92220,11 @@
         <v>391</v>
       </c>
       <c r="L812" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M812" s="2"/>
       <c r="N812" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O812" t="s" s="2">
         <v>76</v>
@@ -92325,7 +92325,7 @@
         <v>76</v>
       </c>
       <c r="J813" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="K813" t="s" s="2">
         <v>399</v>

--- a/jpcore-r4/feature/swg3-practioner免許コードの追加/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/feature/swg3-practioner免許コードの追加/StructureDefinition-jp-practitioner.xlsx
@@ -1319,7 +1319,7 @@
     <t>Practitioner.qualification.issuer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Organization)
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -1490,6 +1490,10 @@
     <t>Practitioner.qualification.identifier.assigner</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Organization)
+</t>
+  </si>
+  <si>
     <t>Organization that issued id (may be just text)</t>
   </si>
   <si>
@@ -1529,10 +1533,6 @@
   </si>
   <si>
     <t>Qualifications are often for a limited period of time, and can be revoked.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
   </si>
   <si>
     <t>Organization that regulates and issues the qualification.</t>
@@ -8712,16 +8712,16 @@
         <v>87</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8771,7 +8771,7 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8786,13 +8786,13 @@
         <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>76</v>
@@ -8829,7 +8829,7 @@
         <v>383</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8838,7 +8838,7 @@
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R59" t="s" s="2">
         <v>76</v>
@@ -8860,7 +8860,7 @@
       </c>
       <c r="X59" s="2"/>
       <c r="Y59" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>76</v>
@@ -8936,11 +8936,11 @@
         <v>391</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>76</v>
@@ -9041,7 +9041,7 @@
         <v>76</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>399</v>
@@ -10484,16 +10484,16 @@
         <v>87</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10543,7 +10543,7 @@
         <v>76</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10558,13 +10558,13 @@
         <v>98</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>76</v>
@@ -10601,7 +10601,7 @@
         <v>383</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10610,7 +10610,7 @@
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R75" t="s" s="2">
         <v>76</v>
@@ -10632,7 +10632,7 @@
       </c>
       <c r="X75" s="2"/>
       <c r="Y75" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>76</v>
@@ -10708,11 +10708,11 @@
         <v>391</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>76</v>
@@ -10813,7 +10813,7 @@
         <v>76</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>399</v>
@@ -12256,16 +12256,16 @@
         <v>87</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12315,7 +12315,7 @@
         <v>76</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12330,13 +12330,13 @@
         <v>98</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>76</v>
@@ -12373,7 +12373,7 @@
         <v>383</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12382,7 +12382,7 @@
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R91" t="s" s="2">
         <v>76</v>
@@ -12404,7 +12404,7 @@
       </c>
       <c r="X91" s="2"/>
       <c r="Y91" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>76</v>
@@ -12480,11 +12480,11 @@
         <v>391</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>76</v>
@@ -12585,7 +12585,7 @@
         <v>76</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="K93" t="s" s="2">
         <v>399</v>
@@ -14028,16 +14028,16 @@
         <v>87</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -14087,7 +14087,7 @@
         <v>76</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>77</v>
@@ -14102,13 +14102,13 @@
         <v>98</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>76</v>
@@ -14145,7 +14145,7 @@
         <v>383</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -14154,7 +14154,7 @@
       </c>
       <c r="P107" s="2"/>
       <c r="Q107" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R107" t="s" s="2">
         <v>76</v>
@@ -14176,7 +14176,7 @@
       </c>
       <c r="X107" s="2"/>
       <c r="Y107" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>76</v>
@@ -14252,11 +14252,11 @@
         <v>391</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>76</v>
@@ -14357,7 +14357,7 @@
         <v>76</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="K109" t="s" s="2">
         <v>399</v>
@@ -15800,16 +15800,16 @@
         <v>87</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
@@ -15859,7 +15859,7 @@
         <v>76</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>77</v>
@@ -15874,13 +15874,13 @@
         <v>98</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>76</v>
@@ -15917,7 +15917,7 @@
         <v>383</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -15926,7 +15926,7 @@
       </c>
       <c r="P123" s="2"/>
       <c r="Q123" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R123" t="s" s="2">
         <v>76</v>
@@ -15948,7 +15948,7 @@
       </c>
       <c r="X123" s="2"/>
       <c r="Y123" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z123" t="s" s="2">
         <v>76</v>
@@ -16024,11 +16024,11 @@
         <v>391</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>76</v>
@@ -16129,7 +16129,7 @@
         <v>76</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="K125" t="s" s="2">
         <v>399</v>
@@ -17572,16 +17572,16 @@
         <v>87</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
@@ -17631,7 +17631,7 @@
         <v>76</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>77</v>
@@ -17646,13 +17646,13 @@
         <v>98</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>76</v>
@@ -17689,7 +17689,7 @@
         <v>383</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
@@ -17698,7 +17698,7 @@
       </c>
       <c r="P139" s="2"/>
       <c r="Q139" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R139" t="s" s="2">
         <v>76</v>
@@ -17720,7 +17720,7 @@
       </c>
       <c r="X139" s="2"/>
       <c r="Y139" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z139" t="s" s="2">
         <v>76</v>
@@ -17796,11 +17796,11 @@
         <v>391</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>76</v>
@@ -17901,7 +17901,7 @@
         <v>76</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="K141" t="s" s="2">
         <v>399</v>
@@ -19344,16 +19344,16 @@
         <v>87</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" t="s" s="2">
@@ -19403,7 +19403,7 @@
         <v>76</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>77</v>
@@ -19418,13 +19418,13 @@
         <v>98</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM154" t="s" s="2">
         <v>76</v>
@@ -19461,7 +19461,7 @@
         <v>383</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M155" s="2"/>
       <c r="N155" s="2"/>
@@ -19470,7 +19470,7 @@
       </c>
       <c r="P155" s="2"/>
       <c r="Q155" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R155" t="s" s="2">
         <v>76</v>
@@ -19492,7 +19492,7 @@
       </c>
       <c r="X155" s="2"/>
       <c r="Y155" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z155" t="s" s="2">
         <v>76</v>
@@ -19568,11 +19568,11 @@
         <v>391</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M156" s="2"/>
       <c r="N156" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>76</v>
@@ -19673,7 +19673,7 @@
         <v>76</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="K157" t="s" s="2">
         <v>399</v>
@@ -21116,16 +21116,16 @@
         <v>87</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N170" s="2"/>
       <c r="O170" t="s" s="2">
@@ -21175,7 +21175,7 @@
         <v>76</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>77</v>
@@ -21190,13 +21190,13 @@
         <v>98</v>
       </c>
       <c r="AJ170" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK170" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL170" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM170" t="s" s="2">
         <v>76</v>
@@ -21233,7 +21233,7 @@
         <v>383</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M171" s="2"/>
       <c r="N171" s="2"/>
@@ -21242,7 +21242,7 @@
       </c>
       <c r="P171" s="2"/>
       <c r="Q171" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R171" t="s" s="2">
         <v>76</v>
@@ -21264,7 +21264,7 @@
       </c>
       <c r="X171" s="2"/>
       <c r="Y171" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z171" t="s" s="2">
         <v>76</v>
@@ -21340,11 +21340,11 @@
         <v>391</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M172" s="2"/>
       <c r="N172" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>76</v>
@@ -21445,7 +21445,7 @@
         <v>76</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="K173" t="s" s="2">
         <v>399</v>
@@ -22888,16 +22888,16 @@
         <v>87</v>
       </c>
       <c r="J186" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N186" s="2"/>
       <c r="O186" t="s" s="2">
@@ -22947,7 +22947,7 @@
         <v>76</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>77</v>
@@ -22962,13 +22962,13 @@
         <v>98</v>
       </c>
       <c r="AJ186" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK186" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL186" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM186" t="s" s="2">
         <v>76</v>
@@ -23005,7 +23005,7 @@
         <v>383</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M187" s="2"/>
       <c r="N187" s="2"/>
@@ -23014,7 +23014,7 @@
       </c>
       <c r="P187" s="2"/>
       <c r="Q187" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R187" t="s" s="2">
         <v>76</v>
@@ -23036,7 +23036,7 @@
       </c>
       <c r="X187" s="2"/>
       <c r="Y187" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z187" t="s" s="2">
         <v>76</v>
@@ -23112,11 +23112,11 @@
         <v>391</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M188" s="2"/>
       <c r="N188" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>76</v>
@@ -23217,7 +23217,7 @@
         <v>76</v>
       </c>
       <c r="J189" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="K189" t="s" s="2">
         <v>399</v>
@@ -24660,16 +24660,16 @@
         <v>87</v>
       </c>
       <c r="J202" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N202" s="2"/>
       <c r="O202" t="s" s="2">
@@ -24719,7 +24719,7 @@
         <v>76</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF202" t="s" s="2">
         <v>77</v>
@@ -24734,13 +24734,13 @@
         <v>98</v>
       </c>
       <c r="AJ202" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK202" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL202" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM202" t="s" s="2">
         <v>76</v>
@@ -24777,7 +24777,7 @@
         <v>383</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M203" s="2"/>
       <c r="N203" s="2"/>
@@ -24786,7 +24786,7 @@
       </c>
       <c r="P203" s="2"/>
       <c r="Q203" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R203" t="s" s="2">
         <v>76</v>
@@ -24808,7 +24808,7 @@
       </c>
       <c r="X203" s="2"/>
       <c r="Y203" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z203" t="s" s="2">
         <v>76</v>
@@ -24884,11 +24884,11 @@
         <v>391</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M204" s="2"/>
       <c r="N204" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O204" t="s" s="2">
         <v>76</v>
@@ -24989,7 +24989,7 @@
         <v>76</v>
       </c>
       <c r="J205" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="K205" t="s" s="2">
         <v>399</v>
@@ -26432,16 +26432,16 @@
         <v>87</v>
       </c>
       <c r="J218" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N218" s="2"/>
       <c r="O218" t="s" s="2">
@@ -26491,7 +26491,7 @@
         <v>76</v>
       </c>
       <c r="AE218" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF218" t="s" s="2">
         <v>77</v>
@@ -26506,13 +26506,13 @@
         <v>98</v>
       </c>
       <c r="AJ218" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK218" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL218" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM218" t="s" s="2">
         <v>76</v>
@@ -26549,7 +26549,7 @@
         <v>383</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M219" s="2"/>
       <c r="N219" s="2"/>
@@ -26558,7 +26558,7 @@
       </c>
       <c r="P219" s="2"/>
       <c r="Q219" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R219" t="s" s="2">
         <v>76</v>
@@ -26580,7 +26580,7 @@
       </c>
       <c r="X219" s="2"/>
       <c r="Y219" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z219" t="s" s="2">
         <v>76</v>
@@ -26656,11 +26656,11 @@
         <v>391</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M220" s="2"/>
       <c r="N220" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O220" t="s" s="2">
         <v>76</v>
@@ -26761,7 +26761,7 @@
         <v>76</v>
       </c>
       <c r="J221" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="K221" t="s" s="2">
         <v>399</v>
@@ -28204,16 +28204,16 @@
         <v>87</v>
       </c>
       <c r="J234" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N234" s="2"/>
       <c r="O234" t="s" s="2">
@@ -28263,7 +28263,7 @@
         <v>76</v>
       </c>
       <c r="AE234" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF234" t="s" s="2">
         <v>77</v>
@@ -28278,13 +28278,13 @@
         <v>98</v>
       </c>
       <c r="AJ234" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK234" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL234" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM234" t="s" s="2">
         <v>76</v>
@@ -28321,7 +28321,7 @@
         <v>383</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M235" s="2"/>
       <c r="N235" s="2"/>
@@ -28330,7 +28330,7 @@
       </c>
       <c r="P235" s="2"/>
       <c r="Q235" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R235" t="s" s="2">
         <v>76</v>
@@ -28352,7 +28352,7 @@
       </c>
       <c r="X235" s="2"/>
       <c r="Y235" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z235" t="s" s="2">
         <v>76</v>
@@ -28428,11 +28428,11 @@
         <v>391</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M236" s="2"/>
       <c r="N236" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O236" t="s" s="2">
         <v>76</v>
@@ -28533,7 +28533,7 @@
         <v>76</v>
       </c>
       <c r="J237" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="K237" t="s" s="2">
         <v>399</v>
@@ -29976,16 +29976,16 @@
         <v>87</v>
       </c>
       <c r="J250" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K250" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M250" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N250" s="2"/>
       <c r="O250" t="s" s="2">
@@ -30035,7 +30035,7 @@
         <v>76</v>
       </c>
       <c r="AE250" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF250" t="s" s="2">
         <v>77</v>
@@ -30050,13 +30050,13 @@
         <v>98</v>
       </c>
       <c r="AJ250" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK250" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL250" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM250" t="s" s="2">
         <v>76</v>
@@ -30093,7 +30093,7 @@
         <v>383</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M251" s="2"/>
       <c r="N251" s="2"/>
@@ -30102,7 +30102,7 @@
       </c>
       <c r="P251" s="2"/>
       <c r="Q251" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R251" t="s" s="2">
         <v>76</v>
@@ -30124,7 +30124,7 @@
       </c>
       <c r="X251" s="2"/>
       <c r="Y251" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z251" t="s" s="2">
         <v>76</v>
@@ -30200,11 +30200,11 @@
         <v>391</v>
       </c>
       <c r="L252" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M252" s="2"/>
       <c r="N252" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O252" t="s" s="2">
         <v>76</v>
@@ -30305,7 +30305,7 @@
         <v>76</v>
       </c>
       <c r="J253" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="K253" t="s" s="2">
         <v>399</v>
@@ -31748,16 +31748,16 @@
         <v>87</v>
       </c>
       <c r="J266" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K266" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M266" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N266" s="2"/>
       <c r="O266" t="s" s="2">
@@ -31807,7 +31807,7 @@
         <v>76</v>
       </c>
       <c r="AE266" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF266" t="s" s="2">
         <v>77</v>
@@ -31822,13 +31822,13 @@
         <v>98</v>
       </c>
       <c r="AJ266" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK266" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL266" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM266" t="s" s="2">
         <v>76</v>
@@ -31865,7 +31865,7 @@
         <v>383</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M267" s="2"/>
       <c r="N267" s="2"/>
@@ -31874,7 +31874,7 @@
       </c>
       <c r="P267" s="2"/>
       <c r="Q267" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R267" t="s" s="2">
         <v>76</v>
@@ -31896,7 +31896,7 @@
       </c>
       <c r="X267" s="2"/>
       <c r="Y267" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z267" t="s" s="2">
         <v>76</v>
@@ -31972,11 +31972,11 @@
         <v>391</v>
       </c>
       <c r="L268" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M268" s="2"/>
       <c r="N268" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O268" t="s" s="2">
         <v>76</v>
@@ -32077,7 +32077,7 @@
         <v>76</v>
       </c>
       <c r="J269" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="K269" t="s" s="2">
         <v>399</v>
@@ -33520,16 +33520,16 @@
         <v>87</v>
       </c>
       <c r="J282" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K282" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M282" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N282" s="2"/>
       <c r="O282" t="s" s="2">
@@ -33579,7 +33579,7 @@
         <v>76</v>
       </c>
       <c r="AE282" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF282" t="s" s="2">
         <v>77</v>
@@ -33594,13 +33594,13 @@
         <v>98</v>
       </c>
       <c r="AJ282" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK282" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL282" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM282" t="s" s="2">
         <v>76</v>
@@ -33637,7 +33637,7 @@
         <v>383</v>
       </c>
       <c r="L283" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M283" s="2"/>
       <c r="N283" s="2"/>
@@ -33646,7 +33646,7 @@
       </c>
       <c r="P283" s="2"/>
       <c r="Q283" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R283" t="s" s="2">
         <v>76</v>
@@ -33668,7 +33668,7 @@
       </c>
       <c r="X283" s="2"/>
       <c r="Y283" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z283" t="s" s="2">
         <v>76</v>
@@ -33744,11 +33744,11 @@
         <v>391</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M284" s="2"/>
       <c r="N284" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O284" t="s" s="2">
         <v>76</v>
@@ -33849,7 +33849,7 @@
         <v>76</v>
       </c>
       <c r="J285" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="K285" t="s" s="2">
         <v>399</v>
@@ -35292,16 +35292,16 @@
         <v>87</v>
       </c>
       <c r="J298" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K298" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L298" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M298" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N298" s="2"/>
       <c r="O298" t="s" s="2">
@@ -35351,7 +35351,7 @@
         <v>76</v>
       </c>
       <c r="AE298" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF298" t="s" s="2">
         <v>77</v>
@@ -35366,13 +35366,13 @@
         <v>98</v>
       </c>
       <c r="AJ298" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK298" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL298" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM298" t="s" s="2">
         <v>76</v>
@@ -35409,7 +35409,7 @@
         <v>383</v>
       </c>
       <c r="L299" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M299" s="2"/>
       <c r="N299" s="2"/>
@@ -35418,7 +35418,7 @@
       </c>
       <c r="P299" s="2"/>
       <c r="Q299" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R299" t="s" s="2">
         <v>76</v>
@@ -35440,7 +35440,7 @@
       </c>
       <c r="X299" s="2"/>
       <c r="Y299" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z299" t="s" s="2">
         <v>76</v>
@@ -35516,11 +35516,11 @@
         <v>391</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M300" s="2"/>
       <c r="N300" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O300" t="s" s="2">
         <v>76</v>
@@ -35621,7 +35621,7 @@
         <v>76</v>
       </c>
       <c r="J301" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="K301" t="s" s="2">
         <v>399</v>
@@ -37064,16 +37064,16 @@
         <v>87</v>
       </c>
       <c r="J314" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K314" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L314" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M314" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N314" s="2"/>
       <c r="O314" t="s" s="2">
@@ -37123,7 +37123,7 @@
         <v>76</v>
       </c>
       <c r="AE314" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF314" t="s" s="2">
         <v>77</v>
@@ -37138,13 +37138,13 @@
         <v>98</v>
       </c>
       <c r="AJ314" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK314" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL314" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM314" t="s" s="2">
         <v>76</v>
@@ -37181,7 +37181,7 @@
         <v>383</v>
       </c>
       <c r="L315" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M315" s="2"/>
       <c r="N315" s="2"/>
@@ -37190,7 +37190,7 @@
       </c>
       <c r="P315" s="2"/>
       <c r="Q315" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R315" t="s" s="2">
         <v>76</v>
@@ -37212,7 +37212,7 @@
       </c>
       <c r="X315" s="2"/>
       <c r="Y315" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z315" t="s" s="2">
         <v>76</v>
@@ -37288,11 +37288,11 @@
         <v>391</v>
       </c>
       <c r="L316" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M316" s="2"/>
       <c r="N316" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O316" t="s" s="2">
         <v>76</v>
@@ -37393,7 +37393,7 @@
         <v>76</v>
       </c>
       <c r="J317" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="K317" t="s" s="2">
         <v>399</v>
@@ -38836,16 +38836,16 @@
         <v>87</v>
       </c>
       <c r="J330" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K330" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L330" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M330" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N330" s="2"/>
       <c r="O330" t="s" s="2">
@@ -38895,7 +38895,7 @@
         <v>76</v>
       </c>
       <c r="AE330" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF330" t="s" s="2">
         <v>77</v>
@@ -38910,13 +38910,13 @@
         <v>98</v>
       </c>
       <c r="AJ330" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK330" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL330" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM330" t="s" s="2">
         <v>76</v>
@@ -38953,7 +38953,7 @@
         <v>383</v>
       </c>
       <c r="L331" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M331" s="2"/>
       <c r="N331" s="2"/>
@@ -38962,7 +38962,7 @@
       </c>
       <c r="P331" s="2"/>
       <c r="Q331" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R331" t="s" s="2">
         <v>76</v>
@@ -38984,7 +38984,7 @@
       </c>
       <c r="X331" s="2"/>
       <c r="Y331" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z331" t="s" s="2">
         <v>76</v>
@@ -39060,11 +39060,11 @@
         <v>391</v>
       </c>
       <c r="L332" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M332" s="2"/>
       <c r="N332" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O332" t="s" s="2">
         <v>76</v>
@@ -39165,7 +39165,7 @@
         <v>76</v>
       </c>
       <c r="J333" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="K333" t="s" s="2">
         <v>399</v>
@@ -40608,16 +40608,16 @@
         <v>87</v>
       </c>
       <c r="J346" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K346" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L346" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M346" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N346" s="2"/>
       <c r="O346" t="s" s="2">
@@ -40667,7 +40667,7 @@
         <v>76</v>
       </c>
       <c r="AE346" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF346" t="s" s="2">
         <v>77</v>
@@ -40682,13 +40682,13 @@
         <v>98</v>
       </c>
       <c r="AJ346" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK346" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL346" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM346" t="s" s="2">
         <v>76</v>
@@ -40725,7 +40725,7 @@
         <v>383</v>
       </c>
       <c r="L347" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M347" s="2"/>
       <c r="N347" s="2"/>
@@ -40734,7 +40734,7 @@
       </c>
       <c r="P347" s="2"/>
       <c r="Q347" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R347" t="s" s="2">
         <v>76</v>
@@ -40756,7 +40756,7 @@
       </c>
       <c r="X347" s="2"/>
       <c r="Y347" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z347" t="s" s="2">
         <v>76</v>
@@ -40832,11 +40832,11 @@
         <v>391</v>
       </c>
       <c r="L348" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M348" s="2"/>
       <c r="N348" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O348" t="s" s="2">
         <v>76</v>
@@ -40937,7 +40937,7 @@
         <v>76</v>
       </c>
       <c r="J349" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="K349" t="s" s="2">
         <v>399</v>
@@ -42380,16 +42380,16 @@
         <v>87</v>
       </c>
       <c r="J362" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K362" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L362" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M362" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N362" s="2"/>
       <c r="O362" t="s" s="2">
@@ -42439,7 +42439,7 @@
         <v>76</v>
       </c>
       <c r="AE362" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF362" t="s" s="2">
         <v>77</v>
@@ -42454,13 +42454,13 @@
         <v>98</v>
       </c>
       <c r="AJ362" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK362" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL362" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM362" t="s" s="2">
         <v>76</v>
@@ -42497,7 +42497,7 @@
         <v>383</v>
       </c>
       <c r="L363" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M363" s="2"/>
       <c r="N363" s="2"/>
@@ -42506,7 +42506,7 @@
       </c>
       <c r="P363" s="2"/>
       <c r="Q363" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R363" t="s" s="2">
         <v>76</v>
@@ -42528,7 +42528,7 @@
       </c>
       <c r="X363" s="2"/>
       <c r="Y363" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z363" t="s" s="2">
         <v>76</v>
@@ -42604,11 +42604,11 @@
         <v>391</v>
       </c>
       <c r="L364" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M364" s="2"/>
       <c r="N364" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O364" t="s" s="2">
         <v>76</v>
@@ -42709,7 +42709,7 @@
         <v>76</v>
       </c>
       <c r="J365" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="K365" t="s" s="2">
         <v>399</v>
@@ -44152,16 +44152,16 @@
         <v>87</v>
       </c>
       <c r="J378" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K378" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L378" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M378" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N378" s="2"/>
       <c r="O378" t="s" s="2">
@@ -44211,7 +44211,7 @@
         <v>76</v>
       </c>
       <c r="AE378" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF378" t="s" s="2">
         <v>77</v>
@@ -44226,13 +44226,13 @@
         <v>98</v>
       </c>
       <c r="AJ378" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK378" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL378" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM378" t="s" s="2">
         <v>76</v>
@@ -44269,7 +44269,7 @@
         <v>383</v>
       </c>
       <c r="L379" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M379" s="2"/>
       <c r="N379" s="2"/>
@@ -44278,7 +44278,7 @@
       </c>
       <c r="P379" s="2"/>
       <c r="Q379" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R379" t="s" s="2">
         <v>76</v>
@@ -44300,7 +44300,7 @@
       </c>
       <c r="X379" s="2"/>
       <c r="Y379" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z379" t="s" s="2">
         <v>76</v>
@@ -44376,11 +44376,11 @@
         <v>391</v>
       </c>
       <c r="L380" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M380" s="2"/>
       <c r="N380" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O380" t="s" s="2">
         <v>76</v>
@@ -44481,7 +44481,7 @@
         <v>76</v>
       </c>
       <c r="J381" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="K381" t="s" s="2">
         <v>399</v>
@@ -45924,16 +45924,16 @@
         <v>87</v>
       </c>
       <c r="J394" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K394" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L394" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M394" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N394" s="2"/>
       <c r="O394" t="s" s="2">
@@ -45983,7 +45983,7 @@
         <v>76</v>
       </c>
       <c r="AE394" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF394" t="s" s="2">
         <v>77</v>
@@ -45998,13 +45998,13 @@
         <v>98</v>
       </c>
       <c r="AJ394" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK394" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL394" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM394" t="s" s="2">
         <v>76</v>
@@ -46041,7 +46041,7 @@
         <v>383</v>
       </c>
       <c r="L395" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M395" s="2"/>
       <c r="N395" s="2"/>
@@ -46050,7 +46050,7 @@
       </c>
       <c r="P395" s="2"/>
       <c r="Q395" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R395" t="s" s="2">
         <v>76</v>
@@ -46072,7 +46072,7 @@
       </c>
       <c r="X395" s="2"/>
       <c r="Y395" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z395" t="s" s="2">
         <v>76</v>
@@ -46148,11 +46148,11 @@
         <v>391</v>
       </c>
       <c r="L396" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M396" s="2"/>
       <c r="N396" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O396" t="s" s="2">
         <v>76</v>
@@ -46253,7 +46253,7 @@
         <v>76</v>
       </c>
       <c r="J397" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="K397" t="s" s="2">
         <v>399</v>
@@ -47696,16 +47696,16 @@
         <v>87</v>
       </c>
       <c r="J410" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K410" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L410" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M410" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N410" s="2"/>
       <c r="O410" t="s" s="2">
@@ -47755,7 +47755,7 @@
         <v>76</v>
       </c>
       <c r="AE410" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF410" t="s" s="2">
         <v>77</v>
@@ -47770,13 +47770,13 @@
         <v>98</v>
       </c>
       <c r="AJ410" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK410" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL410" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM410" t="s" s="2">
         <v>76</v>
@@ -47813,7 +47813,7 @@
         <v>383</v>
       </c>
       <c r="L411" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M411" s="2"/>
       <c r="N411" s="2"/>
@@ -47822,7 +47822,7 @@
       </c>
       <c r="P411" s="2"/>
       <c r="Q411" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R411" t="s" s="2">
         <v>76</v>
@@ -47844,7 +47844,7 @@
       </c>
       <c r="X411" s="2"/>
       <c r="Y411" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z411" t="s" s="2">
         <v>76</v>
@@ -47920,11 +47920,11 @@
         <v>391</v>
       </c>
       <c r="L412" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M412" s="2"/>
       <c r="N412" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O412" t="s" s="2">
         <v>76</v>
@@ -48025,7 +48025,7 @@
         <v>76</v>
       </c>
       <c r="J413" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="K413" t="s" s="2">
         <v>399</v>
@@ -49468,16 +49468,16 @@
         <v>87</v>
       </c>
       <c r="J426" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K426" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L426" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M426" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N426" s="2"/>
       <c r="O426" t="s" s="2">
@@ -49527,7 +49527,7 @@
         <v>76</v>
       </c>
       <c r="AE426" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF426" t="s" s="2">
         <v>77</v>
@@ -49542,13 +49542,13 @@
         <v>98</v>
       </c>
       <c r="AJ426" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK426" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL426" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM426" t="s" s="2">
         <v>76</v>
@@ -49585,7 +49585,7 @@
         <v>383</v>
       </c>
       <c r="L427" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M427" s="2"/>
       <c r="N427" s="2"/>
@@ -49594,7 +49594,7 @@
       </c>
       <c r="P427" s="2"/>
       <c r="Q427" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R427" t="s" s="2">
         <v>76</v>
@@ -49616,7 +49616,7 @@
       </c>
       <c r="X427" s="2"/>
       <c r="Y427" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z427" t="s" s="2">
         <v>76</v>
@@ -49692,11 +49692,11 @@
         <v>391</v>
       </c>
       <c r="L428" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M428" s="2"/>
       <c r="N428" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O428" t="s" s="2">
         <v>76</v>
@@ -49797,7 +49797,7 @@
         <v>76</v>
       </c>
       <c r="J429" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="K429" t="s" s="2">
         <v>399</v>
@@ -51240,16 +51240,16 @@
         <v>87</v>
       </c>
       <c r="J442" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K442" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L442" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M442" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N442" s="2"/>
       <c r="O442" t="s" s="2">
@@ -51299,7 +51299,7 @@
         <v>76</v>
       </c>
       <c r="AE442" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF442" t="s" s="2">
         <v>77</v>
@@ -51314,13 +51314,13 @@
         <v>98</v>
       </c>
       <c r="AJ442" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK442" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL442" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM442" t="s" s="2">
         <v>76</v>
@@ -51357,7 +51357,7 @@
         <v>383</v>
       </c>
       <c r="L443" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M443" s="2"/>
       <c r="N443" s="2"/>
@@ -51366,7 +51366,7 @@
       </c>
       <c r="P443" s="2"/>
       <c r="Q443" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R443" t="s" s="2">
         <v>76</v>
@@ -51388,7 +51388,7 @@
       </c>
       <c r="X443" s="2"/>
       <c r="Y443" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z443" t="s" s="2">
         <v>76</v>
@@ -51464,11 +51464,11 @@
         <v>391</v>
       </c>
       <c r="L444" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M444" s="2"/>
       <c r="N444" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O444" t="s" s="2">
         <v>76</v>
@@ -51569,7 +51569,7 @@
         <v>76</v>
       </c>
       <c r="J445" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="K445" t="s" s="2">
         <v>399</v>
@@ -53012,16 +53012,16 @@
         <v>87</v>
       </c>
       <c r="J458" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K458" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L458" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M458" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N458" s="2"/>
       <c r="O458" t="s" s="2">
@@ -53071,7 +53071,7 @@
         <v>76</v>
       </c>
       <c r="AE458" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF458" t="s" s="2">
         <v>77</v>
@@ -53086,13 +53086,13 @@
         <v>98</v>
       </c>
       <c r="AJ458" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK458" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL458" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM458" t="s" s="2">
         <v>76</v>
@@ -53129,7 +53129,7 @@
         <v>383</v>
       </c>
       <c r="L459" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M459" s="2"/>
       <c r="N459" s="2"/>
@@ -53138,7 +53138,7 @@
       </c>
       <c r="P459" s="2"/>
       <c r="Q459" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R459" t="s" s="2">
         <v>76</v>
@@ -53160,7 +53160,7 @@
       </c>
       <c r="X459" s="2"/>
       <c r="Y459" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z459" t="s" s="2">
         <v>76</v>
@@ -53236,11 +53236,11 @@
         <v>391</v>
       </c>
       <c r="L460" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M460" s="2"/>
       <c r="N460" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O460" t="s" s="2">
         <v>76</v>
@@ -53341,7 +53341,7 @@
         <v>76</v>
       </c>
       <c r="J461" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="K461" t="s" s="2">
         <v>399</v>
@@ -54784,16 +54784,16 @@
         <v>87</v>
       </c>
       <c r="J474" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K474" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L474" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M474" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N474" s="2"/>
       <c r="O474" t="s" s="2">
@@ -54843,7 +54843,7 @@
         <v>76</v>
       </c>
       <c r="AE474" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF474" t="s" s="2">
         <v>77</v>
@@ -54858,13 +54858,13 @@
         <v>98</v>
       </c>
       <c r="AJ474" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK474" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL474" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM474" t="s" s="2">
         <v>76</v>
@@ -54901,7 +54901,7 @@
         <v>383</v>
       </c>
       <c r="L475" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M475" s="2"/>
       <c r="N475" s="2"/>
@@ -54910,7 +54910,7 @@
       </c>
       <c r="P475" s="2"/>
       <c r="Q475" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R475" t="s" s="2">
         <v>76</v>
@@ -54932,7 +54932,7 @@
       </c>
       <c r="X475" s="2"/>
       <c r="Y475" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z475" t="s" s="2">
         <v>76</v>
@@ -55008,11 +55008,11 @@
         <v>391</v>
       </c>
       <c r="L476" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M476" s="2"/>
       <c r="N476" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O476" t="s" s="2">
         <v>76</v>
@@ -55113,7 +55113,7 @@
         <v>76</v>
       </c>
       <c r="J477" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="K477" t="s" s="2">
         <v>399</v>
@@ -56556,16 +56556,16 @@
         <v>87</v>
       </c>
       <c r="J490" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K490" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L490" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M490" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N490" s="2"/>
       <c r="O490" t="s" s="2">
@@ -56615,7 +56615,7 @@
         <v>76</v>
       </c>
       <c r="AE490" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF490" t="s" s="2">
         <v>77</v>
@@ -56630,13 +56630,13 @@
         <v>98</v>
       </c>
       <c r="AJ490" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK490" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL490" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM490" t="s" s="2">
         <v>76</v>
@@ -56673,7 +56673,7 @@
         <v>383</v>
       </c>
       <c r="L491" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M491" s="2"/>
       <c r="N491" s="2"/>
@@ -56682,7 +56682,7 @@
       </c>
       <c r="P491" s="2"/>
       <c r="Q491" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R491" t="s" s="2">
         <v>76</v>
@@ -56704,7 +56704,7 @@
       </c>
       <c r="X491" s="2"/>
       <c r="Y491" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z491" t="s" s="2">
         <v>76</v>
@@ -56780,11 +56780,11 @@
         <v>391</v>
       </c>
       <c r="L492" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M492" s="2"/>
       <c r="N492" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O492" t="s" s="2">
         <v>76</v>
@@ -56885,7 +56885,7 @@
         <v>76</v>
       </c>
       <c r="J493" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="K493" t="s" s="2">
         <v>399</v>
@@ -58328,16 +58328,16 @@
         <v>87</v>
       </c>
       <c r="J506" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K506" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L506" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M506" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N506" s="2"/>
       <c r="O506" t="s" s="2">
@@ -58387,7 +58387,7 @@
         <v>76</v>
       </c>
       <c r="AE506" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF506" t="s" s="2">
         <v>77</v>
@@ -58402,13 +58402,13 @@
         <v>98</v>
       </c>
       <c r="AJ506" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK506" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL506" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM506" t="s" s="2">
         <v>76</v>
@@ -58445,7 +58445,7 @@
         <v>383</v>
       </c>
       <c r="L507" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M507" s="2"/>
       <c r="N507" s="2"/>
@@ -58454,7 +58454,7 @@
       </c>
       <c r="P507" s="2"/>
       <c r="Q507" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R507" t="s" s="2">
         <v>76</v>
@@ -58476,7 +58476,7 @@
       </c>
       <c r="X507" s="2"/>
       <c r="Y507" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z507" t="s" s="2">
         <v>76</v>
@@ -58552,11 +58552,11 @@
         <v>391</v>
       </c>
       <c r="L508" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M508" s="2"/>
       <c r="N508" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O508" t="s" s="2">
         <v>76</v>
@@ -58657,7 +58657,7 @@
         <v>76</v>
       </c>
       <c r="J509" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="K509" t="s" s="2">
         <v>399</v>
@@ -60100,16 +60100,16 @@
         <v>87</v>
       </c>
       <c r="J522" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K522" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L522" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M522" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N522" s="2"/>
       <c r="O522" t="s" s="2">
@@ -60159,7 +60159,7 @@
         <v>76</v>
       </c>
       <c r="AE522" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF522" t="s" s="2">
         <v>77</v>
@@ -60174,13 +60174,13 @@
         <v>98</v>
       </c>
       <c r="AJ522" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK522" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL522" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM522" t="s" s="2">
         <v>76</v>
@@ -60217,7 +60217,7 @@
         <v>383</v>
       </c>
       <c r="L523" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M523" s="2"/>
       <c r="N523" s="2"/>
@@ -60226,7 +60226,7 @@
       </c>
       <c r="P523" s="2"/>
       <c r="Q523" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R523" t="s" s="2">
         <v>76</v>
@@ -60248,7 +60248,7 @@
       </c>
       <c r="X523" s="2"/>
       <c r="Y523" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z523" t="s" s="2">
         <v>76</v>
@@ -60324,11 +60324,11 @@
         <v>391</v>
       </c>
       <c r="L524" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M524" s="2"/>
       <c r="N524" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O524" t="s" s="2">
         <v>76</v>
@@ -60429,7 +60429,7 @@
         <v>76</v>
       </c>
       <c r="J525" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="K525" t="s" s="2">
         <v>399</v>
@@ -61872,16 +61872,16 @@
         <v>87</v>
       </c>
       <c r="J538" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K538" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L538" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M538" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N538" s="2"/>
       <c r="O538" t="s" s="2">
@@ -61931,7 +61931,7 @@
         <v>76</v>
       </c>
       <c r="AE538" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF538" t="s" s="2">
         <v>77</v>
@@ -61946,13 +61946,13 @@
         <v>98</v>
       </c>
       <c r="AJ538" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK538" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL538" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM538" t="s" s="2">
         <v>76</v>
@@ -61989,7 +61989,7 @@
         <v>383</v>
       </c>
       <c r="L539" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M539" s="2"/>
       <c r="N539" s="2"/>
@@ -61998,7 +61998,7 @@
       </c>
       <c r="P539" s="2"/>
       <c r="Q539" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R539" t="s" s="2">
         <v>76</v>
@@ -62020,7 +62020,7 @@
       </c>
       <c r="X539" s="2"/>
       <c r="Y539" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z539" t="s" s="2">
         <v>76</v>
@@ -62096,11 +62096,11 @@
         <v>391</v>
       </c>
       <c r="L540" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M540" s="2"/>
       <c r="N540" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O540" t="s" s="2">
         <v>76</v>
@@ -62201,7 +62201,7 @@
         <v>76</v>
       </c>
       <c r="J541" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="K541" t="s" s="2">
         <v>399</v>
@@ -63644,16 +63644,16 @@
         <v>87</v>
       </c>
       <c r="J554" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K554" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L554" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M554" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N554" s="2"/>
       <c r="O554" t="s" s="2">
@@ -63703,7 +63703,7 @@
         <v>76</v>
       </c>
       <c r="AE554" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF554" t="s" s="2">
         <v>77</v>
@@ -63718,13 +63718,13 @@
         <v>98</v>
       </c>
       <c r="AJ554" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK554" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL554" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM554" t="s" s="2">
         <v>76</v>
@@ -63761,7 +63761,7 @@
         <v>383</v>
       </c>
       <c r="L555" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M555" s="2"/>
       <c r="N555" s="2"/>
@@ -63770,7 +63770,7 @@
       </c>
       <c r="P555" s="2"/>
       <c r="Q555" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R555" t="s" s="2">
         <v>76</v>
@@ -63792,7 +63792,7 @@
       </c>
       <c r="X555" s="2"/>
       <c r="Y555" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z555" t="s" s="2">
         <v>76</v>
@@ -63868,11 +63868,11 @@
         <v>391</v>
       </c>
       <c r="L556" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M556" s="2"/>
       <c r="N556" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O556" t="s" s="2">
         <v>76</v>
@@ -63973,7 +63973,7 @@
         <v>76</v>
       </c>
       <c r="J557" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="K557" t="s" s="2">
         <v>399</v>
@@ -65416,16 +65416,16 @@
         <v>87</v>
       </c>
       <c r="J570" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K570" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L570" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M570" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N570" s="2"/>
       <c r="O570" t="s" s="2">
@@ -65475,7 +65475,7 @@
         <v>76</v>
       </c>
       <c r="AE570" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF570" t="s" s="2">
         <v>77</v>
@@ -65490,13 +65490,13 @@
         <v>98</v>
       </c>
       <c r="AJ570" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK570" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL570" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM570" t="s" s="2">
         <v>76</v>
@@ -65533,7 +65533,7 @@
         <v>383</v>
       </c>
       <c r="L571" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M571" s="2"/>
       <c r="N571" s="2"/>
@@ -65542,7 +65542,7 @@
       </c>
       <c r="P571" s="2"/>
       <c r="Q571" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R571" t="s" s="2">
         <v>76</v>
@@ -65564,7 +65564,7 @@
       </c>
       <c r="X571" s="2"/>
       <c r="Y571" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z571" t="s" s="2">
         <v>76</v>
@@ -65640,11 +65640,11 @@
         <v>391</v>
       </c>
       <c r="L572" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M572" s="2"/>
       <c r="N572" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O572" t="s" s="2">
         <v>76</v>
@@ -65745,7 +65745,7 @@
         <v>76</v>
       </c>
       <c r="J573" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="K573" t="s" s="2">
         <v>399</v>
@@ -67188,16 +67188,16 @@
         <v>87</v>
       </c>
       <c r="J586" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K586" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L586" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M586" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N586" s="2"/>
       <c r="O586" t="s" s="2">
@@ -67247,7 +67247,7 @@
         <v>76</v>
       </c>
       <c r="AE586" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF586" t="s" s="2">
         <v>77</v>
@@ -67262,13 +67262,13 @@
         <v>98</v>
       </c>
       <c r="AJ586" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK586" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL586" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM586" t="s" s="2">
         <v>76</v>
@@ -67305,7 +67305,7 @@
         <v>383</v>
       </c>
       <c r="L587" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M587" s="2"/>
       <c r="N587" s="2"/>
@@ -67314,7 +67314,7 @@
       </c>
       <c r="P587" s="2"/>
       <c r="Q587" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R587" t="s" s="2">
         <v>76</v>
@@ -67336,7 +67336,7 @@
       </c>
       <c r="X587" s="2"/>
       <c r="Y587" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z587" t="s" s="2">
         <v>76</v>
@@ -67412,11 +67412,11 @@
         <v>391</v>
       </c>
       <c r="L588" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M588" s="2"/>
       <c r="N588" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O588" t="s" s="2">
         <v>76</v>
@@ -67517,7 +67517,7 @@
         <v>76</v>
       </c>
       <c r="J589" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="K589" t="s" s="2">
         <v>399</v>
@@ -68960,16 +68960,16 @@
         <v>87</v>
       </c>
       <c r="J602" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K602" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L602" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M602" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N602" s="2"/>
       <c r="O602" t="s" s="2">
@@ -69019,7 +69019,7 @@
         <v>76</v>
       </c>
       <c r="AE602" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF602" t="s" s="2">
         <v>77</v>
@@ -69034,13 +69034,13 @@
         <v>98</v>
       </c>
       <c r="AJ602" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK602" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL602" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM602" t="s" s="2">
         <v>76</v>
@@ -69077,7 +69077,7 @@
         <v>383</v>
       </c>
       <c r="L603" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M603" s="2"/>
       <c r="N603" s="2"/>
@@ -69086,7 +69086,7 @@
       </c>
       <c r="P603" s="2"/>
       <c r="Q603" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R603" t="s" s="2">
         <v>76</v>
@@ -69108,7 +69108,7 @@
       </c>
       <c r="X603" s="2"/>
       <c r="Y603" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z603" t="s" s="2">
         <v>76</v>
@@ -69184,11 +69184,11 @@
         <v>391</v>
       </c>
       <c r="L604" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M604" s="2"/>
       <c r="N604" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O604" t="s" s="2">
         <v>76</v>
@@ -69289,7 +69289,7 @@
         <v>76</v>
       </c>
       <c r="J605" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="K605" t="s" s="2">
         <v>399</v>
@@ -70732,16 +70732,16 @@
         <v>87</v>
       </c>
       <c r="J618" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K618" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L618" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M618" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N618" s="2"/>
       <c r="O618" t="s" s="2">
@@ -70791,7 +70791,7 @@
         <v>76</v>
       </c>
       <c r="AE618" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF618" t="s" s="2">
         <v>77</v>
@@ -70806,13 +70806,13 @@
         <v>98</v>
       </c>
       <c r="AJ618" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK618" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL618" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM618" t="s" s="2">
         <v>76</v>
@@ -70849,7 +70849,7 @@
         <v>383</v>
       </c>
       <c r="L619" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M619" s="2"/>
       <c r="N619" s="2"/>
@@ -70858,7 +70858,7 @@
       </c>
       <c r="P619" s="2"/>
       <c r="Q619" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R619" t="s" s="2">
         <v>76</v>
@@ -70880,7 +70880,7 @@
       </c>
       <c r="X619" s="2"/>
       <c r="Y619" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z619" t="s" s="2">
         <v>76</v>
@@ -70956,11 +70956,11 @@
         <v>391</v>
       </c>
       <c r="L620" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M620" s="2"/>
       <c r="N620" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O620" t="s" s="2">
         <v>76</v>
@@ -71061,7 +71061,7 @@
         <v>76</v>
       </c>
       <c r="J621" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="K621" t="s" s="2">
         <v>399</v>
@@ -72504,16 +72504,16 @@
         <v>87</v>
       </c>
       <c r="J634" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K634" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L634" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M634" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N634" s="2"/>
       <c r="O634" t="s" s="2">
@@ -72563,7 +72563,7 @@
         <v>76</v>
       </c>
       <c r="AE634" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF634" t="s" s="2">
         <v>77</v>
@@ -72578,13 +72578,13 @@
         <v>98</v>
       </c>
       <c r="AJ634" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK634" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL634" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM634" t="s" s="2">
         <v>76</v>
@@ -72621,7 +72621,7 @@
         <v>383</v>
       </c>
       <c r="L635" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M635" s="2"/>
       <c r="N635" s="2"/>
@@ -72630,7 +72630,7 @@
       </c>
       <c r="P635" s="2"/>
       <c r="Q635" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R635" t="s" s="2">
         <v>76</v>
@@ -72652,7 +72652,7 @@
       </c>
       <c r="X635" s="2"/>
       <c r="Y635" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z635" t="s" s="2">
         <v>76</v>
@@ -72728,11 +72728,11 @@
         <v>391</v>
       </c>
       <c r="L636" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M636" s="2"/>
       <c r="N636" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O636" t="s" s="2">
         <v>76</v>
@@ -72833,7 +72833,7 @@
         <v>76</v>
       </c>
       <c r="J637" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="K637" t="s" s="2">
         <v>399</v>
@@ -74276,16 +74276,16 @@
         <v>87</v>
       </c>
       <c r="J650" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K650" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L650" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M650" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N650" s="2"/>
       <c r="O650" t="s" s="2">
@@ -74335,7 +74335,7 @@
         <v>76</v>
       </c>
       <c r="AE650" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF650" t="s" s="2">
         <v>77</v>
@@ -74350,13 +74350,13 @@
         <v>98</v>
       </c>
       <c r="AJ650" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK650" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL650" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM650" t="s" s="2">
         <v>76</v>
@@ -74393,7 +74393,7 @@
         <v>383</v>
       </c>
       <c r="L651" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M651" s="2"/>
       <c r="N651" s="2"/>
@@ -74402,7 +74402,7 @@
       </c>
       <c r="P651" s="2"/>
       <c r="Q651" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R651" t="s" s="2">
         <v>76</v>
@@ -74424,7 +74424,7 @@
       </c>
       <c r="X651" s="2"/>
       <c r="Y651" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z651" t="s" s="2">
         <v>76</v>
@@ -74500,11 +74500,11 @@
         <v>391</v>
       </c>
       <c r="L652" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M652" s="2"/>
       <c r="N652" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O652" t="s" s="2">
         <v>76</v>
@@ -74605,7 +74605,7 @@
         <v>76</v>
       </c>
       <c r="J653" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="K653" t="s" s="2">
         <v>399</v>
@@ -76048,16 +76048,16 @@
         <v>87</v>
       </c>
       <c r="J666" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K666" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L666" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M666" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N666" s="2"/>
       <c r="O666" t="s" s="2">
@@ -76107,7 +76107,7 @@
         <v>76</v>
       </c>
       <c r="AE666" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF666" t="s" s="2">
         <v>77</v>
@@ -76122,13 +76122,13 @@
         <v>98</v>
       </c>
       <c r="AJ666" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK666" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL666" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM666" t="s" s="2">
         <v>76</v>
@@ -76165,7 +76165,7 @@
         <v>383</v>
       </c>
       <c r="L667" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M667" s="2"/>
       <c r="N667" s="2"/>
@@ -76174,7 +76174,7 @@
       </c>
       <c r="P667" s="2"/>
       <c r="Q667" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R667" t="s" s="2">
         <v>76</v>
@@ -76196,7 +76196,7 @@
       </c>
       <c r="X667" s="2"/>
       <c r="Y667" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z667" t="s" s="2">
         <v>76</v>
@@ -76272,11 +76272,11 @@
         <v>391</v>
       </c>
       <c r="L668" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M668" s="2"/>
       <c r="N668" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O668" t="s" s="2">
         <v>76</v>
@@ -76377,7 +76377,7 @@
         <v>76</v>
       </c>
       <c r="J669" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="K669" t="s" s="2">
         <v>399</v>
@@ -77820,16 +77820,16 @@
         <v>87</v>
       </c>
       <c r="J682" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K682" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L682" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M682" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N682" s="2"/>
       <c r="O682" t="s" s="2">
@@ -77879,7 +77879,7 @@
         <v>76</v>
       </c>
       <c r="AE682" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF682" t="s" s="2">
         <v>77</v>
@@ -77894,13 +77894,13 @@
         <v>98</v>
       </c>
       <c r="AJ682" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK682" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL682" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM682" t="s" s="2">
         <v>76</v>
@@ -77937,7 +77937,7 @@
         <v>383</v>
       </c>
       <c r="L683" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M683" s="2"/>
       <c r="N683" s="2"/>
@@ -77946,7 +77946,7 @@
       </c>
       <c r="P683" s="2"/>
       <c r="Q683" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R683" t="s" s="2">
         <v>76</v>
@@ -77968,7 +77968,7 @@
       </c>
       <c r="X683" s="2"/>
       <c r="Y683" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z683" t="s" s="2">
         <v>76</v>
@@ -78044,11 +78044,11 @@
         <v>391</v>
       </c>
       <c r="L684" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M684" s="2"/>
       <c r="N684" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O684" t="s" s="2">
         <v>76</v>
@@ -78149,7 +78149,7 @@
         <v>76</v>
       </c>
       <c r="J685" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="K685" t="s" s="2">
         <v>399</v>
@@ -79592,16 +79592,16 @@
         <v>87</v>
       </c>
       <c r="J698" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K698" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L698" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M698" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N698" s="2"/>
       <c r="O698" t="s" s="2">
@@ -79651,7 +79651,7 @@
         <v>76</v>
       </c>
       <c r="AE698" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF698" t="s" s="2">
         <v>77</v>
@@ -79666,13 +79666,13 @@
         <v>98</v>
       </c>
       <c r="AJ698" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK698" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL698" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM698" t="s" s="2">
         <v>76</v>
@@ -79709,7 +79709,7 @@
         <v>383</v>
       </c>
       <c r="L699" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M699" s="2"/>
       <c r="N699" s="2"/>
@@ -79718,7 +79718,7 @@
       </c>
       <c r="P699" s="2"/>
       <c r="Q699" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R699" t="s" s="2">
         <v>76</v>
@@ -79740,7 +79740,7 @@
       </c>
       <c r="X699" s="2"/>
       <c r="Y699" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z699" t="s" s="2">
         <v>76</v>
@@ -79816,11 +79816,11 @@
         <v>391</v>
       </c>
       <c r="L700" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M700" s="2"/>
       <c r="N700" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O700" t="s" s="2">
         <v>76</v>
@@ -79921,7 +79921,7 @@
         <v>76</v>
       </c>
       <c r="J701" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="K701" t="s" s="2">
         <v>399</v>
@@ -81364,16 +81364,16 @@
         <v>87</v>
       </c>
       <c r="J714" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K714" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L714" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M714" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N714" s="2"/>
       <c r="O714" t="s" s="2">
@@ -81423,7 +81423,7 @@
         <v>76</v>
       </c>
       <c r="AE714" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF714" t="s" s="2">
         <v>77</v>
@@ -81438,13 +81438,13 @@
         <v>98</v>
       </c>
       <c r="AJ714" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK714" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL714" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM714" t="s" s="2">
         <v>76</v>
@@ -81481,7 +81481,7 @@
         <v>383</v>
       </c>
       <c r="L715" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M715" s="2"/>
       <c r="N715" s="2"/>
@@ -81490,7 +81490,7 @@
       </c>
       <c r="P715" s="2"/>
       <c r="Q715" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R715" t="s" s="2">
         <v>76</v>
@@ -81512,7 +81512,7 @@
       </c>
       <c r="X715" s="2"/>
       <c r="Y715" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z715" t="s" s="2">
         <v>76</v>
@@ -81588,11 +81588,11 @@
         <v>391</v>
       </c>
       <c r="L716" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M716" s="2"/>
       <c r="N716" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O716" t="s" s="2">
         <v>76</v>
@@ -81693,7 +81693,7 @@
         <v>76</v>
       </c>
       <c r="J717" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="K717" t="s" s="2">
         <v>399</v>
@@ -83136,16 +83136,16 @@
         <v>87</v>
       </c>
       <c r="J730" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K730" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L730" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M730" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N730" s="2"/>
       <c r="O730" t="s" s="2">
@@ -83195,7 +83195,7 @@
         <v>76</v>
       </c>
       <c r="AE730" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF730" t="s" s="2">
         <v>77</v>
@@ -83210,13 +83210,13 @@
         <v>98</v>
       </c>
       <c r="AJ730" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK730" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL730" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM730" t="s" s="2">
         <v>76</v>
@@ -83253,7 +83253,7 @@
         <v>383</v>
       </c>
       <c r="L731" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M731" s="2"/>
       <c r="N731" s="2"/>
@@ -83262,7 +83262,7 @@
       </c>
       <c r="P731" s="2"/>
       <c r="Q731" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R731" t="s" s="2">
         <v>76</v>
@@ -83284,7 +83284,7 @@
       </c>
       <c r="X731" s="2"/>
       <c r="Y731" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z731" t="s" s="2">
         <v>76</v>
@@ -83360,11 +83360,11 @@
         <v>391</v>
       </c>
       <c r="L732" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M732" s="2"/>
       <c r="N732" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O732" t="s" s="2">
         <v>76</v>
@@ -83465,7 +83465,7 @@
         <v>76</v>
       </c>
       <c r="J733" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="K733" t="s" s="2">
         <v>399</v>
@@ -84908,16 +84908,16 @@
         <v>87</v>
       </c>
       <c r="J746" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K746" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L746" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M746" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N746" s="2"/>
       <c r="O746" t="s" s="2">
@@ -84967,7 +84967,7 @@
         <v>76</v>
       </c>
       <c r="AE746" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF746" t="s" s="2">
         <v>77</v>
@@ -84982,13 +84982,13 @@
         <v>98</v>
       </c>
       <c r="AJ746" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK746" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL746" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM746" t="s" s="2">
         <v>76</v>
@@ -85025,7 +85025,7 @@
         <v>383</v>
       </c>
       <c r="L747" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M747" s="2"/>
       <c r="N747" s="2"/>
@@ -85034,7 +85034,7 @@
       </c>
       <c r="P747" s="2"/>
       <c r="Q747" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R747" t="s" s="2">
         <v>76</v>
@@ -85056,7 +85056,7 @@
       </c>
       <c r="X747" s="2"/>
       <c r="Y747" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z747" t="s" s="2">
         <v>76</v>
@@ -85132,11 +85132,11 @@
         <v>391</v>
       </c>
       <c r="L748" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M748" s="2"/>
       <c r="N748" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O748" t="s" s="2">
         <v>76</v>
@@ -85237,7 +85237,7 @@
         <v>76</v>
       </c>
       <c r="J749" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="K749" t="s" s="2">
         <v>399</v>
@@ -86680,16 +86680,16 @@
         <v>87</v>
       </c>
       <c r="J762" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K762" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L762" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M762" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N762" s="2"/>
       <c r="O762" t="s" s="2">
@@ -86739,7 +86739,7 @@
         <v>76</v>
       </c>
       <c r="AE762" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF762" t="s" s="2">
         <v>77</v>
@@ -86754,13 +86754,13 @@
         <v>98</v>
       </c>
       <c r="AJ762" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK762" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL762" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM762" t="s" s="2">
         <v>76</v>
@@ -86797,7 +86797,7 @@
         <v>383</v>
       </c>
       <c r="L763" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M763" s="2"/>
       <c r="N763" s="2"/>
@@ -86806,7 +86806,7 @@
       </c>
       <c r="P763" s="2"/>
       <c r="Q763" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R763" t="s" s="2">
         <v>76</v>
@@ -86828,7 +86828,7 @@
       </c>
       <c r="X763" s="2"/>
       <c r="Y763" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z763" t="s" s="2">
         <v>76</v>
@@ -86904,11 +86904,11 @@
         <v>391</v>
       </c>
       <c r="L764" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M764" s="2"/>
       <c r="N764" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O764" t="s" s="2">
         <v>76</v>
@@ -87009,7 +87009,7 @@
         <v>76</v>
       </c>
       <c r="J765" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="K765" t="s" s="2">
         <v>399</v>
@@ -88452,16 +88452,16 @@
         <v>87</v>
       </c>
       <c r="J778" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K778" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L778" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M778" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N778" s="2"/>
       <c r="O778" t="s" s="2">
@@ -88511,7 +88511,7 @@
         <v>76</v>
       </c>
       <c r="AE778" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF778" t="s" s="2">
         <v>77</v>
@@ -88526,13 +88526,13 @@
         <v>98</v>
       </c>
       <c r="AJ778" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK778" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL778" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM778" t="s" s="2">
         <v>76</v>
@@ -88569,7 +88569,7 @@
         <v>383</v>
       </c>
       <c r="L779" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M779" s="2"/>
       <c r="N779" s="2"/>
@@ -88578,7 +88578,7 @@
       </c>
       <c r="P779" s="2"/>
       <c r="Q779" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R779" t="s" s="2">
         <v>76</v>
@@ -88600,7 +88600,7 @@
       </c>
       <c r="X779" s="2"/>
       <c r="Y779" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z779" t="s" s="2">
         <v>76</v>
@@ -88676,11 +88676,11 @@
         <v>391</v>
       </c>
       <c r="L780" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M780" s="2"/>
       <c r="N780" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O780" t="s" s="2">
         <v>76</v>
@@ -88781,7 +88781,7 @@
         <v>76</v>
       </c>
       <c r="J781" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="K781" t="s" s="2">
         <v>399</v>
@@ -90224,16 +90224,16 @@
         <v>87</v>
       </c>
       <c r="J794" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K794" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L794" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M794" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N794" s="2"/>
       <c r="O794" t="s" s="2">
@@ -90283,7 +90283,7 @@
         <v>76</v>
       </c>
       <c r="AE794" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF794" t="s" s="2">
         <v>77</v>
@@ -90298,13 +90298,13 @@
         <v>98</v>
       </c>
       <c r="AJ794" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK794" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL794" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM794" t="s" s="2">
         <v>76</v>
@@ -90341,7 +90341,7 @@
         <v>383</v>
       </c>
       <c r="L795" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M795" s="2"/>
       <c r="N795" s="2"/>
@@ -90350,7 +90350,7 @@
       </c>
       <c r="P795" s="2"/>
       <c r="Q795" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R795" t="s" s="2">
         <v>76</v>
@@ -90372,7 +90372,7 @@
       </c>
       <c r="X795" s="2"/>
       <c r="Y795" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z795" t="s" s="2">
         <v>76</v>
@@ -90448,11 +90448,11 @@
         <v>391</v>
       </c>
       <c r="L796" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M796" s="2"/>
       <c r="N796" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O796" t="s" s="2">
         <v>76</v>
@@ -90553,7 +90553,7 @@
         <v>76</v>
       </c>
       <c r="J797" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="K797" t="s" s="2">
         <v>399</v>
@@ -91996,16 +91996,16 @@
         <v>87</v>
       </c>
       <c r="J810" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K810" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L810" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M810" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N810" s="2"/>
       <c r="O810" t="s" s="2">
@@ -92055,7 +92055,7 @@
         <v>76</v>
       </c>
       <c r="AE810" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF810" t="s" s="2">
         <v>77</v>
@@ -92070,13 +92070,13 @@
         <v>98</v>
       </c>
       <c r="AJ810" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK810" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL810" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM810" t="s" s="2">
         <v>76</v>
@@ -92113,7 +92113,7 @@
         <v>383</v>
       </c>
       <c r="L811" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M811" s="2"/>
       <c r="N811" s="2"/>
@@ -92144,7 +92144,7 @@
       </c>
       <c r="X811" s="2"/>
       <c r="Y811" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z811" t="s" s="2">
         <v>76</v>
@@ -92220,11 +92220,11 @@
         <v>391</v>
       </c>
       <c r="L812" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M812" s="2"/>
       <c r="N812" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O812" t="s" s="2">
         <v>76</v>
@@ -92325,7 +92325,7 @@
         <v>76</v>
       </c>
       <c r="J813" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="K813" t="s" s="2">
         <v>399</v>
